--- a/api list.xlsx
+++ b/api list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="2505" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="225">
   <si>
     <t>精灵类</t>
   </si>
@@ -705,9 +705,6 @@
     <t>font</t>
   </si>
   <si>
-    <t>字体文件名</t>
-  </si>
-  <si>
     <t>width</t>
   </si>
   <si>
@@ -870,7 +867,48 @@
     <t>字体描边颜色</t>
   </si>
   <si>
-    <t>注：web版width与height参数与客户端版不同，web版参数为将文字内容缩放至此宽度，客户端版为按此宽度剪裁</t>
+    <t>文本框类</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>将要打印的字符</t>
+  </si>
+  <si>
+    <t>打印一句话</t>
+  </si>
+  <si>
+    <t>textstyle</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>设置当前文字大小，颜色等属性。若可选参数没有设定且没有特殊说明的，将默认使用当前的文本风格设置。其中字体默认使用系统字体，size初始化为24，color初始化为0xFFFFFF，斜体等初始化为false，enableshadow和enablestroke初始化为false，shadow和stroke初始化为0x000000</t>
+  </si>
+  <si>
+    <t>文字大小</t>
+  </si>
+  <si>
+    <t>注：web版font、width与height参数与客户端版不同，web版font参数为字体名称，客户端版为字体文件名，width和height的web版为将文字内容缩放至此宽度，客户端版为按此宽度剪裁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字体文件名/字体名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*interval</t>
+  </si>
+  <si>
+    <t>文字显示的速度，范围0-100，越大越快</t>
+  </si>
+  <si>
+    <t>设置文字显示速度</t>
+  </si>
+  <si>
+    <t>textspeed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -940,7 +978,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -965,6 +1003,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="40">
     <border>
@@ -1479,7 +1523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1661,272 +1705,335 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color indexed="10"/>
@@ -2247,10 +2354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2262,10 +2369,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="120"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2280,10 +2387,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="134"/>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2293,13 +2400,13 @@
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="136" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2309,11 +2416,11 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="85"/>
+      <c r="F3" s="137"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="135"/>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
@@ -2323,13 +2430,13 @@
       <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="85"/>
+      <c r="F4" s="137"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="87"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2339,13 +2446,13 @@
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="138" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
@@ -2355,11 +2462,11 @@
       <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="88"/>
+      <c r="F6" s="138"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
@@ -2369,11 +2476,11 @@
       <c r="E7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="88"/>
+      <c r="F7" s="138"/>
     </row>
     <row r="8" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
@@ -2383,11 +2490,11 @@
       <c r="E8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="88"/>
+      <c r="F8" s="138"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
@@ -2397,11 +2504,11 @@
       <c r="E9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="88"/>
+      <c r="F9" s="138"/>
     </row>
     <row r="10" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="74"/>
-      <c r="B10" s="75"/>
+      <c r="A10" s="124"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="20" t="s">
         <v>29</v>
       </c>
@@ -2411,13 +2518,13 @@
       <c r="E10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="88"/>
+      <c r="F10" s="138"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="71"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
@@ -2427,13 +2534,13 @@
       <c r="E11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="127" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="9" t="s">
         <v>34</v>
       </c>
@@ -2443,11 +2550,11 @@
       <c r="E12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="77"/>
+      <c r="F12" s="104"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="73"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="9" t="s">
         <v>36</v>
       </c>
@@ -2457,11 +2564,11 @@
       <c r="E13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="77"/>
+      <c r="F13" s="104"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="72"/>
-      <c r="B14" s="73"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="9" t="s">
         <v>38</v>
       </c>
@@ -2471,11 +2578,11 @@
       <c r="E14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="77"/>
+      <c r="F14" s="104"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="74"/>
-      <c r="B15" s="75"/>
+      <c r="A15" s="124"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="11" t="s">
         <v>41</v>
       </c>
@@ -2485,13 +2592,13 @@
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="78"/>
+      <c r="F15" s="128"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="90"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="10" t="s">
         <v>6</v>
       </c>
@@ -2501,13 +2608,13 @@
       <c r="E16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="91" t="s">
+      <c r="F16" s="123" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="89"/>
-      <c r="B17" s="90"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="13" t="s">
         <v>46</v>
       </c>
@@ -2517,13 +2624,13 @@
       <c r="E17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="91"/>
+      <c r="F17" s="123"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="87"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="7" t="s">
         <v>6</v>
       </c>
@@ -2533,13 +2640,13 @@
       <c r="E18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="92" t="s">
+      <c r="F18" s="126" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="8" t="s">
         <v>46</v>
       </c>
@@ -2549,11 +2656,11 @@
       <c r="E19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="76"/>
+      <c r="F19" s="127"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="74"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="124"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="15" t="s">
         <v>50</v>
       </c>
@@ -2563,7 +2670,7 @@
       <c r="E20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="78"/>
+      <c r="F20" s="128"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="93" t="s">
@@ -2579,7 +2686,7 @@
       <c r="E21" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="95" t="s">
+      <c r="F21" s="129" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2598,10 +2705,10 @@
       <c r="F22" s="96"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="107"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="23" t="s">
         <v>6</v>
       </c>
@@ -2611,7 +2718,7 @@
       <c r="E23" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="108" t="s">
+      <c r="F23" s="95" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2630,10 +2737,10 @@
       <c r="F24" s="96"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="87"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="16" t="s">
         <v>6</v>
       </c>
@@ -2643,13 +2750,13 @@
       <c r="E25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="111" t="s">
+      <c r="F25" s="103" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="72"/>
-      <c r="B26" s="73"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="24" t="s">
         <v>64</v>
       </c>
@@ -2659,11 +2766,11 @@
       <c r="E26" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="77"/>
+      <c r="F26" s="104"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
-      <c r="B27" s="73"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="17" t="s">
         <v>67</v>
       </c>
@@ -2673,11 +2780,11 @@
       <c r="E27" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="77"/>
+      <c r="F27" s="104"/>
     </row>
     <row r="28" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="109"/>
-      <c r="B28" s="110"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="18" t="s">
         <v>69</v>
       </c>
@@ -2687,13 +2794,13 @@
       <c r="E28" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="112"/>
+      <c r="F28" s="105"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="113" t="s">
+      <c r="A29" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="114"/>
+      <c r="B29" s="107"/>
       <c r="C29" s="25" t="s">
         <v>6</v>
       </c>
@@ -2703,13 +2810,13 @@
       <c r="E29" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="108" t="s">
+      <c r="F29" s="95" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="115"/>
-      <c r="B30" s="116"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="24" t="s">
         <v>64</v>
       </c>
@@ -2722,8 +2829,8 @@
       <c r="F30" s="96"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="117"/>
-      <c r="B31" s="118"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="111"/>
       <c r="C31" s="26" t="s">
         <v>67</v>
       </c>
@@ -2733,13 +2840,13 @@
       <c r="E31" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="119"/>
+      <c r="F31" s="112"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="107"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="25" t="s">
         <v>6</v>
       </c>
@@ -2749,7 +2856,7 @@
       <c r="E32" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="122" t="s">
+      <c r="F32" s="115" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2765,7 +2872,7 @@
       <c r="E33" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="123"/>
+      <c r="F33" s="116"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="93"/>
@@ -2779,11 +2886,11 @@
       <c r="E34" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="124"/>
+      <c r="F34" s="117"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="120"/>
-      <c r="B35" s="121"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="114"/>
       <c r="C35" s="29" t="s">
         <v>83</v>
       </c>
@@ -2793,14 +2900,14 @@
       <c r="E35" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="125"/>
+      <c r="F35" s="118"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="126" t="s">
+      <c r="A38" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="80"/>
+      <c r="B38" s="120"/>
       <c r="C38" s="1" t="s">
         <v>1</v>
       </c>
@@ -2815,10 +2922,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="97" t="s">
+      <c r="A39" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="98"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="30" t="s">
         <v>10</v>
       </c>
@@ -2828,13 +2935,13 @@
       <c r="E39" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="103" t="s">
+      <c r="F39" s="82" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="99"/>
-      <c r="B40" s="100"/>
+      <c r="A40" s="89"/>
+      <c r="B40" s="90"/>
       <c r="C40" s="31" t="s">
         <v>89</v>
       </c>
@@ -2844,11 +2951,11 @@
       <c r="E40" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="104"/>
+      <c r="F40" s="83"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="99"/>
-      <c r="B41" s="100"/>
+      <c r="A41" s="89"/>
+      <c r="B41" s="90"/>
       <c r="C41" s="31" t="s">
         <v>91</v>
       </c>
@@ -2858,11 +2965,11 @@
       <c r="E41" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="104"/>
+      <c r="F41" s="83"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="99"/>
-      <c r="B42" s="100"/>
+      <c r="A42" s="89"/>
+      <c r="B42" s="90"/>
       <c r="C42" s="31" t="s">
         <v>94</v>
       </c>
@@ -2872,11 +2979,11 @@
       <c r="E42" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="104"/>
+      <c r="F42" s="83"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="101"/>
-      <c r="B43" s="102"/>
+      <c r="A43" s="87"/>
+      <c r="B43" s="88"/>
       <c r="C43" s="20" t="s">
         <v>97</v>
       </c>
@@ -2886,13 +2993,13 @@
       <c r="E43" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="F43" s="105"/>
+      <c r="F43" s="84"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="97" t="s">
+      <c r="A44" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="98"/>
+      <c r="B44" s="86"/>
       <c r="C44" s="30" t="s">
         <v>10</v>
       </c>
@@ -2902,13 +3009,13 @@
       <c r="E44" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="103" t="s">
+      <c r="F44" s="82" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="99"/>
-      <c r="B45" s="100"/>
+      <c r="A45" s="89"/>
+      <c r="B45" s="90"/>
       <c r="C45" s="32" t="s">
         <v>102</v>
       </c>
@@ -2918,11 +3025,11 @@
       <c r="E45" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="104"/>
+      <c r="F45" s="83"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="99"/>
-      <c r="B46" s="100"/>
+      <c r="A46" s="89"/>
+      <c r="B46" s="90"/>
       <c r="C46" s="31" t="s">
         <v>104</v>
       </c>
@@ -2932,11 +3039,11 @@
       <c r="E46" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="104"/>
+      <c r="F46" s="83"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="99"/>
-      <c r="B47" s="100"/>
+      <c r="A47" s="89"/>
+      <c r="B47" s="90"/>
       <c r="C47" s="31" t="s">
         <v>91</v>
       </c>
@@ -2946,11 +3053,11 @@
       <c r="E47" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F47" s="104"/>
+      <c r="F47" s="83"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="101"/>
-      <c r="B48" s="102"/>
+      <c r="A48" s="87"/>
+      <c r="B48" s="88"/>
       <c r="C48" s="33" t="s">
         <v>94</v>
       </c>
@@ -2960,13 +3067,13 @@
       <c r="E48" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="F48" s="105"/>
+      <c r="F48" s="84"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="97" t="s">
+      <c r="A49" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="98"/>
+      <c r="B49" s="86"/>
       <c r="C49" s="30" t="s">
         <v>10</v>
       </c>
@@ -2976,13 +3083,13 @@
       <c r="E49" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="103" t="s">
+      <c r="F49" s="82" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="101"/>
-      <c r="B50" s="102"/>
+      <c r="A50" s="87"/>
+      <c r="B50" s="88"/>
       <c r="C50" s="33" t="s">
         <v>91</v>
       </c>
@@ -2992,13 +3099,13 @@
       <c r="E50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F50" s="105"/>
+      <c r="F50" s="84"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="97" t="s">
+      <c r="A51" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="98"/>
+      <c r="B51" s="86"/>
       <c r="C51" s="30" t="s">
         <v>109</v>
       </c>
@@ -3008,13 +3115,13 @@
       <c r="E51" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="103" t="s">
+      <c r="F51" s="82" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="101"/>
-      <c r="B52" s="102"/>
+      <c r="A52" s="87"/>
+      <c r="B52" s="88"/>
       <c r="C52" s="11" t="s">
         <v>112</v>
       </c>
@@ -3024,13 +3131,13 @@
       <c r="E52" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F52" s="105"/>
+      <c r="F52" s="84"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="97" t="s">
+      <c r="A53" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="98"/>
+      <c r="B53" s="86"/>
       <c r="C53" s="30" t="s">
         <v>115</v>
       </c>
@@ -3040,13 +3147,13 @@
       <c r="E53" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="F53" s="103" t="s">
+      <c r="F53" s="82" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="99"/>
-      <c r="B54" s="100"/>
+      <c r="A54" s="89"/>
+      <c r="B54" s="90"/>
       <c r="C54" s="22" t="s">
         <v>67</v>
       </c>
@@ -3056,11 +3163,11 @@
       <c r="E54" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F54" s="104"/>
+      <c r="F54" s="83"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="101"/>
-      <c r="B55" s="102"/>
+      <c r="A55" s="87"/>
+      <c r="B55" s="88"/>
       <c r="C55" s="33" t="s">
         <v>64</v>
       </c>
@@ -3070,13 +3177,13 @@
       <c r="E55" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F55" s="105"/>
+      <c r="F55" s="84"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="127" t="s">
+      <c r="A56" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="128"/>
+      <c r="B56" s="75"/>
       <c r="C56" s="34" t="s">
         <v>115</v>
       </c>
@@ -3091,10 +3198,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="127" t="s">
+      <c r="A57" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="128"/>
+      <c r="B57" s="75"/>
       <c r="C57" s="1" t="s">
         <v>115</v>
       </c>
@@ -3109,10 +3216,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="129" t="s">
+      <c r="A58" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="130"/>
+      <c r="B58" s="77"/>
       <c r="C58" s="30" t="s">
         <v>115</v>
       </c>
@@ -3122,13 +3229,13 @@
       <c r="E58" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="F58" s="103" t="s">
+      <c r="F58" s="82" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="131"/>
-      <c r="B59" s="132"/>
+      <c r="A59" s="78"/>
+      <c r="B59" s="79"/>
       <c r="C59" s="31" t="s">
         <v>129</v>
       </c>
@@ -3138,11 +3245,11 @@
       <c r="E59" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="F59" s="104"/>
+      <c r="F59" s="83"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="131"/>
-      <c r="B60" s="132"/>
+      <c r="A60" s="78"/>
+      <c r="B60" s="79"/>
       <c r="C60" s="31" t="s">
         <v>131</v>
       </c>
@@ -3152,11 +3259,11 @@
       <c r="E60" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="F60" s="104"/>
+      <c r="F60" s="83"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="133"/>
-      <c r="B61" s="134"/>
+      <c r="A61" s="80"/>
+      <c r="B61" s="81"/>
       <c r="C61" s="11" t="s">
         <v>133</v>
       </c>
@@ -3166,7 +3273,7 @@
       <c r="E61" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F61" s="105"/>
+      <c r="F61" s="84"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -3190,10 +3297,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="61" t="s">
+      <c r="A65" s="139" t="s">
         <v>137</v>
       </c>
-      <c r="B65" s="64" t="s">
+      <c r="B65" s="142" t="s">
         <v>138</v>
       </c>
       <c r="C65" s="16" t="s">
@@ -3205,13 +3312,13 @@
       <c r="E65" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F65" s="67" t="s">
+      <c r="F65" s="145" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="62"/>
-      <c r="B66" s="65"/>
+      <c r="A66" s="140"/>
+      <c r="B66" s="143"/>
       <c r="C66" s="44" t="s">
         <v>10</v>
       </c>
@@ -3221,11 +3328,11 @@
       <c r="E66" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="F66" s="68"/>
+      <c r="F66" s="146"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="62"/>
-      <c r="B67" s="65"/>
+      <c r="A67" s="140"/>
+      <c r="B67" s="143"/>
       <c r="C67" s="44" t="s">
         <v>143</v>
       </c>
@@ -3235,11 +3342,11 @@
       <c r="E67" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="F67" s="68"/>
+      <c r="F67" s="146"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="62"/>
-      <c r="B68" s="65"/>
+      <c r="A68" s="140"/>
+      <c r="B68" s="143"/>
       <c r="C68" s="44" t="s">
         <v>145</v>
       </c>
@@ -3249,11 +3356,11 @@
       <c r="E68" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="F68" s="68"/>
+      <c r="F68" s="146"/>
     </row>
     <row r="69" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="62"/>
-      <c r="B69" s="65"/>
+      <c r="A69" s="140"/>
+      <c r="B69" s="143"/>
       <c r="C69" s="45" t="s">
         <v>147</v>
       </c>
@@ -3263,11 +3370,11 @@
       <c r="E69" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F69" s="68"/>
+      <c r="F69" s="146"/>
     </row>
     <row r="70" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="62"/>
-      <c r="B70" s="66"/>
+      <c r="A70" s="140"/>
+      <c r="B70" s="144"/>
       <c r="C70" s="46" t="s">
         <v>150</v>
       </c>
@@ -3277,11 +3384,11 @@
       <c r="E70" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="F70" s="69"/>
+      <c r="F70" s="147"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="62"/>
-      <c r="B71" s="64" t="s">
+      <c r="A71" s="140"/>
+      <c r="B71" s="142" t="s">
         <v>153</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -3293,13 +3400,13 @@
       <c r="E71" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F71" s="67" t="s">
+      <c r="F71" s="145" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="62"/>
-      <c r="B72" s="65"/>
+      <c r="A72" s="140"/>
+      <c r="B72" s="143"/>
       <c r="C72" s="44" t="s">
         <v>10</v>
       </c>
@@ -3309,11 +3416,11 @@
       <c r="E72" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="F72" s="68"/>
+      <c r="F72" s="146"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="62"/>
-      <c r="B73" s="65"/>
+      <c r="A73" s="140"/>
+      <c r="B73" s="143"/>
       <c r="C73" s="44" t="s">
         <v>143</v>
       </c>
@@ -3323,11 +3430,11 @@
       <c r="E73" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="F73" s="68"/>
+      <c r="F73" s="146"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="62"/>
-      <c r="B74" s="65"/>
+      <c r="A74" s="140"/>
+      <c r="B74" s="143"/>
       <c r="C74" s="44" t="s">
         <v>156</v>
       </c>
@@ -3337,11 +3444,11 @@
       <c r="E74" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="68"/>
+      <c r="F74" s="146"/>
     </row>
     <row r="75" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="62"/>
-      <c r="B75" s="65"/>
+      <c r="A75" s="140"/>
+      <c r="B75" s="143"/>
       <c r="C75" s="45" t="s">
         <v>147</v>
       </c>
@@ -3351,11 +3458,11 @@
       <c r="E75" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F75" s="68"/>
+      <c r="F75" s="146"/>
     </row>
     <row r="76" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="62"/>
-      <c r="B76" s="66"/>
+      <c r="A76" s="140"/>
+      <c r="B76" s="144"/>
       <c r="C76" s="47" t="s">
         <v>150</v>
       </c>
@@ -3365,11 +3472,11 @@
       <c r="E76" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="F76" s="69"/>
+      <c r="F76" s="147"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" s="62"/>
-      <c r="B77" s="64" t="s">
+      <c r="A77" s="140"/>
+      <c r="B77" s="142" t="s">
         <v>158</v>
       </c>
       <c r="C77" s="48" t="s">
@@ -3381,13 +3488,13 @@
       <c r="E77" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="F77" s="67" t="s">
+      <c r="F77" s="145" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="62"/>
-      <c r="B78" s="65"/>
+      <c r="A78" s="140"/>
+      <c r="B78" s="143"/>
       <c r="C78" s="44" t="s">
         <v>10</v>
       </c>
@@ -3397,11 +3504,11 @@
       <c r="E78" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F78" s="68"/>
+      <c r="F78" s="146"/>
     </row>
     <row r="79" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="62"/>
-      <c r="B79" s="65"/>
+      <c r="A79" s="140"/>
+      <c r="B79" s="143"/>
       <c r="C79" s="45" t="s">
         <v>147</v>
       </c>
@@ -3411,11 +3518,11 @@
       <c r="E79" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F79" s="68"/>
+      <c r="F79" s="146"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="62"/>
-      <c r="B80" s="65"/>
+      <c r="A80" s="140"/>
+      <c r="B80" s="143"/>
       <c r="C80" s="44" t="s">
         <v>89</v>
       </c>
@@ -3425,11 +3532,11 @@
       <c r="E80" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="F80" s="68"/>
+      <c r="F80" s="146"/>
     </row>
     <row r="81" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="62"/>
-      <c r="B81" s="66"/>
+      <c r="A81" s="140"/>
+      <c r="B81" s="144"/>
       <c r="C81" s="47" t="s">
         <v>163</v>
       </c>
@@ -3439,10 +3546,10 @@
       <c r="E81" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="F81" s="69"/>
+      <c r="F81" s="147"/>
     </row>
     <row r="82" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="62"/>
+      <c r="A82" s="140"/>
       <c r="B82" s="50" t="s">
         <v>165</v>
       </c>
@@ -3460,8 +3567,8 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="62"/>
-      <c r="B83" s="64" t="s">
+      <c r="A83" s="140"/>
+      <c r="B83" s="142" t="s">
         <v>168</v>
       </c>
       <c r="C83" s="49" t="s">
@@ -3473,13 +3580,13 @@
       <c r="E83" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F83" s="67" t="s">
+      <c r="F83" s="145" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="62"/>
-      <c r="B84" s="66"/>
+      <c r="A84" s="140"/>
+      <c r="B84" s="144"/>
       <c r="C84" s="47" t="s">
         <v>143</v>
       </c>
@@ -3489,10 +3596,10 @@
       <c r="E84" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="F84" s="69"/>
+      <c r="F84" s="147"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="63"/>
+      <c r="A85" s="141"/>
       <c r="B85" s="54" t="s">
         <v>108</v>
       </c>
@@ -3517,296 +3624,510 @@
       <c r="E86" s="59"/>
       <c r="F86" s="60"/>
     </row>
-    <row r="87" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="135" t="s">
+    <row r="91" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="B91" s="149"/>
+      <c r="C91" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="151" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="152" t="s">
+        <v>212</v>
+      </c>
+      <c r="B92" s="153"/>
+      <c r="C92" s="154" t="s">
+        <v>177</v>
+      </c>
+      <c r="D92" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="F92" s="155" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="136"/>
-      <c r="C88" s="16" t="s">
+      <c r="B93" s="67"/>
+      <c r="C93" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="43" t="s">
+      <c r="D93" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E88" s="43" t="s">
+      <c r="E93" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="F88" s="137" t="s">
+      <c r="F93" s="72" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="138"/>
-      <c r="B89" s="139"/>
-      <c r="C89" s="17" t="s">
+    <row r="94" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="68"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D89" s="17" t="s">
+      <c r="D94" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E89" s="17" t="s">
+      <c r="E94" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F89" s="137"/>
-    </row>
-    <row r="90" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="138"/>
-      <c r="B90" s="139"/>
-      <c r="C90" s="17" t="s">
+      <c r="F94" s="72"/>
+    </row>
+    <row r="95" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="68"/>
+      <c r="B95" s="69"/>
+      <c r="C95" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D90" s="44" t="s">
+      <c r="D95" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="E90" s="44" t="s">
+      <c r="E95" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="F90" s="137"/>
-    </row>
-    <row r="91" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="138"/>
-      <c r="B91" s="139"/>
-      <c r="C91" s="17" t="s">
+      <c r="F95" s="72"/>
+    </row>
+    <row r="96" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="68"/>
+      <c r="B96" s="69"/>
+      <c r="C96" s="17" t="s">
         <v>182</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="F91" s="137"/>
-    </row>
-    <row r="92" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="138"/>
-      <c r="B92" s="139"/>
-      <c r="C92" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="F92" s="137"/>
-    </row>
-    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="138"/>
-      <c r="B93" s="139"/>
-      <c r="C93" s="146" t="s">
-        <v>186</v>
-      </c>
-      <c r="D93" s="146" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="147" t="s">
-        <v>187</v>
-      </c>
-      <c r="F93" s="137"/>
-    </row>
-    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="138"/>
-      <c r="B94" s="139"/>
-      <c r="C94" s="146" t="s">
-        <v>188</v>
-      </c>
-      <c r="D94" s="146" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="147" t="s">
-        <v>189</v>
-      </c>
-      <c r="F94" s="137"/>
-    </row>
-    <row r="95" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="138"/>
-      <c r="B95" s="139"/>
-      <c r="C95" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="F95" s="137"/>
-    </row>
-    <row r="96" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="138"/>
-      <c r="B96" s="139"/>
-      <c r="C96" s="17" t="s">
-        <v>192</v>
       </c>
       <c r="D96" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E96" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F96" s="72"/>
+    </row>
+    <row r="97" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="68"/>
+      <c r="B97" s="69"/>
+      <c r="C97" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="D97" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="F97" s="72"/>
+    </row>
+    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="68"/>
+      <c r="B98" s="69"/>
+      <c r="C98" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="D98" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" s="72"/>
+    </row>
+    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="68"/>
+      <c r="B99" s="69"/>
+      <c r="C99" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="D99" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="F99" s="72"/>
+    </row>
+    <row r="100" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="68"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" s="72"/>
+    </row>
+    <row r="101" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="68"/>
+      <c r="B101" s="69"/>
+      <c r="C101" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" s="72"/>
+    </row>
+    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="68"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="F96" s="137"/>
-    </row>
-    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="138"/>
-      <c r="B97" s="139"/>
-      <c r="C97" s="17" t="s">
+      <c r="D102" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="D97" s="17" t="s">
+      <c r="F102" s="72"/>
+    </row>
+    <row r="103" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="68"/>
+      <c r="B103" s="69"/>
+      <c r="C103" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F103" s="72"/>
+    </row>
+    <row r="104" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="68"/>
+      <c r="B104" s="69"/>
+      <c r="C104" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F104" s="72"/>
+    </row>
+    <row r="105" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="68"/>
+      <c r="B105" s="69"/>
+      <c r="C105" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F105" s="72"/>
+    </row>
+    <row r="106" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="68"/>
+      <c r="B106" s="69"/>
+      <c r="C106" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="F106" s="72"/>
+    </row>
+    <row r="107" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="68"/>
+      <c r="B107" s="69"/>
+      <c r="C107" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="D107" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E107" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="F107" s="72"/>
+    </row>
+    <row r="108" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="68"/>
+      <c r="B108" s="69"/>
+      <c r="C108" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="D108" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="F108" s="72"/>
+    </row>
+    <row r="109" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="68"/>
+      <c r="B109" s="69"/>
+      <c r="C109" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="D109" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="E109" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="F109" s="72"/>
+    </row>
+    <row r="110" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="70"/>
+      <c r="B110" s="71"/>
+      <c r="C110" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="D110" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="E110" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="F110" s="72"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="B111" s="73"/>
+      <c r="C111" s="73"/>
+      <c r="D111" s="73"/>
+      <c r="E111" s="73"/>
+      <c r="F111" s="73"/>
+    </row>
+    <row r="112" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="73"/>
+      <c r="B112" s="73"/>
+      <c r="C112" s="73"/>
+      <c r="D112" s="73"/>
+      <c r="E112" s="73"/>
+      <c r="F112" s="73"/>
+    </row>
+    <row r="113" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="B113" s="67"/>
+      <c r="C113" s="157" t="s">
+        <v>216</v>
+      </c>
+      <c r="D113" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="E97" s="140" t="s">
+      <c r="E113" s="157" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" s="72" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="68"/>
+      <c r="B114" s="69"/>
+      <c r="C114" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="D114" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="F114" s="72"/>
+    </row>
+    <row r="115" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="68"/>
+      <c r="B115" s="69"/>
+      <c r="C115" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="D115" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="E115" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="F115" s="72"/>
+    </row>
+    <row r="116" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="68"/>
+      <c r="B116" s="69"/>
+      <c r="C116" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="F97" s="137"/>
-    </row>
-    <row r="98" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="138"/>
-      <c r="B98" s="139"/>
-      <c r="C98" s="17" t="s">
+      <c r="D116" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E116" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="D98" s="17" t="s">
+      <c r="F116" s="72"/>
+    </row>
+    <row r="117" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="68"/>
+      <c r="B117" s="69"/>
+      <c r="C117" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="D117" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E98" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="F98" s="137"/>
-    </row>
-    <row r="99" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="138"/>
-      <c r="B99" s="139"/>
-      <c r="C99" s="17" t="s">
+      <c r="E117" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="D99" s="17" t="s">
+      <c r="F117" s="72"/>
+    </row>
+    <row r="118" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="68"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="D118" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E99" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="F99" s="137"/>
-    </row>
-    <row r="100" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="138"/>
-      <c r="B100" s="139"/>
-      <c r="C100" s="24" t="s">
+      <c r="E118" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D100" s="24" t="s">
+      <c r="F118" s="72"/>
+    </row>
+    <row r="119" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="68"/>
+      <c r="B119" s="69"/>
+      <c r="C119" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="D119" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E100" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="F100" s="137"/>
-    </row>
-    <row r="101" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="138"/>
-      <c r="B101" s="139"/>
-      <c r="C101" s="24" t="s">
+      <c r="E119" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D101" s="24" t="s">
+      <c r="F119" s="72"/>
+    </row>
+    <row r="120" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="68"/>
+      <c r="B120" s="69"/>
+      <c r="C120" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="D120" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E101" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="F101" s="137"/>
-    </row>
-    <row r="102" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="138"/>
-      <c r="B102" s="139"/>
-      <c r="C102" s="44" t="s">
+      <c r="E120" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="D102" s="44" t="s">
+      <c r="F120" s="72"/>
+    </row>
+    <row r="121" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="68"/>
+      <c r="B121" s="69"/>
+      <c r="C121" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="D121" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E121" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="F121" s="72"/>
+    </row>
+    <row r="122" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="68"/>
+      <c r="B122" s="69"/>
+      <c r="C122" s="158" t="s">
+        <v>207</v>
+      </c>
+      <c r="D122" s="158" t="s">
         <v>70</v>
       </c>
-      <c r="E102" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="F102" s="137"/>
-    </row>
-    <row r="103" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="138"/>
-      <c r="B103" s="139"/>
-      <c r="C103" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="D103" s="44" t="s">
+      <c r="E122" s="158" t="s">
+        <v>208</v>
+      </c>
+      <c r="F122" s="72"/>
+    </row>
+    <row r="123" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="70"/>
+      <c r="B123" s="71"/>
+      <c r="C123" s="159" t="s">
+        <v>209</v>
+      </c>
+      <c r="D123" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="E103" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="F103" s="137"/>
-    </row>
-    <row r="104" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="138"/>
-      <c r="B104" s="139"/>
-      <c r="C104" s="143" t="s">
-        <v>208</v>
-      </c>
-      <c r="D104" s="143" t="s">
-        <v>70</v>
-      </c>
-      <c r="E104" s="143" t="s">
-        <v>209</v>
-      </c>
-      <c r="F104" s="137"/>
-    </row>
-    <row r="105" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="141"/>
-      <c r="B105" s="142"/>
-      <c r="C105" s="144" t="s">
+      <c r="E123" s="159" t="s">
         <v>210</v>
       </c>
-      <c r="D105" s="144" t="s">
-        <v>39</v>
-      </c>
-      <c r="E105" s="144" t="s">
-        <v>211</v>
-      </c>
-      <c r="F105" s="137"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A106" s="145" t="s">
-        <v>212</v>
-      </c>
-      <c r="B106" s="145"/>
-      <c r="C106" s="145"/>
-      <c r="D106" s="145"/>
-      <c r="E106" s="145"/>
-      <c r="F106" s="145"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A107" s="145"/>
-      <c r="B107" s="145"/>
-      <c r="C107" s="145"/>
-      <c r="D107" s="145"/>
-      <c r="E107" s="145"/>
-      <c r="F107" s="145"/>
+      <c r="F123" s="156"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" s="160" t="s">
+        <v>224</v>
+      </c>
+      <c r="B124" s="161"/>
+      <c r="C124" s="162" t="s">
+        <v>221</v>
+      </c>
+      <c r="D124" s="162" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="162" t="s">
+        <v>222</v>
+      </c>
+      <c r="F124" s="163" t="s">
+        <v>223</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A88:B105"/>
-    <mergeCell ref="F88:F105"/>
-    <mergeCell ref="A106:F107"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A51:B52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A53:B55"/>
-    <mergeCell ref="F53:F55"/>
+  <mergeCells count="51">
+    <mergeCell ref="A113:B123"/>
+    <mergeCell ref="F113:F123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A11:B15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A5:B10"/>
+    <mergeCell ref="F5:F10"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="F21:F22"/>
     <mergeCell ref="A44:B48"/>
     <mergeCell ref="F44:F48"/>
     <mergeCell ref="A23:B24"/>
@@ -3820,19 +4141,19 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B43"/>
     <mergeCell ref="F39:F43"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:B20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A11:B15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A5:B10"/>
-    <mergeCell ref="F5:F10"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A51:B52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A53:B55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="A93:B110"/>
+    <mergeCell ref="F93:F110"/>
+    <mergeCell ref="A111:F112"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B61"/>
+    <mergeCell ref="F58:F61"/>
     <mergeCell ref="A65:A85"/>
     <mergeCell ref="B65:B70"/>
     <mergeCell ref="F65:F70"/>
@@ -3845,23 +4166,38 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C34">
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>LEFT(C1,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C61">
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
       <formula>LEFT(C38,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:C86">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>LEFT(C64,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C88:C105">
+  <conditionalFormatting sqref="C93:C110">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>LEFT(C93,LEN("*"))="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:C92">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>LEFT(C91,LEN("*"))="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C113:C123">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>LEFT(C113,LEN("*"))="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>LEFT(C88,LEN("*"))="*"</formula>
+      <formula>LEFT(C124,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api list.xlsx
+++ b/api list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2505" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="3105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="272">
   <si>
     <t>精灵类</t>
   </si>
@@ -911,12 +911,153 @@
     <t>textspeed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>textcursor</t>
+  </si>
+  <si>
+    <t>文字光标的index（可以是精灵，也可以是动画）</t>
+  </si>
+  <si>
+    <t>*follow</t>
+  </si>
+  <si>
+    <t>是否跟随在文字之后出现</t>
+  </si>
+  <si>
+    <t>（follow=false时生效）文字光标的坐标，默认为[0,0]</t>
+  </si>
+  <si>
+    <t>textoff</t>
+  </si>
+  <si>
+    <t>time=0</t>
+  </si>
+  <si>
+    <t>texton</t>
+  </si>
+  <si>
+    <t>texttag</t>
+  </si>
+  <si>
+    <t>*label</t>
+  </si>
+  <si>
+    <t>标签型 label_t</t>
+  </si>
+  <si>
+    <t>遇到tag跳转到的标签</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>标签所在的文件，默认为当前文件</t>
+  </si>
+  <si>
+    <t>设置文字光标</t>
+  </si>
+  <si>
+    <t>隐藏文本框</t>
+  </si>
+  <si>
+    <t>显示文本框</t>
+  </si>
+  <si>
+    <t>相当于call一个macro，参数作为字符串存在变量tag中。</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>开关斜体</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>开关粗体</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>开关删除线</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>开关下划线</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>手动换行</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>等待点击</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>换页等待，点击后换页</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>清除文本层上文字</t>
+  </si>
+  <si>
+    <t>ruby</t>
+  </si>
+  <si>
+    <t>显示的文字</t>
+  </si>
+  <si>
+    <t>显示小字注释</t>
+  </si>
+  <si>
+    <t>size=6</t>
+  </si>
+  <si>
+    <t>显示的大小，默认为6</t>
+  </si>
+  <si>
+    <t>char=1</t>
+  </si>
+  <si>
+    <t>被注释的字符数，默认为1</t>
+  </si>
+  <si>
+    <t>messagelayer</t>
+  </si>
+  <si>
+    <t>创建消息层的编号</t>
+  </si>
+  <si>
+    <t>若index所指的精灵就是一个消息层，则改变它的active状态，否则创建一个消息层。</t>
+  </si>
+  <si>
+    <t>active=true</t>
+  </si>
+  <si>
+    <t>是否激活（设为默认消息层），默认为true</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,6 +1118,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1010,7 +1156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1519,11 +1665,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1720,6 +1879,45 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1740,6 +1938,186 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1768,257 +2146,232 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color indexed="10"/>
@@ -2354,10 +2707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2369,10 +2722,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120"/>
+      <c r="B1" s="99"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2387,10 +2740,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="134"/>
+      <c r="B2" s="101"/>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2400,13 +2753,13 @@
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="136" t="s">
+      <c r="F2" s="103" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2416,11 +2769,11 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="137"/>
+      <c r="F3" s="104"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="135"/>
-      <c r="B4" s="135"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
@@ -2430,13 +2783,13 @@
       <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="137"/>
+      <c r="F4" s="104"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="98"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2446,13 +2799,13 @@
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="138" t="s">
+      <c r="F5" s="107" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
@@ -2462,11 +2815,11 @@
       <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="138"/>
+      <c r="F6" s="107"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="99"/>
-      <c r="B7" s="100"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
@@ -2476,11 +2829,11 @@
       <c r="E7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="138"/>
+      <c r="F7" s="107"/>
     </row>
     <row r="8" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99"/>
-      <c r="B8" s="100"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
@@ -2490,11 +2843,11 @@
       <c r="E8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="138"/>
+      <c r="F8" s="107"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
-      <c r="B9" s="100"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
@@ -2504,11 +2857,11 @@
       <c r="E9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="138"/>
+      <c r="F9" s="107"/>
     </row>
     <row r="10" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="124"/>
-      <c r="B10" s="125"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="20" t="s">
         <v>29</v>
       </c>
@@ -2518,13 +2871,13 @@
       <c r="E10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="138"/>
+      <c r="F10" s="107"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="131"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
@@ -2534,13 +2887,13 @@
       <c r="E11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="95" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="99"/>
-      <c r="B12" s="100"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="9" t="s">
         <v>34</v>
       </c>
@@ -2550,11 +2903,11 @@
       <c r="E12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="104"/>
+      <c r="F12" s="96"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="99"/>
-      <c r="B13" s="100"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="9" t="s">
         <v>36</v>
       </c>
@@ -2564,11 +2917,11 @@
       <c r="E13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="104"/>
+      <c r="F13" s="96"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="99"/>
-      <c r="B14" s="100"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="9" t="s">
         <v>38</v>
       </c>
@@ -2578,11 +2931,11 @@
       <c r="E14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="104"/>
+      <c r="F14" s="96"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="124"/>
-      <c r="B15" s="125"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="11" t="s">
         <v>41</v>
       </c>
@@ -2592,13 +2945,13 @@
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="128"/>
+      <c r="F15" s="97"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="122"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="10" t="s">
         <v>6</v>
       </c>
@@ -2608,13 +2961,13 @@
       <c r="E16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="123" t="s">
+      <c r="F16" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="121"/>
-      <c r="B17" s="122"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="13" t="s">
         <v>46</v>
       </c>
@@ -2624,13 +2977,13 @@
       <c r="E17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="123"/>
+      <c r="F17" s="110"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="98"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="7" t="s">
         <v>6</v>
       </c>
@@ -2640,13 +2993,13 @@
       <c r="E18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="126" t="s">
+      <c r="F18" s="111" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="99"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="8" t="s">
         <v>46</v>
       </c>
@@ -2656,11 +3009,11 @@
       <c r="E19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="127"/>
+      <c r="F19" s="95"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="124"/>
-      <c r="B20" s="125"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="15" t="s">
         <v>50</v>
       </c>
@@ -2670,13 +3023,13 @@
       <c r="E20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="128"/>
+      <c r="F20" s="97"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="94"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="21" t="s">
         <v>10</v>
       </c>
@@ -2686,13 +3039,13 @@
       <c r="E21" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="129" t="s">
+      <c r="F21" s="114" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="93"/>
-      <c r="B22" s="94"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
       <c r="C22" s="22" t="s">
         <v>55</v>
       </c>
@@ -2702,13 +3055,13 @@
       <c r="E22" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="96"/>
+      <c r="F22" s="115"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="92"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="23" t="s">
         <v>6</v>
       </c>
@@ -2718,13 +3071,13 @@
       <c r="E23" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="95" t="s">
+      <c r="F23" s="127" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="93"/>
-      <c r="B24" s="94"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
       <c r="C24" s="22" t="s">
         <v>55</v>
       </c>
@@ -2734,13 +3087,13 @@
       <c r="E24" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="96"/>
+      <c r="F24" s="115"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="97" t="s">
+      <c r="A25" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="98"/>
+      <c r="B25" s="106"/>
       <c r="C25" s="16" t="s">
         <v>6</v>
       </c>
@@ -2750,13 +3103,13 @@
       <c r="E25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="103" t="s">
+      <c r="F25" s="130" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="99"/>
-      <c r="B26" s="100"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="24" t="s">
         <v>64</v>
       </c>
@@ -2766,11 +3119,11 @@
       <c r="E26" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="104"/>
+      <c r="F26" s="96"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="99"/>
-      <c r="B27" s="100"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="92"/>
       <c r="C27" s="17" t="s">
         <v>67</v>
       </c>
@@ -2780,11 +3133,11 @@
       <c r="E27" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="104"/>
+      <c r="F27" s="96"/>
     </row>
     <row r="28" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="101"/>
-      <c r="B28" s="102"/>
+      <c r="A28" s="128"/>
+      <c r="B28" s="129"/>
       <c r="C28" s="18" t="s">
         <v>69</v>
       </c>
@@ -2794,13 +3147,13 @@
       <c r="E28" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="105"/>
+      <c r="F28" s="131"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="107"/>
+      <c r="B29" s="133"/>
       <c r="C29" s="25" t="s">
         <v>6</v>
       </c>
@@ -2810,13 +3163,13 @@
       <c r="E29" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="95" t="s">
+      <c r="F29" s="127" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="108"/>
-      <c r="B30" s="109"/>
+      <c r="A30" s="134"/>
+      <c r="B30" s="135"/>
       <c r="C30" s="24" t="s">
         <v>64</v>
       </c>
@@ -2826,11 +3179,11 @@
       <c r="E30" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="96"/>
+      <c r="F30" s="115"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="110"/>
-      <c r="B31" s="111"/>
+      <c r="A31" s="136"/>
+      <c r="B31" s="137"/>
       <c r="C31" s="26" t="s">
         <v>67</v>
       </c>
@@ -2840,13 +3193,13 @@
       <c r="E31" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="112"/>
+      <c r="F31" s="138"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="92"/>
+      <c r="B32" s="126"/>
       <c r="C32" s="25" t="s">
         <v>6</v>
       </c>
@@ -2856,13 +3209,13 @@
       <c r="E32" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="115" t="s">
+      <c r="F32" s="141" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="93"/>
-      <c r="B33" s="94"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="113"/>
       <c r="C33" s="24" t="s">
         <v>79</v>
       </c>
@@ -2872,11 +3225,11 @@
       <c r="E33" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="116"/>
+      <c r="F33" s="142"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="93"/>
-      <c r="B34" s="94"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="113"/>
       <c r="C34" s="28" t="s">
         <v>81</v>
       </c>
@@ -2886,11 +3239,11 @@
       <c r="E34" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="117"/>
+      <c r="F34" s="143"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="113"/>
-      <c r="B35" s="114"/>
+      <c r="A35" s="139"/>
+      <c r="B35" s="140"/>
       <c r="C35" s="29" t="s">
         <v>83</v>
       </c>
@@ -2900,14 +3253,14 @@
       <c r="E35" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="118"/>
+      <c r="F35" s="144"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="119" t="s">
+      <c r="A38" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="120"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="1" t="s">
         <v>1</v>
       </c>
@@ -2922,10 +3275,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="85" t="s">
+      <c r="A39" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="86"/>
+      <c r="B39" s="117"/>
       <c r="C39" s="30" t="s">
         <v>10</v>
       </c>
@@ -2935,13 +3288,13 @@
       <c r="E39" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="82" t="s">
+      <c r="F39" s="122" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="89"/>
-      <c r="B40" s="90"/>
+      <c r="A40" s="118"/>
+      <c r="B40" s="119"/>
       <c r="C40" s="31" t="s">
         <v>89</v>
       </c>
@@ -2951,11 +3304,11 @@
       <c r="E40" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="83"/>
+      <c r="F40" s="123"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="89"/>
-      <c r="B41" s="90"/>
+      <c r="A41" s="118"/>
+      <c r="B41" s="119"/>
       <c r="C41" s="31" t="s">
         <v>91</v>
       </c>
@@ -2965,11 +3318,11 @@
       <c r="E41" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="83"/>
+      <c r="F41" s="123"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="89"/>
-      <c r="B42" s="90"/>
+      <c r="A42" s="118"/>
+      <c r="B42" s="119"/>
       <c r="C42" s="31" t="s">
         <v>94</v>
       </c>
@@ -2979,11 +3332,11 @@
       <c r="E42" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="83"/>
+      <c r="F42" s="123"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="87"/>
-      <c r="B43" s="88"/>
+      <c r="A43" s="120"/>
+      <c r="B43" s="121"/>
       <c r="C43" s="20" t="s">
         <v>97</v>
       </c>
@@ -2993,13 +3346,13 @@
       <c r="E43" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="F43" s="84"/>
+      <c r="F43" s="124"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="85" t="s">
+      <c r="A44" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="86"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="30" t="s">
         <v>10</v>
       </c>
@@ -3009,13 +3362,13 @@
       <c r="E44" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="82" t="s">
+      <c r="F44" s="122" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="89"/>
-      <c r="B45" s="90"/>
+      <c r="A45" s="118"/>
+      <c r="B45" s="119"/>
       <c r="C45" s="32" t="s">
         <v>102</v>
       </c>
@@ -3025,11 +3378,11 @@
       <c r="E45" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="83"/>
+      <c r="F45" s="123"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="89"/>
-      <c r="B46" s="90"/>
+      <c r="A46" s="118"/>
+      <c r="B46" s="119"/>
       <c r="C46" s="31" t="s">
         <v>104</v>
       </c>
@@ -3039,11 +3392,11 @@
       <c r="E46" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="83"/>
+      <c r="F46" s="123"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="89"/>
-      <c r="B47" s="90"/>
+      <c r="A47" s="118"/>
+      <c r="B47" s="119"/>
       <c r="C47" s="31" t="s">
         <v>91</v>
       </c>
@@ -3053,11 +3406,11 @@
       <c r="E47" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F47" s="83"/>
+      <c r="F47" s="123"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="87"/>
-      <c r="B48" s="88"/>
+      <c r="A48" s="120"/>
+      <c r="B48" s="121"/>
       <c r="C48" s="33" t="s">
         <v>94</v>
       </c>
@@ -3067,13 +3420,13 @@
       <c r="E48" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="F48" s="84"/>
+      <c r="F48" s="124"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="117"/>
       <c r="C49" s="30" t="s">
         <v>10</v>
       </c>
@@ -3083,13 +3436,13 @@
       <c r="E49" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="82" t="s">
+      <c r="F49" s="122" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="87"/>
-      <c r="B50" s="88"/>
+      <c r="A50" s="120"/>
+      <c r="B50" s="121"/>
       <c r="C50" s="33" t="s">
         <v>91</v>
       </c>
@@ -3099,13 +3452,13 @@
       <c r="E50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F50" s="84"/>
+      <c r="F50" s="124"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="85" t="s">
+      <c r="A51" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="86"/>
+      <c r="B51" s="117"/>
       <c r="C51" s="30" t="s">
         <v>109</v>
       </c>
@@ -3115,13 +3468,13 @@
       <c r="E51" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="82" t="s">
+      <c r="F51" s="122" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="87"/>
-      <c r="B52" s="88"/>
+      <c r="A52" s="120"/>
+      <c r="B52" s="121"/>
       <c r="C52" s="11" t="s">
         <v>112</v>
       </c>
@@ -3131,13 +3484,13 @@
       <c r="E52" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F52" s="84"/>
+      <c r="F52" s="124"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="86"/>
+      <c r="B53" s="117"/>
       <c r="C53" s="30" t="s">
         <v>115</v>
       </c>
@@ -3147,13 +3500,13 @@
       <c r="E53" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="F53" s="82" t="s">
+      <c r="F53" s="122" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="89"/>
-      <c r="B54" s="90"/>
+      <c r="A54" s="118"/>
+      <c r="B54" s="119"/>
       <c r="C54" s="22" t="s">
         <v>67</v>
       </c>
@@ -3163,11 +3516,11 @@
       <c r="E54" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F54" s="83"/>
+      <c r="F54" s="123"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="87"/>
-      <c r="B55" s="88"/>
+      <c r="A55" s="120"/>
+      <c r="B55" s="121"/>
       <c r="C55" s="33" t="s">
         <v>64</v>
       </c>
@@ -3177,13 +3530,13 @@
       <c r="E55" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F55" s="84"/>
+      <c r="F55" s="124"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="74" t="s">
+      <c r="A56" s="147" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="75"/>
+      <c r="B56" s="148"/>
       <c r="C56" s="34" t="s">
         <v>115</v>
       </c>
@@ -3198,10 +3551,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="74" t="s">
+      <c r="A57" s="147" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="75"/>
+      <c r="B57" s="148"/>
       <c r="C57" s="1" t="s">
         <v>115</v>
       </c>
@@ -3216,10 +3569,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="76" t="s">
+      <c r="A58" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="77"/>
+      <c r="B58" s="150"/>
       <c r="C58" s="30" t="s">
         <v>115</v>
       </c>
@@ -3229,13 +3582,13 @@
       <c r="E58" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="F58" s="82" t="s">
+      <c r="F58" s="122" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="78"/>
-      <c r="B59" s="79"/>
+      <c r="A59" s="151"/>
+      <c r="B59" s="152"/>
       <c r="C59" s="31" t="s">
         <v>129</v>
       </c>
@@ -3245,11 +3598,11 @@
       <c r="E59" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="F59" s="83"/>
+      <c r="F59" s="123"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="78"/>
-      <c r="B60" s="79"/>
+      <c r="A60" s="151"/>
+      <c r="B60" s="152"/>
       <c r="C60" s="31" t="s">
         <v>131</v>
       </c>
@@ -3259,11 +3612,11 @@
       <c r="E60" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="F60" s="83"/>
+      <c r="F60" s="123"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="80"/>
-      <c r="B61" s="81"/>
+      <c r="A61" s="153"/>
+      <c r="B61" s="154"/>
       <c r="C61" s="11" t="s">
         <v>133</v>
       </c>
@@ -3273,7 +3626,7 @@
       <c r="E61" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F61" s="84"/>
+      <c r="F61" s="124"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -3297,10 +3650,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="139" t="s">
+      <c r="A65" s="155" t="s">
         <v>137</v>
       </c>
-      <c r="B65" s="142" t="s">
+      <c r="B65" s="158" t="s">
         <v>138</v>
       </c>
       <c r="C65" s="16" t="s">
@@ -3312,13 +3665,13 @@
       <c r="E65" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F65" s="145" t="s">
+      <c r="F65" s="161" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="140"/>
-      <c r="B66" s="143"/>
+      <c r="A66" s="156"/>
+      <c r="B66" s="159"/>
       <c r="C66" s="44" t="s">
         <v>10</v>
       </c>
@@ -3328,11 +3681,11 @@
       <c r="E66" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="F66" s="146"/>
+      <c r="F66" s="162"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="140"/>
-      <c r="B67" s="143"/>
+      <c r="A67" s="156"/>
+      <c r="B67" s="159"/>
       <c r="C67" s="44" t="s">
         <v>143</v>
       </c>
@@ -3342,11 +3695,11 @@
       <c r="E67" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="F67" s="146"/>
+      <c r="F67" s="162"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="140"/>
-      <c r="B68" s="143"/>
+      <c r="A68" s="156"/>
+      <c r="B68" s="159"/>
       <c r="C68" s="44" t="s">
         <v>145</v>
       </c>
@@ -3356,11 +3709,11 @@
       <c r="E68" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="F68" s="146"/>
+      <c r="F68" s="162"/>
     </row>
     <row r="69" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="140"/>
-      <c r="B69" s="143"/>
+      <c r="A69" s="156"/>
+      <c r="B69" s="159"/>
       <c r="C69" s="45" t="s">
         <v>147</v>
       </c>
@@ -3370,11 +3723,11 @@
       <c r="E69" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F69" s="146"/>
+      <c r="F69" s="162"/>
     </row>
     <row r="70" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="140"/>
-      <c r="B70" s="144"/>
+      <c r="A70" s="156"/>
+      <c r="B70" s="160"/>
       <c r="C70" s="46" t="s">
         <v>150</v>
       </c>
@@ -3384,11 +3737,11 @@
       <c r="E70" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="F70" s="147"/>
+      <c r="F70" s="163"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="140"/>
-      <c r="B71" s="142" t="s">
+      <c r="A71" s="156"/>
+      <c r="B71" s="158" t="s">
         <v>153</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -3400,13 +3753,13 @@
       <c r="E71" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F71" s="145" t="s">
+      <c r="F71" s="161" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="140"/>
-      <c r="B72" s="143"/>
+      <c r="A72" s="156"/>
+      <c r="B72" s="159"/>
       <c r="C72" s="44" t="s">
         <v>10</v>
       </c>
@@ -3416,11 +3769,11 @@
       <c r="E72" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="F72" s="146"/>
+      <c r="F72" s="162"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="140"/>
-      <c r="B73" s="143"/>
+      <c r="A73" s="156"/>
+      <c r="B73" s="159"/>
       <c r="C73" s="44" t="s">
         <v>143</v>
       </c>
@@ -3430,11 +3783,11 @@
       <c r="E73" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="F73" s="146"/>
+      <c r="F73" s="162"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="140"/>
-      <c r="B74" s="143"/>
+      <c r="A74" s="156"/>
+      <c r="B74" s="159"/>
       <c r="C74" s="44" t="s">
         <v>156</v>
       </c>
@@ -3444,11 +3797,11 @@
       <c r="E74" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="146"/>
+      <c r="F74" s="162"/>
     </row>
     <row r="75" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="140"/>
-      <c r="B75" s="143"/>
+      <c r="A75" s="156"/>
+      <c r="B75" s="159"/>
       <c r="C75" s="45" t="s">
         <v>147</v>
       </c>
@@ -3458,11 +3811,11 @@
       <c r="E75" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F75" s="146"/>
+      <c r="F75" s="162"/>
     </row>
     <row r="76" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="140"/>
-      <c r="B76" s="144"/>
+      <c r="A76" s="156"/>
+      <c r="B76" s="160"/>
       <c r="C76" s="47" t="s">
         <v>150</v>
       </c>
@@ -3472,11 +3825,11 @@
       <c r="E76" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="F76" s="147"/>
+      <c r="F76" s="163"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" s="140"/>
-      <c r="B77" s="142" t="s">
+      <c r="A77" s="156"/>
+      <c r="B77" s="158" t="s">
         <v>158</v>
       </c>
       <c r="C77" s="48" t="s">
@@ -3488,13 +3841,13 @@
       <c r="E77" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="F77" s="145" t="s">
+      <c r="F77" s="161" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="140"/>
-      <c r="B78" s="143"/>
+      <c r="A78" s="156"/>
+      <c r="B78" s="159"/>
       <c r="C78" s="44" t="s">
         <v>10</v>
       </c>
@@ -3504,11 +3857,11 @@
       <c r="E78" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F78" s="146"/>
+      <c r="F78" s="162"/>
     </row>
     <row r="79" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="140"/>
-      <c r="B79" s="143"/>
+      <c r="A79" s="156"/>
+      <c r="B79" s="159"/>
       <c r="C79" s="45" t="s">
         <v>147</v>
       </c>
@@ -3518,11 +3871,11 @@
       <c r="E79" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F79" s="146"/>
+      <c r="F79" s="162"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="140"/>
-      <c r="B80" s="143"/>
+      <c r="A80" s="156"/>
+      <c r="B80" s="159"/>
       <c r="C80" s="44" t="s">
         <v>89</v>
       </c>
@@ -3532,11 +3885,11 @@
       <c r="E80" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="F80" s="146"/>
+      <c r="F80" s="162"/>
     </row>
     <row r="81" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="140"/>
-      <c r="B81" s="144"/>
+      <c r="A81" s="156"/>
+      <c r="B81" s="160"/>
       <c r="C81" s="47" t="s">
         <v>163</v>
       </c>
@@ -3546,10 +3899,10 @@
       <c r="E81" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="F81" s="147"/>
+      <c r="F81" s="163"/>
     </row>
     <row r="82" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="140"/>
+      <c r="A82" s="156"/>
       <c r="B82" s="50" t="s">
         <v>165</v>
       </c>
@@ -3567,8 +3920,8 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="140"/>
-      <c r="B83" s="142" t="s">
+      <c r="A83" s="156"/>
+      <c r="B83" s="158" t="s">
         <v>168</v>
       </c>
       <c r="C83" s="49" t="s">
@@ -3580,13 +3933,13 @@
       <c r="E83" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F83" s="145" t="s">
+      <c r="F83" s="161" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="140"/>
-      <c r="B84" s="144"/>
+      <c r="A84" s="156"/>
+      <c r="B84" s="160"/>
       <c r="C84" s="47" t="s">
         <v>143</v>
       </c>
@@ -3596,10 +3949,10 @@
       <c r="E84" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="F84" s="147"/>
+      <c r="F84" s="163"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="141"/>
+      <c r="A85" s="157"/>
       <c r="B85" s="54" t="s">
         <v>108</v>
       </c>
@@ -3625,29 +3978,29 @@
       <c r="F86" s="60"/>
     </row>
     <row r="91" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="148" t="s">
+      <c r="A91" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="B91" s="149"/>
-      <c r="C91" s="150" t="s">
+      <c r="B91" s="67"/>
+      <c r="C91" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="150" t="s">
+      <c r="D91" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E91" s="150" t="s">
+      <c r="E91" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="151" t="s">
+      <c r="F91" s="69" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="152" t="s">
+      <c r="A92" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="B92" s="153"/>
-      <c r="C92" s="154" t="s">
+      <c r="B92" s="71"/>
+      <c r="C92" s="72" t="s">
         <v>177</v>
       </c>
       <c r="D92" s="55" t="s">
@@ -3656,15 +4009,15 @@
       <c r="E92" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="F92" s="155" t="s">
+      <c r="F92" s="73" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="66" t="s">
+      <c r="A93" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="B93" s="67"/>
+      <c r="B93" s="80"/>
       <c r="C93" s="16" t="s">
         <v>6</v>
       </c>
@@ -3674,13 +4027,13 @@
       <c r="E93" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="F93" s="72" t="s">
+      <c r="F93" s="85" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="68"/>
-      <c r="B94" s="69"/>
+      <c r="A94" s="81"/>
+      <c r="B94" s="82"/>
       <c r="C94" s="17" t="s">
         <v>177</v>
       </c>
@@ -3690,11 +4043,11 @@
       <c r="E94" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F94" s="72"/>
+      <c r="F94" s="85"/>
     </row>
     <row r="95" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="68"/>
-      <c r="B95" s="69"/>
+      <c r="A95" s="81"/>
+      <c r="B95" s="82"/>
       <c r="C95" s="17" t="s">
         <v>179</v>
       </c>
@@ -3704,11 +4057,11 @@
       <c r="E95" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="F95" s="72"/>
+      <c r="F95" s="85"/>
     </row>
     <row r="96" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="68"/>
-      <c r="B96" s="69"/>
+      <c r="A96" s="81"/>
+      <c r="B96" s="82"/>
       <c r="C96" s="17" t="s">
         <v>182</v>
       </c>
@@ -3718,11 +4071,11 @@
       <c r="E96" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="F96" s="72"/>
+      <c r="F96" s="85"/>
     </row>
     <row r="97" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="68"/>
-      <c r="B97" s="69"/>
+      <c r="A97" s="81"/>
+      <c r="B97" s="82"/>
       <c r="C97" s="64" t="s">
         <v>184</v>
       </c>
@@ -3732,11 +4085,11 @@
       <c r="E97" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="F97" s="72"/>
+      <c r="F97" s="85"/>
     </row>
     <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="68"/>
-      <c r="B98" s="69"/>
+      <c r="A98" s="81"/>
+      <c r="B98" s="82"/>
       <c r="C98" s="64" t="s">
         <v>185</v>
       </c>
@@ -3746,11 +4099,11 @@
       <c r="E98" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="F98" s="72"/>
+      <c r="F98" s="85"/>
     </row>
     <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="68"/>
-      <c r="B99" s="69"/>
+      <c r="A99" s="81"/>
+      <c r="B99" s="82"/>
       <c r="C99" s="64" t="s">
         <v>187</v>
       </c>
@@ -3760,11 +4113,11 @@
       <c r="E99" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="F99" s="72"/>
+      <c r="F99" s="85"/>
     </row>
     <row r="100" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="68"/>
-      <c r="B100" s="69"/>
+      <c r="A100" s="81"/>
+      <c r="B100" s="82"/>
       <c r="C100" s="24" t="s">
         <v>189</v>
       </c>
@@ -3774,11 +4127,11 @@
       <c r="E100" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="F100" s="72"/>
+      <c r="F100" s="85"/>
     </row>
     <row r="101" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="68"/>
-      <c r="B101" s="69"/>
+      <c r="A101" s="81"/>
+      <c r="B101" s="82"/>
       <c r="C101" s="17" t="s">
         <v>191</v>
       </c>
@@ -3788,11 +4141,11 @@
       <c r="E101" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="F101" s="72"/>
+      <c r="F101" s="85"/>
     </row>
     <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="68"/>
-      <c r="B102" s="69"/>
+      <c r="A102" s="81"/>
+      <c r="B102" s="82"/>
       <c r="C102" s="17" t="s">
         <v>193</v>
       </c>
@@ -3802,11 +4155,11 @@
       <c r="E102" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="F102" s="72"/>
+      <c r="F102" s="85"/>
     </row>
     <row r="103" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="68"/>
-      <c r="B103" s="69"/>
+      <c r="A103" s="81"/>
+      <c r="B103" s="82"/>
       <c r="C103" s="17" t="s">
         <v>195</v>
       </c>
@@ -3816,11 +4169,11 @@
       <c r="E103" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="F103" s="72"/>
+      <c r="F103" s="85"/>
     </row>
     <row r="104" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="68"/>
-      <c r="B104" s="69"/>
+      <c r="A104" s="81"/>
+      <c r="B104" s="82"/>
       <c r="C104" s="17" t="s">
         <v>197</v>
       </c>
@@ -3830,11 +4183,11 @@
       <c r="E104" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="F104" s="72"/>
+      <c r="F104" s="85"/>
     </row>
     <row r="105" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="68"/>
-      <c r="B105" s="69"/>
+      <c r="A105" s="81"/>
+      <c r="B105" s="82"/>
       <c r="C105" s="24" t="s">
         <v>199</v>
       </c>
@@ -3844,11 +4197,11 @@
       <c r="E105" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="F105" s="72"/>
+      <c r="F105" s="85"/>
     </row>
     <row r="106" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="68"/>
-      <c r="B106" s="69"/>
+      <c r="A106" s="81"/>
+      <c r="B106" s="82"/>
       <c r="C106" s="24" t="s">
         <v>201</v>
       </c>
@@ -3858,11 +4211,11 @@
       <c r="E106" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="F106" s="72"/>
+      <c r="F106" s="85"/>
     </row>
     <row r="107" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="68"/>
-      <c r="B107" s="69"/>
+      <c r="A107" s="81"/>
+      <c r="B107" s="82"/>
       <c r="C107" s="44" t="s">
         <v>203</v>
       </c>
@@ -3872,11 +4225,11 @@
       <c r="E107" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="F107" s="72"/>
+      <c r="F107" s="85"/>
     </row>
     <row r="108" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="68"/>
-      <c r="B108" s="69"/>
+      <c r="A108" s="81"/>
+      <c r="B108" s="82"/>
       <c r="C108" s="44" t="s">
         <v>205</v>
       </c>
@@ -3886,11 +4239,11 @@
       <c r="E108" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="F108" s="72"/>
+      <c r="F108" s="85"/>
     </row>
     <row r="109" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="68"/>
-      <c r="B109" s="69"/>
+      <c r="A109" s="81"/>
+      <c r="B109" s="82"/>
       <c r="C109" s="62" t="s">
         <v>207</v>
       </c>
@@ -3900,11 +4253,11 @@
       <c r="E109" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="F109" s="72"/>
+      <c r="F109" s="85"/>
     </row>
     <row r="110" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="70"/>
-      <c r="B110" s="71"/>
+      <c r="A110" s="83"/>
+      <c r="B110" s="84"/>
       <c r="C110" s="63" t="s">
         <v>209</v>
       </c>
@@ -3914,47 +4267,47 @@
       <c r="E110" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="F110" s="72"/>
+      <c r="F110" s="85"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A111" s="73" t="s">
+      <c r="A111" s="146" t="s">
         <v>219</v>
       </c>
-      <c r="B111" s="73"/>
-      <c r="C111" s="73"/>
-      <c r="D111" s="73"/>
-      <c r="E111" s="73"/>
-      <c r="F111" s="73"/>
+      <c r="B111" s="146"/>
+      <c r="C111" s="146"/>
+      <c r="D111" s="146"/>
+      <c r="E111" s="146"/>
+      <c r="F111" s="146"/>
     </row>
     <row r="112" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="73"/>
-      <c r="B112" s="73"/>
-      <c r="C112" s="73"/>
-      <c r="D112" s="73"/>
-      <c r="E112" s="73"/>
-      <c r="F112" s="73"/>
+      <c r="A112" s="146"/>
+      <c r="B112" s="146"/>
+      <c r="C112" s="146"/>
+      <c r="D112" s="146"/>
+      <c r="E112" s="146"/>
+      <c r="F112" s="146"/>
     </row>
     <row r="113" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="66" t="s">
+      <c r="A113" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="B113" s="67"/>
-      <c r="C113" s="157" t="s">
+      <c r="B113" s="80"/>
+      <c r="C113" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="D113" s="157" t="s">
+      <c r="D113" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="E113" s="157" t="s">
+      <c r="E113" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="F113" s="72" t="s">
+      <c r="F113" s="85" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="68"/>
-      <c r="B114" s="69"/>
+      <c r="A114" s="81"/>
+      <c r="B114" s="82"/>
       <c r="C114" s="44" t="s">
         <v>182</v>
       </c>
@@ -3964,11 +4317,11 @@
       <c r="E114" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="F114" s="72"/>
+      <c r="F114" s="85"/>
     </row>
     <row r="115" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="68"/>
-      <c r="B115" s="69"/>
+      <c r="A115" s="81"/>
+      <c r="B115" s="82"/>
       <c r="C115" s="44" t="s">
         <v>179</v>
       </c>
@@ -3978,11 +4331,11 @@
       <c r="E115" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="F115" s="72"/>
+      <c r="F115" s="85"/>
     </row>
     <row r="116" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="68"/>
-      <c r="B116" s="69"/>
+      <c r="A116" s="81"/>
+      <c r="B116" s="82"/>
       <c r="C116" s="44" t="s">
         <v>195</v>
       </c>
@@ -3992,11 +4345,11 @@
       <c r="E116" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="F116" s="72"/>
+      <c r="F116" s="85"/>
     </row>
     <row r="117" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="68"/>
-      <c r="B117" s="69"/>
+      <c r="A117" s="81"/>
+      <c r="B117" s="82"/>
       <c r="C117" s="44" t="s">
         <v>197</v>
       </c>
@@ -4006,11 +4359,11 @@
       <c r="E117" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="F117" s="72"/>
+      <c r="F117" s="85"/>
     </row>
     <row r="118" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="68"/>
-      <c r="B118" s="69"/>
+      <c r="A118" s="81"/>
+      <c r="B118" s="82"/>
       <c r="C118" s="62" t="s">
         <v>199</v>
       </c>
@@ -4020,11 +4373,11 @@
       <c r="E118" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="F118" s="72"/>
+      <c r="F118" s="85"/>
     </row>
     <row r="119" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="68"/>
-      <c r="B119" s="69"/>
+      <c r="A119" s="81"/>
+      <c r="B119" s="82"/>
       <c r="C119" s="62" t="s">
         <v>201</v>
       </c>
@@ -4034,11 +4387,11 @@
       <c r="E119" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="F119" s="72"/>
+      <c r="F119" s="85"/>
     </row>
     <row r="120" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="68"/>
-      <c r="B120" s="69"/>
+      <c r="A120" s="81"/>
+      <c r="B120" s="82"/>
       <c r="C120" s="44" t="s">
         <v>203</v>
       </c>
@@ -4048,11 +4401,11 @@
       <c r="E120" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="F120" s="72"/>
+      <c r="F120" s="85"/>
     </row>
     <row r="121" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="68"/>
-      <c r="B121" s="69"/>
+      <c r="A121" s="81"/>
+      <c r="B121" s="82"/>
       <c r="C121" s="44" t="s">
         <v>205</v>
       </c>
@@ -4062,93 +4415,378 @@
       <c r="E121" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="F121" s="72"/>
+      <c r="F121" s="85"/>
     </row>
     <row r="122" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="68"/>
-      <c r="B122" s="69"/>
-      <c r="C122" s="158" t="s">
+      <c r="A122" s="81"/>
+      <c r="B122" s="82"/>
+      <c r="C122" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="D122" s="158" t="s">
+      <c r="D122" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="E122" s="158" t="s">
+      <c r="E122" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="F122" s="72"/>
+      <c r="F122" s="85"/>
     </row>
     <row r="123" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="70"/>
-      <c r="B123" s="71"/>
-      <c r="C123" s="159" t="s">
+      <c r="A123" s="83"/>
+      <c r="B123" s="84"/>
+      <c r="C123" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="D123" s="159" t="s">
+      <c r="D123" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="E123" s="159" t="s">
+      <c r="E123" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="F123" s="156"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A124" s="160" t="s">
+      <c r="F123" s="86"/>
+    </row>
+    <row r="124" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="B124" s="161"/>
-      <c r="C124" s="162" t="s">
+      <c r="B124" s="88"/>
+      <c r="C124" s="77" t="s">
         <v>221</v>
       </c>
-      <c r="D124" s="162" t="s">
+      <c r="D124" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="E124" s="162" t="s">
+      <c r="E124" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="F124" s="163" t="s">
+      <c r="F124" s="78" t="s">
         <v>223</v>
       </c>
     </row>
+    <row r="125" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="164" t="s">
+        <v>225</v>
+      </c>
+      <c r="B125" s="165"/>
+      <c r="C125" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="F125" s="161" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="166"/>
+      <c r="B126" s="167"/>
+      <c r="C126" s="72" t="s">
+        <v>227</v>
+      </c>
+      <c r="D126" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E126" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F126" s="162"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A127" s="166"/>
+      <c r="B127" s="167"/>
+      <c r="C127" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="F127" s="162"/>
+    </row>
+    <row r="128" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="174" t="s">
+        <v>230</v>
+      </c>
+      <c r="B128" s="175"/>
+      <c r="C128" s="176" t="s">
+        <v>231</v>
+      </c>
+      <c r="D128" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="E128" s="176" t="s">
+        <v>113</v>
+      </c>
+      <c r="F128" s="180" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="177" t="s">
+        <v>232</v>
+      </c>
+      <c r="B129" s="178"/>
+      <c r="C129" s="179" t="s">
+        <v>231</v>
+      </c>
+      <c r="D129" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="E129" s="179" t="s">
+        <v>96</v>
+      </c>
+      <c r="F129" s="181" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A130" s="168" t="s">
+        <v>233</v>
+      </c>
+      <c r="B130" s="169"/>
+      <c r="C130" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="D130" s="171" t="s">
+        <v>235</v>
+      </c>
+      <c r="E130" s="170" t="s">
+        <v>236</v>
+      </c>
+      <c r="F130" s="182" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A131" s="172"/>
+      <c r="B131" s="173"/>
+      <c r="C131" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F131" s="183"/>
+    </row>
+    <row r="132" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="184" t="s">
+        <v>243</v>
+      </c>
+      <c r="B132" s="185"/>
+      <c r="C132" s="186" t="s">
+        <v>244</v>
+      </c>
+      <c r="D132" s="186"/>
+      <c r="E132" s="186"/>
+      <c r="F132" s="187" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="98" t="s">
+        <v>246</v>
+      </c>
+      <c r="B133" s="188"/>
+      <c r="C133" s="189" t="s">
+        <v>244</v>
+      </c>
+      <c r="D133" s="189"/>
+      <c r="E133" s="189"/>
+      <c r="F133" s="190" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="98" t="s">
+        <v>248</v>
+      </c>
+      <c r="B134" s="188"/>
+      <c r="C134" s="189" t="s">
+        <v>244</v>
+      </c>
+      <c r="D134" s="189"/>
+      <c r="E134" s="189"/>
+      <c r="F134" s="190" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="98" t="s">
+        <v>250</v>
+      </c>
+      <c r="B135" s="188"/>
+      <c r="C135" s="189" t="s">
+        <v>244</v>
+      </c>
+      <c r="D135" s="189"/>
+      <c r="E135" s="189"/>
+      <c r="F135" s="190" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="191" t="s">
+        <v>252</v>
+      </c>
+      <c r="B136" s="192"/>
+      <c r="C136" s="193" t="s">
+        <v>244</v>
+      </c>
+      <c r="D136" s="193"/>
+      <c r="E136" s="193"/>
+      <c r="F136" s="194" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="206" t="s">
+        <v>254</v>
+      </c>
+      <c r="B137" s="207"/>
+      <c r="C137" s="208" t="s">
+        <v>244</v>
+      </c>
+      <c r="D137" s="208"/>
+      <c r="E137" s="208"/>
+      <c r="F137" s="209" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="210" t="s">
+        <v>256</v>
+      </c>
+      <c r="B138" s="211"/>
+      <c r="C138" s="208" t="s">
+        <v>244</v>
+      </c>
+      <c r="D138" s="208"/>
+      <c r="E138" s="208"/>
+      <c r="F138" s="209" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="197" t="s">
+        <v>258</v>
+      </c>
+      <c r="B139" s="198"/>
+      <c r="C139" s="195" t="s">
+        <v>244</v>
+      </c>
+      <c r="D139" s="195"/>
+      <c r="E139" s="195"/>
+      <c r="F139" s="196" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A140" s="212" t="s">
+        <v>260</v>
+      </c>
+      <c r="B140" s="213"/>
+      <c r="C140" s="214" t="s">
+        <v>177</v>
+      </c>
+      <c r="D140" s="214" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="214" t="s">
+        <v>261</v>
+      </c>
+      <c r="F140" s="215" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A141" s="216"/>
+      <c r="B141" s="217"/>
+      <c r="C141" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="F141" s="218"/>
+    </row>
+    <row r="142" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="219"/>
+      <c r="B142" s="220"/>
+      <c r="C142" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="D142" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="F142" s="221"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A143" s="199" t="s">
+        <v>267</v>
+      </c>
+      <c r="B143" s="200"/>
+      <c r="C143" s="201" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="201" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="201" t="s">
+        <v>268</v>
+      </c>
+      <c r="F143" s="85" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="202"/>
+      <c r="B144" s="203"/>
+      <c r="C144" s="204" t="s">
+        <v>270</v>
+      </c>
+      <c r="D144" s="204" t="s">
+        <v>70</v>
+      </c>
+      <c r="E144" s="204" t="s">
+        <v>271</v>
+      </c>
+      <c r="F144" s="205"/>
+    </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A113:B123"/>
-    <mergeCell ref="F113:F123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A11:B15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A5:B10"/>
-    <mergeCell ref="F5:F10"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:B20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A44:B48"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A25:B28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="A29:B31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="A32:B35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B43"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A51:B52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A53:B55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="A93:B110"/>
-    <mergeCell ref="F93:F110"/>
+  <mergeCells count="69">
+    <mergeCell ref="A143:B144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B142"/>
+    <mergeCell ref="F140:F142"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A125:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B131"/>
+    <mergeCell ref="F125:F127"/>
+    <mergeCell ref="F130:F131"/>
     <mergeCell ref="A111:F112"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
@@ -4163,41 +4801,98 @@
     <mergeCell ref="F77:F81"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="F83:F84"/>
+    <mergeCell ref="A51:B52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A53:B55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="A93:B110"/>
+    <mergeCell ref="F93:F110"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B43"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="A29:B31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="A32:B35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A5:B10"/>
+    <mergeCell ref="F5:F10"/>
+    <mergeCell ref="A113:B123"/>
+    <mergeCell ref="F113:F123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A11:B15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A44:B48"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A25:B28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C34">
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
       <formula>LEFT(C1,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C61">
-    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>LEFT(C38,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:C86">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>LEFT(C64,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C110">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>LEFT(C93,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:C92">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>LEFT(C91,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C113:C123">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>LEFT(C113,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>LEFT(C124,LEN("*"))="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125:C127">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>LEFT(C125,LEN("*"))="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128:C129">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>LEFT(C128,LEN("*"))="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130:C131">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>LEFT(C130,LEN("*"))="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132:C144">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>LEFT(C124,LEN("*"))="*"</formula>
+      <formula>LEFT(C132,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api list.xlsx
+++ b/api list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="4305" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="402">
   <si>
     <t>精灵类</t>
   </si>
@@ -1052,12 +1052,432 @@
   <si>
     <t>是否激活（设为默认消息层），默认为true</t>
   </si>
+  <si>
+    <t>storefont</t>
+  </si>
+  <si>
+    <t>暂存字体信息</t>
+  </si>
+  <si>
+    <t>如果多次storefont，只会保存最后一次的结果。用restorefont命令可以将字体设为最后一次storefont时的状态。</t>
+  </si>
+  <si>
+    <t>restorefont</t>
+  </si>
+  <si>
+    <t>复原字体信息</t>
+  </si>
+  <si>
+    <t>动作</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>创建一个命令队列，用于按顺序执行命令</t>
+  </si>
+  <si>
+    <t>parallel</t>
+  </si>
+  <si>
+    <t>创建一个并行命令集合，用于同时执行命令。结束时间按照最长的动作时间计算。</t>
+  </si>
+  <si>
+    <t>moveby</t>
+  </si>
+  <si>
+    <t>*pos</t>
+  </si>
+  <si>
+    <t>相对移动的坐标</t>
+  </si>
+  <si>
+    <t>控制精灵相对移动的动作</t>
+  </si>
+  <si>
+    <t>time==0</t>
+  </si>
+  <si>
+    <t>动作的持续时间，默认为0</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>动作的目标</t>
+  </si>
+  <si>
+    <t>ease</t>
+  </si>
+  <si>
+    <t>字符串 string / 数型 number</t>
+  </si>
+  <si>
+    <t>动作的速率变化（详情见说明）</t>
+  </si>
+  <si>
+    <t>moveto</t>
+  </si>
+  <si>
+    <t>绝对移动的坐标</t>
+  </si>
+  <si>
+    <t>控制精灵绝对移动的动作</t>
+  </si>
+  <si>
+    <t>fadeto</t>
+  </si>
+  <si>
+    <t>*opacity</t>
+  </si>
+  <si>
+    <t>将要渐变到的目标透明度</t>
+  </si>
+  <si>
+    <t>控制精灵透明度渐变的动作</t>
+  </si>
+  <si>
+    <t>scaleby</t>
+  </si>
+  <si>
+    <t>动作持续的时间，默认为0</t>
+  </si>
+  <si>
+    <t>控制精灵相对缩放某一倍数的动作</t>
+  </si>
+  <si>
+    <t>x=100</t>
+  </si>
+  <si>
+    <t>百分比型 percent_t</t>
+  </si>
+  <si>
+    <t>x上的缩放倍数，默认为100</t>
+  </si>
+  <si>
+    <t>y=100</t>
+  </si>
+  <si>
+    <t>y上的缩放倍数，默认为100</t>
+  </si>
+  <si>
+    <t>scaleto</t>
+  </si>
+  <si>
+    <t>控制精灵绝对缩放到某一倍数的动作</t>
+  </si>
+  <si>
+    <t>rotateby</t>
+  </si>
+  <si>
+    <t>*rotate</t>
+  </si>
+  <si>
+    <t>将旋转至的角度</t>
+  </si>
+  <si>
+    <t>控制精灵相对旋转某一角度的动作</t>
+  </si>
+  <si>
+    <t>rotateto</t>
+  </si>
+  <si>
+    <t>将旋转的角度</t>
+  </si>
+  <si>
+    <t>控制精灵绝对旋转至某一角度的动作</t>
+  </si>
+  <si>
+    <t>tintby</t>
+  </si>
+  <si>
+    <t>*r</t>
+  </si>
+  <si>
+    <t>将要变至的色调（红色部分）</t>
+  </si>
+  <si>
+    <t>控制精灵色调改变某一颜色的动作</t>
+  </si>
+  <si>
+    <t>*g</t>
+  </si>
+  <si>
+    <t>将要变至的色调（绿色部分）</t>
+  </si>
+  <si>
+    <t>*b</t>
+  </si>
+  <si>
+    <t>将要变至的色调（蓝色部分）</t>
+  </si>
+  <si>
+    <t>tintto</t>
+  </si>
+  <si>
+    <t>*color</t>
+  </si>
+  <si>
+    <t>将要变至的色调</t>
+  </si>
+  <si>
+    <t>控制精灵色调变至某一颜色的动作</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>动作的持续的时间（单次）</t>
+  </si>
+  <si>
+    <t>精灵执行向上跳动的动作</t>
+  </si>
+  <si>
+    <t>跳动的幅度（正向上，负向下）</t>
+  </si>
+  <si>
+    <t>x=0</t>
+  </si>
+  <si>
+    <t>水平位移，默认为0</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>动作执行的次数（若为负数，则动作无限重复）</t>
+  </si>
+  <si>
+    <t>shake</t>
+  </si>
+  <si>
+    <t>动作的持续时间（单次）</t>
+  </si>
+  <si>
+    <t>精灵执行摇动的动作</t>
+  </si>
+  <si>
+    <t>*range</t>
+  </si>
+  <si>
+    <t>摇动的范围</t>
+  </si>
+  <si>
+    <t>vertical=false</t>
+  </si>
+  <si>
+    <t>是否是上下摇动（默认false）</t>
+  </si>
+  <si>
+    <t>quake</t>
+  </si>
+  <si>
+    <t>震动</t>
+  </si>
+  <si>
+    <t>rangex=0</t>
+  </si>
+  <si>
+    <t>横向摇动的范围，默认为0</t>
+  </si>
+  <si>
+    <t>rangey=0</t>
+  </si>
+  <si>
+    <t>纵向摇动的范围，默认为0</t>
+  </si>
+  <si>
+    <t>speed=1000</t>
+  </si>
+  <si>
+    <t>每秒震动的最大次数</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>*visible</t>
+  </si>
+  <si>
+    <t>是否可见</t>
+  </si>
+  <si>
+    <t>调整精灵是否可见</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>是否销毁该精灵</t>
+  </si>
+  <si>
+    <t>从该精灵的父精灵上移除它</t>
+  </si>
+  <si>
+    <t>flipx</t>
+  </si>
+  <si>
+    <t>force=false</t>
+  </si>
+  <si>
+    <t>是否连同所有子精灵一起翻转，默认为false</t>
+  </si>
+  <si>
+    <t>水平翻转</t>
+  </si>
+  <si>
+    <t>flipy</t>
+  </si>
+  <si>
+    <t>垂直翻转</t>
+  </si>
+  <si>
+    <t>scissorby</t>
+  </si>
+  <si>
+    <t>*rect</t>
+  </si>
+  <si>
+    <t>将要改变的范围</t>
+  </si>
+  <si>
+    <t>相对改变某个精灵显示图像的范围</t>
+  </si>
+  <si>
+    <t>scissorto</t>
+  </si>
+  <si>
+    <t>绝对改变某个精灵显示图像的范围</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>延迟的时间</t>
+  </si>
+  <si>
+    <t>只能用于queue或者parallel中，用于两个动作间的时间间隔</t>
+  </si>
+  <si>
+    <t>callback</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>只能用于queue或者parallel中，用于某个时间点访问指定脚本</t>
+  </si>
+  <si>
+    <t>文件，默认为当前文件</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>执行的表达式</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>字典型 dictionary</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>wait=true</t>
+  </si>
+  <si>
+    <t>是否等待callback完成才继续动作（默认true）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>haky3d</t>
+    </r>
+  </si>
+  <si>
+    <t>动作的持续时间</t>
+  </si>
+  <si>
+    <t>网格的震动效果</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>num=10</t>
+    </r>
+  </si>
+  <si>
+    <t>横向网格数</t>
+  </si>
+  <si>
+    <t>vnum=10</t>
+  </si>
+  <si>
+    <t>纵向网格数</t>
+  </si>
+  <si>
+    <t>offset=5</t>
+  </si>
+  <si>
+    <t>震动的偏移量</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>队列的目标</t>
+  </si>
+  <si>
+    <t>只能用于queue或者parallel中，结束当前queue或者parallel创建并添加到上一级queue或者parallel最后。若没有上一级，则什么都不做。</t>
+  </si>
+  <si>
+    <t>队列重复执行的次数，负数表示一直执行下去，默认为1</t>
+  </si>
+  <si>
+    <t>若在创建queue或parallel的过程中，立刻结束所有层动作的创建（相当于执行若干个end），并立刻开始创建好的动作。</t>
+  </si>
+  <si>
+    <t>注：如果不在queue或者parallel中，每个动作必须有target。如果在queue或者parallel中，没有target的动作将作用于end时声明的target；有target的动作将由该target执行，queue或者parallel仍然有效（如果是queue的话，会衷心地等待该target执行完该动作才继续执行下一个动作）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1123,6 +1543,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1156,7 +1581,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1678,11 +2103,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1918,6 +2409,207 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1975,6 +2667,78 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1996,79 +2760,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2114,6 +2809,48 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2185,47 +2922,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2239,38 +2958,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2278,78 +3000,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2707,25 +3388,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F175" sqref="F175:F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="55.375" customWidth="1"/>
     <col min="6" max="6" width="50.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
+      <c r="B1" s="190"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2740,10 +3421,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="101"/>
+      <c r="B2" s="192"/>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2753,13 +3434,13 @@
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="194" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
+      <c r="A3" s="192"/>
+      <c r="B3" s="192"/>
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2769,11 +3450,11 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="104"/>
+      <c r="F3" s="195"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="102"/>
+      <c r="A4" s="193"/>
+      <c r="B4" s="193"/>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
@@ -2783,13 +3464,13 @@
       <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="104"/>
+      <c r="F4" s="195"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="169"/>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2799,13 +3480,13 @@
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="196" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
+      <c r="A6" s="158"/>
+      <c r="B6" s="159"/>
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
@@ -2815,11 +3496,11 @@
       <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="107"/>
+      <c r="F6" s="196"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="91"/>
-      <c r="B7" s="92"/>
+      <c r="A7" s="158"/>
+      <c r="B7" s="159"/>
       <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
@@ -2829,11 +3510,11 @@
       <c r="E7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="107"/>
+      <c r="F7" s="196"/>
     </row>
     <row r="8" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="91"/>
-      <c r="B8" s="92"/>
+      <c r="A8" s="158"/>
+      <c r="B8" s="159"/>
       <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
@@ -2843,11 +3524,11 @@
       <c r="E8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="107"/>
+      <c r="F8" s="196"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="91"/>
-      <c r="B9" s="92"/>
+      <c r="A9" s="158"/>
+      <c r="B9" s="159"/>
       <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
@@ -2857,11 +3538,11 @@
       <c r="E9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="107"/>
+      <c r="F9" s="196"/>
     </row>
     <row r="10" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="93"/>
-      <c r="B10" s="94"/>
+      <c r="A10" s="160"/>
+      <c r="B10" s="161"/>
       <c r="C10" s="20" t="s">
         <v>29</v>
       </c>
@@ -2871,13 +3552,13 @@
       <c r="E10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="107"/>
+      <c r="F10" s="196"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="90"/>
+      <c r="B11" s="157"/>
       <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
@@ -2887,13 +3568,13 @@
       <c r="E11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="95" t="s">
+      <c r="F11" s="162" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="91"/>
-      <c r="B12" s="92"/>
+      <c r="A12" s="158"/>
+      <c r="B12" s="159"/>
       <c r="C12" s="9" t="s">
         <v>34</v>
       </c>
@@ -2903,11 +3584,11 @@
       <c r="E12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="96"/>
+      <c r="F12" s="163"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="91"/>
-      <c r="B13" s="92"/>
+      <c r="A13" s="158"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="9" t="s">
         <v>36</v>
       </c>
@@ -2917,11 +3598,11 @@
       <c r="E13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="96"/>
+      <c r="F13" s="163"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="91"/>
-      <c r="B14" s="92"/>
+      <c r="A14" s="158"/>
+      <c r="B14" s="159"/>
       <c r="C14" s="9" t="s">
         <v>38</v>
       </c>
@@ -2931,11 +3612,11 @@
       <c r="E14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="96"/>
+      <c r="F14" s="163"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="93"/>
-      <c r="B15" s="94"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="161"/>
       <c r="C15" s="11" t="s">
         <v>41</v>
       </c>
@@ -2945,13 +3626,13 @@
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="97"/>
+      <c r="F15" s="164"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="109"/>
+      <c r="B16" s="166"/>
       <c r="C16" s="10" t="s">
         <v>6</v>
       </c>
@@ -2961,13 +3642,13 @@
       <c r="E16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="110" t="s">
+      <c r="F16" s="167" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="108"/>
-      <c r="B17" s="109"/>
+      <c r="A17" s="165"/>
+      <c r="B17" s="166"/>
       <c r="C17" s="13" t="s">
         <v>46</v>
       </c>
@@ -2977,13 +3658,13 @@
       <c r="E17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="110"/>
+      <c r="F17" s="167"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="106"/>
+      <c r="B18" s="169"/>
       <c r="C18" s="7" t="s">
         <v>6</v>
       </c>
@@ -2993,13 +3674,13 @@
       <c r="E18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="111" t="s">
+      <c r="F18" s="170" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="91"/>
-      <c r="B19" s="92"/>
+      <c r="A19" s="158"/>
+      <c r="B19" s="159"/>
       <c r="C19" s="8" t="s">
         <v>46</v>
       </c>
@@ -3009,11 +3690,11 @@
       <c r="E19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="95"/>
+      <c r="F19" s="162"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="93"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="160"/>
+      <c r="B20" s="161"/>
       <c r="C20" s="15" t="s">
         <v>50</v>
       </c>
@@ -3023,13 +3704,13 @@
       <c r="E20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="97"/>
+      <c r="F20" s="164"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="112" t="s">
+      <c r="A21" s="171" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="113"/>
+      <c r="B21" s="172"/>
       <c r="C21" s="21" t="s">
         <v>10</v>
       </c>
@@ -3039,13 +3720,13 @@
       <c r="E21" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="114" t="s">
+      <c r="F21" s="173" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="112"/>
-      <c r="B22" s="113"/>
+      <c r="A22" s="171"/>
+      <c r="B22" s="172"/>
       <c r="C22" s="22" t="s">
         <v>55</v>
       </c>
@@ -3055,13 +3736,13 @@
       <c r="E22" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="115"/>
+      <c r="F22" s="174"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="125" t="s">
+      <c r="A23" s="184" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="126"/>
+      <c r="B23" s="185"/>
       <c r="C23" s="23" t="s">
         <v>6</v>
       </c>
@@ -3071,13 +3752,13 @@
       <c r="E23" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="127" t="s">
+      <c r="F23" s="186" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="112"/>
-      <c r="B24" s="113"/>
+      <c r="A24" s="171"/>
+      <c r="B24" s="172"/>
       <c r="C24" s="22" t="s">
         <v>55</v>
       </c>
@@ -3087,13 +3768,13 @@
       <c r="E24" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="115"/>
+      <c r="F24" s="174"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="105" t="s">
+      <c r="A25" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="106"/>
+      <c r="B25" s="169"/>
       <c r="C25" s="16" t="s">
         <v>6</v>
       </c>
@@ -3103,13 +3784,13 @@
       <c r="E25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="130" t="s">
+      <c r="F25" s="198" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="91"/>
-      <c r="B26" s="92"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="158"/>
+      <c r="B26" s="159"/>
       <c r="C26" s="24" t="s">
         <v>64</v>
       </c>
@@ -3119,11 +3800,11 @@
       <c r="E26" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="96"/>
+      <c r="F26" s="163"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="91"/>
-      <c r="B27" s="92"/>
+      <c r="A27" s="158"/>
+      <c r="B27" s="159"/>
       <c r="C27" s="17" t="s">
         <v>67</v>
       </c>
@@ -3133,11 +3814,11 @@
       <c r="E27" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="96"/>
+      <c r="F27" s="163"/>
     </row>
     <row r="28" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="128"/>
-      <c r="B28" s="129"/>
+      <c r="A28" s="187"/>
+      <c r="B28" s="188"/>
       <c r="C28" s="18" t="s">
         <v>69</v>
       </c>
@@ -3147,13 +3828,13 @@
       <c r="E28" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="131"/>
+      <c r="F28" s="199"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="200" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="133"/>
+      <c r="B29" s="201"/>
       <c r="C29" s="25" t="s">
         <v>6</v>
       </c>
@@ -3163,13 +3844,13 @@
       <c r="E29" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="127" t="s">
+      <c r="F29" s="186" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="134"/>
-      <c r="B30" s="135"/>
+      <c r="A30" s="202"/>
+      <c r="B30" s="203"/>
       <c r="C30" s="24" t="s">
         <v>64</v>
       </c>
@@ -3179,11 +3860,11 @@
       <c r="E30" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="115"/>
+      <c r="F30" s="174"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="136"/>
-      <c r="B31" s="137"/>
+      <c r="A31" s="204"/>
+      <c r="B31" s="205"/>
       <c r="C31" s="26" t="s">
         <v>67</v>
       </c>
@@ -3193,13 +3874,13 @@
       <c r="E31" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="138"/>
+      <c r="F31" s="206"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="125" t="s">
+      <c r="A32" s="184" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="126"/>
+      <c r="B32" s="185"/>
       <c r="C32" s="25" t="s">
         <v>6</v>
       </c>
@@ -3209,13 +3890,13 @@
       <c r="E32" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="141" t="s">
+      <c r="F32" s="209" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="112"/>
-      <c r="B33" s="113"/>
+      <c r="A33" s="171"/>
+      <c r="B33" s="172"/>
       <c r="C33" s="24" t="s">
         <v>79</v>
       </c>
@@ -3225,11 +3906,11 @@
       <c r="E33" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="142"/>
+      <c r="F33" s="210"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="112"/>
-      <c r="B34" s="113"/>
+      <c r="A34" s="171"/>
+      <c r="B34" s="172"/>
       <c r="C34" s="28" t="s">
         <v>81</v>
       </c>
@@ -3239,11 +3920,11 @@
       <c r="E34" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="143"/>
+      <c r="F34" s="211"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="139"/>
-      <c r="B35" s="140"/>
+      <c r="A35" s="207"/>
+      <c r="B35" s="208"/>
       <c r="C35" s="29" t="s">
         <v>83</v>
       </c>
@@ -3253,14 +3934,14 @@
       <c r="E35" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="144"/>
+      <c r="F35" s="212"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="145" t="s">
+      <c r="A38" s="227" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="99"/>
+      <c r="B38" s="190"/>
       <c r="C38" s="1" t="s">
         <v>1</v>
       </c>
@@ -3275,10 +3956,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="116" t="s">
+      <c r="A39" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="117"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="30" t="s">
         <v>10</v>
       </c>
@@ -3288,13 +3969,13 @@
       <c r="E39" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="122" t="s">
+      <c r="F39" s="181" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="118"/>
-      <c r="B40" s="119"/>
+      <c r="A40" s="177"/>
+      <c r="B40" s="178"/>
       <c r="C40" s="31" t="s">
         <v>89</v>
       </c>
@@ -3304,11 +3985,11 @@
       <c r="E40" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="123"/>
+      <c r="F40" s="182"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="118"/>
-      <c r="B41" s="119"/>
+      <c r="A41" s="177"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="31" t="s">
         <v>91</v>
       </c>
@@ -3318,11 +3999,11 @@
       <c r="E41" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="123"/>
+      <c r="F41" s="182"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="118"/>
-      <c r="B42" s="119"/>
+      <c r="A42" s="177"/>
+      <c r="B42" s="178"/>
       <c r="C42" s="31" t="s">
         <v>94</v>
       </c>
@@ -3332,11 +4013,11 @@
       <c r="E42" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="123"/>
+      <c r="F42" s="182"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="120"/>
-      <c r="B43" s="121"/>
+      <c r="A43" s="179"/>
+      <c r="B43" s="180"/>
       <c r="C43" s="20" t="s">
         <v>97</v>
       </c>
@@ -3346,13 +4027,13 @@
       <c r="E43" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="F43" s="124"/>
+      <c r="F43" s="183"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="116" t="s">
+      <c r="A44" s="175" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="117"/>
+      <c r="B44" s="176"/>
       <c r="C44" s="30" t="s">
         <v>10</v>
       </c>
@@ -3362,13 +4043,13 @@
       <c r="E44" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="122" t="s">
+      <c r="F44" s="181" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="118"/>
-      <c r="B45" s="119"/>
+      <c r="A45" s="177"/>
+      <c r="B45" s="178"/>
       <c r="C45" s="32" t="s">
         <v>102</v>
       </c>
@@ -3378,11 +4059,11 @@
       <c r="E45" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="123"/>
+      <c r="F45" s="182"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="118"/>
-      <c r="B46" s="119"/>
+      <c r="A46" s="177"/>
+      <c r="B46" s="178"/>
       <c r="C46" s="31" t="s">
         <v>104</v>
       </c>
@@ -3392,11 +4073,11 @@
       <c r="E46" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="123"/>
+      <c r="F46" s="182"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="118"/>
-      <c r="B47" s="119"/>
+      <c r="A47" s="177"/>
+      <c r="B47" s="178"/>
       <c r="C47" s="31" t="s">
         <v>91</v>
       </c>
@@ -3406,11 +4087,11 @@
       <c r="E47" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F47" s="123"/>
+      <c r="F47" s="182"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="120"/>
-      <c r="B48" s="121"/>
+      <c r="A48" s="179"/>
+      <c r="B48" s="180"/>
       <c r="C48" s="33" t="s">
         <v>94</v>
       </c>
@@ -3420,13 +4101,13 @@
       <c r="E48" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="F48" s="124"/>
+      <c r="F48" s="183"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="116" t="s">
+      <c r="A49" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="117"/>
+      <c r="B49" s="176"/>
       <c r="C49" s="30" t="s">
         <v>10</v>
       </c>
@@ -3436,13 +4117,13 @@
       <c r="E49" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="122" t="s">
+      <c r="F49" s="181" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="120"/>
-      <c r="B50" s="121"/>
+      <c r="A50" s="179"/>
+      <c r="B50" s="180"/>
       <c r="C50" s="33" t="s">
         <v>91</v>
       </c>
@@ -3452,13 +4133,13 @@
       <c r="E50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F50" s="124"/>
+      <c r="F50" s="183"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="116" t="s">
+      <c r="A51" s="175" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="117"/>
+      <c r="B51" s="176"/>
       <c r="C51" s="30" t="s">
         <v>109</v>
       </c>
@@ -3468,13 +4149,13 @@
       <c r="E51" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="122" t="s">
+      <c r="F51" s="181" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="120"/>
-      <c r="B52" s="121"/>
+      <c r="A52" s="179"/>
+      <c r="B52" s="180"/>
       <c r="C52" s="11" t="s">
         <v>112</v>
       </c>
@@ -3484,13 +4165,13 @@
       <c r="E52" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F52" s="124"/>
+      <c r="F52" s="183"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="116" t="s">
+      <c r="A53" s="175" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="117"/>
+      <c r="B53" s="176"/>
       <c r="C53" s="30" t="s">
         <v>115</v>
       </c>
@@ -3500,13 +4181,13 @@
       <c r="E53" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="F53" s="122" t="s">
+      <c r="F53" s="181" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="118"/>
-      <c r="B54" s="119"/>
+      <c r="A54" s="177"/>
+      <c r="B54" s="178"/>
       <c r="C54" s="22" t="s">
         <v>67</v>
       </c>
@@ -3516,11 +4197,11 @@
       <c r="E54" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F54" s="123"/>
+      <c r="F54" s="182"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="120"/>
-      <c r="B55" s="121"/>
+      <c r="A55" s="179"/>
+      <c r="B55" s="180"/>
       <c r="C55" s="33" t="s">
         <v>64</v>
       </c>
@@ -3530,13 +4211,13 @@
       <c r="E55" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F55" s="124"/>
+      <c r="F55" s="183"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="147" t="s">
+      <c r="A56" s="229" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="148"/>
+      <c r="B56" s="230"/>
       <c r="C56" s="34" t="s">
         <v>115</v>
       </c>
@@ -3551,10 +4232,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="147" t="s">
+      <c r="A57" s="229" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="148"/>
+      <c r="B57" s="230"/>
       <c r="C57" s="1" t="s">
         <v>115</v>
       </c>
@@ -3569,10 +4250,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="149" t="s">
+      <c r="A58" s="231" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="150"/>
+      <c r="B58" s="232"/>
       <c r="C58" s="30" t="s">
         <v>115</v>
       </c>
@@ -3582,13 +4263,13 @@
       <c r="E58" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="F58" s="122" t="s">
+      <c r="F58" s="181" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="151"/>
-      <c r="B59" s="152"/>
+      <c r="A59" s="233"/>
+      <c r="B59" s="234"/>
       <c r="C59" s="31" t="s">
         <v>129</v>
       </c>
@@ -3598,11 +4279,11 @@
       <c r="E59" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="F59" s="123"/>
+      <c r="F59" s="182"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="151"/>
-      <c r="B60" s="152"/>
+      <c r="A60" s="233"/>
+      <c r="B60" s="234"/>
       <c r="C60" s="31" t="s">
         <v>131</v>
       </c>
@@ -3612,11 +4293,11 @@
       <c r="E60" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="F60" s="123"/>
+      <c r="F60" s="182"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="153"/>
-      <c r="B61" s="154"/>
+      <c r="A61" s="235"/>
+      <c r="B61" s="236"/>
       <c r="C61" s="11" t="s">
         <v>133</v>
       </c>
@@ -3626,7 +4307,7 @@
       <c r="E61" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F61" s="124"/>
+      <c r="F61" s="183"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -3650,10 +4331,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="155" t="s">
+      <c r="A65" s="237" t="s">
         <v>137</v>
       </c>
-      <c r="B65" s="158" t="s">
+      <c r="B65" s="240" t="s">
         <v>138</v>
       </c>
       <c r="C65" s="16" t="s">
@@ -3665,13 +4346,13 @@
       <c r="E65" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F65" s="161" t="s">
+      <c r="F65" s="243" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="156"/>
-      <c r="B66" s="159"/>
+      <c r="A66" s="238"/>
+      <c r="B66" s="241"/>
       <c r="C66" s="44" t="s">
         <v>10</v>
       </c>
@@ -3681,11 +4362,11 @@
       <c r="E66" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="F66" s="162"/>
+      <c r="F66" s="244"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="156"/>
-      <c r="B67" s="159"/>
+      <c r="A67" s="238"/>
+      <c r="B67" s="241"/>
       <c r="C67" s="44" t="s">
         <v>143</v>
       </c>
@@ -3695,11 +4376,11 @@
       <c r="E67" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="F67" s="162"/>
+      <c r="F67" s="244"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="156"/>
-      <c r="B68" s="159"/>
+      <c r="A68" s="238"/>
+      <c r="B68" s="241"/>
       <c r="C68" s="44" t="s">
         <v>145</v>
       </c>
@@ -3709,11 +4390,11 @@
       <c r="E68" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="F68" s="162"/>
-    </row>
-    <row r="69" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="156"/>
-      <c r="B69" s="159"/>
+      <c r="F68" s="244"/>
+    </row>
+    <row r="69" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A69" s="238"/>
+      <c r="B69" s="241"/>
       <c r="C69" s="45" t="s">
         <v>147</v>
       </c>
@@ -3723,11 +4404,11 @@
       <c r="E69" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F69" s="162"/>
+      <c r="F69" s="244"/>
     </row>
     <row r="70" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="156"/>
-      <c r="B70" s="160"/>
+      <c r="A70" s="238"/>
+      <c r="B70" s="242"/>
       <c r="C70" s="46" t="s">
         <v>150</v>
       </c>
@@ -3737,11 +4418,11 @@
       <c r="E70" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="F70" s="163"/>
+      <c r="F70" s="245"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="156"/>
-      <c r="B71" s="158" t="s">
+      <c r="A71" s="238"/>
+      <c r="B71" s="240" t="s">
         <v>153</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -3753,13 +4434,13 @@
       <c r="E71" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F71" s="161" t="s">
+      <c r="F71" s="243" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="156"/>
-      <c r="B72" s="159"/>
+      <c r="A72" s="238"/>
+      <c r="B72" s="241"/>
       <c r="C72" s="44" t="s">
         <v>10</v>
       </c>
@@ -3769,11 +4450,11 @@
       <c r="E72" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="F72" s="162"/>
+      <c r="F72" s="244"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="156"/>
-      <c r="B73" s="159"/>
+      <c r="A73" s="238"/>
+      <c r="B73" s="241"/>
       <c r="C73" s="44" t="s">
         <v>143</v>
       </c>
@@ -3783,11 +4464,11 @@
       <c r="E73" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="F73" s="162"/>
+      <c r="F73" s="244"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="156"/>
-      <c r="B74" s="159"/>
+      <c r="A74" s="238"/>
+      <c r="B74" s="241"/>
       <c r="C74" s="44" t="s">
         <v>156</v>
       </c>
@@ -3797,11 +4478,11 @@
       <c r="E74" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="162"/>
-    </row>
-    <row r="75" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="156"/>
-      <c r="B75" s="159"/>
+      <c r="F74" s="244"/>
+    </row>
+    <row r="75" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A75" s="238"/>
+      <c r="B75" s="241"/>
       <c r="C75" s="45" t="s">
         <v>147</v>
       </c>
@@ -3811,11 +4492,11 @@
       <c r="E75" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F75" s="162"/>
+      <c r="F75" s="244"/>
     </row>
     <row r="76" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="156"/>
-      <c r="B76" s="160"/>
+      <c r="A76" s="238"/>
+      <c r="B76" s="242"/>
       <c r="C76" s="47" t="s">
         <v>150</v>
       </c>
@@ -3825,11 +4506,11 @@
       <c r="E76" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="F76" s="163"/>
+      <c r="F76" s="245"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" s="156"/>
-      <c r="B77" s="158" t="s">
+      <c r="A77" s="238"/>
+      <c r="B77" s="240" t="s">
         <v>158</v>
       </c>
       <c r="C77" s="48" t="s">
@@ -3841,13 +4522,13 @@
       <c r="E77" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="F77" s="161" t="s">
+      <c r="F77" s="243" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="156"/>
-      <c r="B78" s="159"/>
+      <c r="A78" s="238"/>
+      <c r="B78" s="241"/>
       <c r="C78" s="44" t="s">
         <v>10</v>
       </c>
@@ -3857,11 +4538,11 @@
       <c r="E78" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F78" s="162"/>
-    </row>
-    <row r="79" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="156"/>
-      <c r="B79" s="159"/>
+      <c r="F78" s="244"/>
+    </row>
+    <row r="79" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A79" s="238"/>
+      <c r="B79" s="241"/>
       <c r="C79" s="45" t="s">
         <v>147</v>
       </c>
@@ -3871,11 +4552,11 @@
       <c r="E79" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F79" s="162"/>
+      <c r="F79" s="244"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="156"/>
-      <c r="B80" s="159"/>
+      <c r="A80" s="238"/>
+      <c r="B80" s="241"/>
       <c r="C80" s="44" t="s">
         <v>89</v>
       </c>
@@ -3885,11 +4566,11 @@
       <c r="E80" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="F80" s="162"/>
+      <c r="F80" s="244"/>
     </row>
     <row r="81" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="156"/>
-      <c r="B81" s="160"/>
+      <c r="A81" s="238"/>
+      <c r="B81" s="242"/>
       <c r="C81" s="47" t="s">
         <v>163</v>
       </c>
@@ -3899,10 +4580,10 @@
       <c r="E81" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="F81" s="163"/>
+      <c r="F81" s="245"/>
     </row>
     <row r="82" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="156"/>
+      <c r="A82" s="238"/>
       <c r="B82" s="50" t="s">
         <v>165</v>
       </c>
@@ -3920,8 +4601,8 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="156"/>
-      <c r="B83" s="158" t="s">
+      <c r="A83" s="238"/>
+      <c r="B83" s="240" t="s">
         <v>168</v>
       </c>
       <c r="C83" s="49" t="s">
@@ -3933,13 +4614,13 @@
       <c r="E83" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F83" s="161" t="s">
+      <c r="F83" s="243" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="156"/>
-      <c r="B84" s="160"/>
+      <c r="A84" s="238"/>
+      <c r="B84" s="242"/>
       <c r="C84" s="47" t="s">
         <v>143</v>
       </c>
@@ -3949,10 +4630,10 @@
       <c r="E84" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="F84" s="163"/>
+      <c r="F84" s="245"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="157"/>
+      <c r="A85" s="239"/>
       <c r="B85" s="54" t="s">
         <v>108</v>
       </c>
@@ -4014,10 +4695,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="79" t="s">
+      <c r="A93" s="146" t="s">
         <v>174</v>
       </c>
-      <c r="B93" s="80"/>
+      <c r="B93" s="147"/>
       <c r="C93" s="16" t="s">
         <v>6</v>
       </c>
@@ -4027,13 +4708,13 @@
       <c r="E93" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="F93" s="85" t="s">
+      <c r="F93" s="152" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="81"/>
-      <c r="B94" s="82"/>
+      <c r="A94" s="148"/>
+      <c r="B94" s="149"/>
       <c r="C94" s="17" t="s">
         <v>177</v>
       </c>
@@ -4043,11 +4724,11 @@
       <c r="E94" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F94" s="85"/>
-    </row>
-    <row r="95" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="81"/>
-      <c r="B95" s="82"/>
+      <c r="F94" s="152"/>
+    </row>
+    <row r="95" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="148"/>
+      <c r="B95" s="149"/>
       <c r="C95" s="17" t="s">
         <v>179</v>
       </c>
@@ -4057,11 +4738,11 @@
       <c r="E95" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="F95" s="85"/>
+      <c r="F95" s="152"/>
     </row>
     <row r="96" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="81"/>
-      <c r="B96" s="82"/>
+      <c r="A96" s="148"/>
+      <c r="B96" s="149"/>
       <c r="C96" s="17" t="s">
         <v>182</v>
       </c>
@@ -4071,11 +4752,11 @@
       <c r="E96" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="F96" s="85"/>
+      <c r="F96" s="152"/>
     </row>
     <row r="97" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="81"/>
-      <c r="B97" s="82"/>
+      <c r="A97" s="148"/>
+      <c r="B97" s="149"/>
       <c r="C97" s="64" t="s">
         <v>184</v>
       </c>
@@ -4085,11 +4766,11 @@
       <c r="E97" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="F97" s="85"/>
+      <c r="F97" s="152"/>
     </row>
     <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="81"/>
-      <c r="B98" s="82"/>
+      <c r="A98" s="148"/>
+      <c r="B98" s="149"/>
       <c r="C98" s="64" t="s">
         <v>185</v>
       </c>
@@ -4099,11 +4780,11 @@
       <c r="E98" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="F98" s="85"/>
+      <c r="F98" s="152"/>
     </row>
     <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="81"/>
-      <c r="B99" s="82"/>
+      <c r="A99" s="148"/>
+      <c r="B99" s="149"/>
       <c r="C99" s="64" t="s">
         <v>187</v>
       </c>
@@ -4113,11 +4794,11 @@
       <c r="E99" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="F99" s="85"/>
+      <c r="F99" s="152"/>
     </row>
     <row r="100" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="81"/>
-      <c r="B100" s="82"/>
+      <c r="A100" s="148"/>
+      <c r="B100" s="149"/>
       <c r="C100" s="24" t="s">
         <v>189</v>
       </c>
@@ -4127,11 +4808,11 @@
       <c r="E100" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="F100" s="85"/>
+      <c r="F100" s="152"/>
     </row>
     <row r="101" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="81"/>
-      <c r="B101" s="82"/>
+      <c r="A101" s="148"/>
+      <c r="B101" s="149"/>
       <c r="C101" s="17" t="s">
         <v>191</v>
       </c>
@@ -4141,11 +4822,11 @@
       <c r="E101" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="F101" s="85"/>
+      <c r="F101" s="152"/>
     </row>
     <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="81"/>
-      <c r="B102" s="82"/>
+      <c r="A102" s="148"/>
+      <c r="B102" s="149"/>
       <c r="C102" s="17" t="s">
         <v>193</v>
       </c>
@@ -4155,11 +4836,11 @@
       <c r="E102" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="F102" s="85"/>
+      <c r="F102" s="152"/>
     </row>
     <row r="103" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="81"/>
-      <c r="B103" s="82"/>
+      <c r="A103" s="148"/>
+      <c r="B103" s="149"/>
       <c r="C103" s="17" t="s">
         <v>195</v>
       </c>
@@ -4169,11 +4850,11 @@
       <c r="E103" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="F103" s="85"/>
+      <c r="F103" s="152"/>
     </row>
     <row r="104" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="81"/>
-      <c r="B104" s="82"/>
+      <c r="A104" s="148"/>
+      <c r="B104" s="149"/>
       <c r="C104" s="17" t="s">
         <v>197</v>
       </c>
@@ -4183,11 +4864,11 @@
       <c r="E104" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="F104" s="85"/>
+      <c r="F104" s="152"/>
     </row>
     <row r="105" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="81"/>
-      <c r="B105" s="82"/>
+      <c r="A105" s="148"/>
+      <c r="B105" s="149"/>
       <c r="C105" s="24" t="s">
         <v>199</v>
       </c>
@@ -4197,11 +4878,11 @@
       <c r="E105" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="F105" s="85"/>
+      <c r="F105" s="152"/>
     </row>
     <row r="106" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="81"/>
-      <c r="B106" s="82"/>
+      <c r="A106" s="148"/>
+      <c r="B106" s="149"/>
       <c r="C106" s="24" t="s">
         <v>201</v>
       </c>
@@ -4211,11 +4892,11 @@
       <c r="E106" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="F106" s="85"/>
+      <c r="F106" s="152"/>
     </row>
     <row r="107" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="81"/>
-      <c r="B107" s="82"/>
+      <c r="A107" s="148"/>
+      <c r="B107" s="149"/>
       <c r="C107" s="44" t="s">
         <v>203</v>
       </c>
@@ -4225,11 +4906,11 @@
       <c r="E107" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="F107" s="85"/>
+      <c r="F107" s="152"/>
     </row>
     <row r="108" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="81"/>
-      <c r="B108" s="82"/>
+      <c r="A108" s="148"/>
+      <c r="B108" s="149"/>
       <c r="C108" s="44" t="s">
         <v>205</v>
       </c>
@@ -4239,11 +4920,11 @@
       <c r="E108" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="F108" s="85"/>
+      <c r="F108" s="152"/>
     </row>
     <row r="109" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="81"/>
-      <c r="B109" s="82"/>
+      <c r="A109" s="148"/>
+      <c r="B109" s="149"/>
       <c r="C109" s="62" t="s">
         <v>207</v>
       </c>
@@ -4253,11 +4934,11 @@
       <c r="E109" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="F109" s="85"/>
+      <c r="F109" s="152"/>
     </row>
     <row r="110" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="83"/>
-      <c r="B110" s="84"/>
+      <c r="A110" s="150"/>
+      <c r="B110" s="151"/>
       <c r="C110" s="63" t="s">
         <v>209</v>
       </c>
@@ -4267,31 +4948,31 @@
       <c r="E110" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="F110" s="85"/>
+      <c r="F110" s="152"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A111" s="146" t="s">
+      <c r="A111" s="228" t="s">
         <v>219</v>
       </c>
-      <c r="B111" s="146"/>
-      <c r="C111" s="146"/>
-      <c r="D111" s="146"/>
-      <c r="E111" s="146"/>
-      <c r="F111" s="146"/>
+      <c r="B111" s="228"/>
+      <c r="C111" s="228"/>
+      <c r="D111" s="228"/>
+      <c r="E111" s="228"/>
+      <c r="F111" s="228"/>
     </row>
     <row r="112" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="146"/>
-      <c r="B112" s="146"/>
-      <c r="C112" s="146"/>
-      <c r="D112" s="146"/>
-      <c r="E112" s="146"/>
-      <c r="F112" s="146"/>
+      <c r="A112" s="228"/>
+      <c r="B112" s="228"/>
+      <c r="C112" s="228"/>
+      <c r="D112" s="228"/>
+      <c r="E112" s="228"/>
+      <c r="F112" s="228"/>
     </row>
     <row r="113" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="79" t="s">
+      <c r="A113" s="146" t="s">
         <v>215</v>
       </c>
-      <c r="B113" s="80"/>
+      <c r="B113" s="147"/>
       <c r="C113" s="74" t="s">
         <v>216</v>
       </c>
@@ -4301,13 +4982,13 @@
       <c r="E113" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="F113" s="85" t="s">
+      <c r="F113" s="152" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="81"/>
-      <c r="B114" s="82"/>
+      <c r="A114" s="148"/>
+      <c r="B114" s="149"/>
       <c r="C114" s="44" t="s">
         <v>182</v>
       </c>
@@ -4317,11 +4998,11 @@
       <c r="E114" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="F114" s="85"/>
-    </row>
-    <row r="115" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="81"/>
-      <c r="B115" s="82"/>
+      <c r="F114" s="152"/>
+    </row>
+    <row r="115" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="148"/>
+      <c r="B115" s="149"/>
       <c r="C115" s="44" t="s">
         <v>179</v>
       </c>
@@ -4331,11 +5012,11 @@
       <c r="E115" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="F115" s="85"/>
+      <c r="F115" s="152"/>
     </row>
     <row r="116" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="81"/>
-      <c r="B116" s="82"/>
+      <c r="A116" s="148"/>
+      <c r="B116" s="149"/>
       <c r="C116" s="44" t="s">
         <v>195</v>
       </c>
@@ -4345,11 +5026,11 @@
       <c r="E116" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="F116" s="85"/>
+      <c r="F116" s="152"/>
     </row>
     <row r="117" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="81"/>
-      <c r="B117" s="82"/>
+      <c r="A117" s="148"/>
+      <c r="B117" s="149"/>
       <c r="C117" s="44" t="s">
         <v>197</v>
       </c>
@@ -4359,11 +5040,11 @@
       <c r="E117" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="F117" s="85"/>
+      <c r="F117" s="152"/>
     </row>
     <row r="118" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="81"/>
-      <c r="B118" s="82"/>
+      <c r="A118" s="148"/>
+      <c r="B118" s="149"/>
       <c r="C118" s="62" t="s">
         <v>199</v>
       </c>
@@ -4373,11 +5054,11 @@
       <c r="E118" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="F118" s="85"/>
+      <c r="F118" s="152"/>
     </row>
     <row r="119" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="81"/>
-      <c r="B119" s="82"/>
+      <c r="A119" s="148"/>
+      <c r="B119" s="149"/>
       <c r="C119" s="62" t="s">
         <v>201</v>
       </c>
@@ -4387,11 +5068,11 @@
       <c r="E119" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="F119" s="85"/>
+      <c r="F119" s="152"/>
     </row>
     <row r="120" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="81"/>
-      <c r="B120" s="82"/>
+      <c r="A120" s="148"/>
+      <c r="B120" s="149"/>
       <c r="C120" s="44" t="s">
         <v>203</v>
       </c>
@@ -4401,11 +5082,11 @@
       <c r="E120" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="F120" s="85"/>
+      <c r="F120" s="152"/>
     </row>
     <row r="121" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="81"/>
-      <c r="B121" s="82"/>
+      <c r="A121" s="148"/>
+      <c r="B121" s="149"/>
       <c r="C121" s="44" t="s">
         <v>205</v>
       </c>
@@ -4415,11 +5096,11 @@
       <c r="E121" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="F121" s="85"/>
+      <c r="F121" s="152"/>
     </row>
     <row r="122" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="81"/>
-      <c r="B122" s="82"/>
+      <c r="A122" s="148"/>
+      <c r="B122" s="149"/>
       <c r="C122" s="75" t="s">
         <v>207</v>
       </c>
@@ -4429,11 +5110,11 @@
       <c r="E122" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="F122" s="85"/>
+      <c r="F122" s="152"/>
     </row>
     <row r="123" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="83"/>
-      <c r="B123" s="84"/>
+      <c r="A123" s="150"/>
+      <c r="B123" s="151"/>
       <c r="C123" s="76" t="s">
         <v>209</v>
       </c>
@@ -4443,13 +5124,13 @@
       <c r="E123" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="F123" s="86"/>
+      <c r="F123" s="153"/>
     </row>
     <row r="124" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="87" t="s">
+      <c r="A124" s="154" t="s">
         <v>224</v>
       </c>
-      <c r="B124" s="88"/>
+      <c r="B124" s="155"/>
       <c r="C124" s="77" t="s">
         <v>221</v>
       </c>
@@ -4464,10 +5145,10 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="164" t="s">
+      <c r="A125" s="246" t="s">
         <v>225</v>
       </c>
-      <c r="B125" s="165"/>
+      <c r="B125" s="247"/>
       <c r="C125" s="72" t="s">
         <v>6</v>
       </c>
@@ -4477,13 +5158,13 @@
       <c r="E125" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="F125" s="161" t="s">
+      <c r="F125" s="243" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="166"/>
-      <c r="B126" s="167"/>
+      <c r="A126" s="248"/>
+      <c r="B126" s="249"/>
       <c r="C126" s="72" t="s">
         <v>227</v>
       </c>
@@ -4493,11 +5174,11 @@
       <c r="E126" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="F126" s="162"/>
+      <c r="F126" s="244"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A127" s="166"/>
-      <c r="B127" s="167"/>
+      <c r="A127" s="248"/>
+      <c r="B127" s="249"/>
       <c r="C127" s="72" t="s">
         <v>23</v>
       </c>
@@ -4507,65 +5188,65 @@
       <c r="E127" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="F127" s="162"/>
+      <c r="F127" s="244"/>
     </row>
     <row r="128" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="174" t="s">
+      <c r="A128" s="250" t="s">
         <v>230</v>
       </c>
-      <c r="B128" s="175"/>
-      <c r="C128" s="176" t="s">
+      <c r="B128" s="251"/>
+      <c r="C128" s="81" t="s">
         <v>231</v>
       </c>
       <c r="D128" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="E128" s="176" t="s">
+      <c r="E128" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="F128" s="180" t="s">
+      <c r="F128" s="83" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="177" t="s">
+      <c r="A129" s="252" t="s">
         <v>232</v>
       </c>
-      <c r="B129" s="178"/>
-      <c r="C129" s="179" t="s">
+      <c r="B129" s="253"/>
+      <c r="C129" s="82" t="s">
         <v>231</v>
       </c>
       <c r="D129" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="E129" s="179" t="s">
+      <c r="E129" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="F129" s="181" t="s">
+      <c r="F129" s="84" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A130" s="168" t="s">
+      <c r="A130" s="254" t="s">
         <v>233</v>
       </c>
-      <c r="B130" s="169"/>
-      <c r="C130" s="170" t="s">
+      <c r="B130" s="255"/>
+      <c r="C130" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="D130" s="171" t="s">
+      <c r="D130" s="80" t="s">
         <v>235</v>
       </c>
-      <c r="E130" s="170" t="s">
+      <c r="E130" s="79" t="s">
         <v>236</v>
       </c>
-      <c r="F130" s="182" t="s">
+      <c r="F130" s="258" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A131" s="172"/>
-      <c r="B131" s="173"/>
+      <c r="A131" s="256"/>
+      <c r="B131" s="257"/>
       <c r="C131" s="26" t="s">
         <v>237</v>
       </c>
@@ -4575,141 +5256,141 @@
       <c r="E131" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="F131" s="183"/>
+      <c r="F131" s="259"/>
     </row>
     <row r="132" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="184" t="s">
+      <c r="A132" s="260" t="s">
         <v>243</v>
       </c>
-      <c r="B132" s="185"/>
-      <c r="C132" s="186" t="s">
+      <c r="B132" s="261"/>
+      <c r="C132" s="85" t="s">
         <v>244</v>
       </c>
-      <c r="D132" s="186"/>
-      <c r="E132" s="186"/>
-      <c r="F132" s="187" t="s">
+      <c r="D132" s="85"/>
+      <c r="E132" s="85"/>
+      <c r="F132" s="86" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="98" t="s">
+      <c r="A133" s="189" t="s">
         <v>246</v>
       </c>
-      <c r="B133" s="188"/>
-      <c r="C133" s="189" t="s">
+      <c r="B133" s="262"/>
+      <c r="C133" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="D133" s="189"/>
-      <c r="E133" s="189"/>
-      <c r="F133" s="190" t="s">
+      <c r="D133" s="87"/>
+      <c r="E133" s="87"/>
+      <c r="F133" s="88" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="98" t="s">
+      <c r="A134" s="189" t="s">
         <v>248</v>
       </c>
-      <c r="B134" s="188"/>
-      <c r="C134" s="189" t="s">
+      <c r="B134" s="262"/>
+      <c r="C134" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="D134" s="189"/>
-      <c r="E134" s="189"/>
-      <c r="F134" s="190" t="s">
+      <c r="D134" s="87"/>
+      <c r="E134" s="87"/>
+      <c r="F134" s="88" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="98" t="s">
+      <c r="A135" s="189" t="s">
         <v>250</v>
       </c>
-      <c r="B135" s="188"/>
-      <c r="C135" s="189" t="s">
+      <c r="B135" s="262"/>
+      <c r="C135" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="D135" s="189"/>
-      <c r="E135" s="189"/>
-      <c r="F135" s="190" t="s">
+      <c r="D135" s="87"/>
+      <c r="E135" s="87"/>
+      <c r="F135" s="88" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="191" t="s">
+      <c r="A136" s="263" t="s">
         <v>252</v>
       </c>
-      <c r="B136" s="192"/>
-      <c r="C136" s="193" t="s">
+      <c r="B136" s="264"/>
+      <c r="C136" s="89" t="s">
         <v>244</v>
       </c>
-      <c r="D136" s="193"/>
-      <c r="E136" s="193"/>
-      <c r="F136" s="194" t="s">
+      <c r="D136" s="89"/>
+      <c r="E136" s="89"/>
+      <c r="F136" s="90" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="206" t="s">
+      <c r="A137" s="270" t="s">
         <v>254</v>
       </c>
-      <c r="B137" s="207"/>
-      <c r="C137" s="208" t="s">
+      <c r="B137" s="271"/>
+      <c r="C137" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="D137" s="208"/>
-      <c r="E137" s="208"/>
-      <c r="F137" s="209" t="s">
+      <c r="D137" s="95"/>
+      <c r="E137" s="95"/>
+      <c r="F137" s="96" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="210" t="s">
+      <c r="A138" s="272" t="s">
         <v>256</v>
       </c>
-      <c r="B138" s="211"/>
-      <c r="C138" s="208" t="s">
+      <c r="B138" s="273"/>
+      <c r="C138" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="D138" s="208"/>
-      <c r="E138" s="208"/>
-      <c r="F138" s="209" t="s">
+      <c r="D138" s="95"/>
+      <c r="E138" s="95"/>
+      <c r="F138" s="96" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="197" t="s">
+      <c r="A139" s="274" t="s">
         <v>258</v>
       </c>
-      <c r="B139" s="198"/>
-      <c r="C139" s="195" t="s">
+      <c r="B139" s="275"/>
+      <c r="C139" s="91" t="s">
         <v>244</v>
       </c>
-      <c r="D139" s="195"/>
-      <c r="E139" s="195"/>
-      <c r="F139" s="196" t="s">
+      <c r="D139" s="91"/>
+      <c r="E139" s="91"/>
+      <c r="F139" s="92" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A140" s="212" t="s">
+      <c r="A140" s="276" t="s">
         <v>260</v>
       </c>
-      <c r="B140" s="213"/>
-      <c r="C140" s="214" t="s">
+      <c r="B140" s="277"/>
+      <c r="C140" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="D140" s="214" t="s">
+      <c r="D140" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E140" s="214" t="s">
+      <c r="E140" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="F140" s="215" t="s">
+      <c r="F140" s="282" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A141" s="216"/>
-      <c r="B141" s="217"/>
+      <c r="A141" s="278"/>
+      <c r="B141" s="279"/>
       <c r="C141" s="24" t="s">
         <v>263</v>
       </c>
@@ -4719,11 +5400,11 @@
       <c r="E141" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="F141" s="218"/>
+      <c r="F141" s="283"/>
     </row>
     <row r="142" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="219"/>
-      <c r="B142" s="220"/>
+      <c r="A142" s="280"/>
+      <c r="B142" s="281"/>
       <c r="C142" s="26" t="s">
         <v>265</v>
       </c>
@@ -4733,42 +5414,1460 @@
       <c r="E142" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="F142" s="221"/>
+      <c r="F142" s="284"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A143" s="199" t="s">
+      <c r="A143" s="265" t="s">
         <v>267</v>
       </c>
-      <c r="B143" s="200"/>
-      <c r="C143" s="201" t="s">
+      <c r="B143" s="266"/>
+      <c r="C143" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D143" s="201" t="s">
-        <v>7</v>
-      </c>
-      <c r="E143" s="201" t="s">
+      <c r="D143" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="F143" s="85" t="s">
+      <c r="F143" s="152" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="202"/>
-      <c r="B144" s="203"/>
-      <c r="C144" s="204" t="s">
+      <c r="A144" s="267"/>
+      <c r="B144" s="268"/>
+      <c r="C144" s="94" t="s">
         <v>270</v>
       </c>
-      <c r="D144" s="204" t="s">
+      <c r="D144" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="E144" s="204" t="s">
+      <c r="E144" s="94" t="s">
         <v>271</v>
       </c>
-      <c r="F144" s="205"/>
+      <c r="F144" s="269"/>
+    </row>
+    <row r="145" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="197" t="s">
+        <v>272</v>
+      </c>
+      <c r="B145" s="197"/>
+      <c r="C145" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="D145" s="98"/>
+      <c r="E145" s="98" t="s">
+        <v>273</v>
+      </c>
+      <c r="F145" s="99" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="197" t="s">
+        <v>275</v>
+      </c>
+      <c r="B146" s="197"/>
+      <c r="C146" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="D146" s="98"/>
+      <c r="E146" s="98" t="s">
+        <v>276</v>
+      </c>
+      <c r="F146" s="99"/>
+    </row>
+    <row r="149" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="113"/>
+      <c r="B149" s="114"/>
+      <c r="C149" s="101"/>
+      <c r="D149" s="101"/>
+      <c r="E149" s="101"/>
+      <c r="F149" s="104"/>
+    </row>
+    <row r="150" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="108" t="s">
+        <v>277</v>
+      </c>
+      <c r="B150" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="C150" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="E150" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="F150" s="117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="224" t="s">
+        <v>278</v>
+      </c>
+      <c r="B151" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="C151" s="119" t="s">
+        <v>244</v>
+      </c>
+      <c r="D151" s="119"/>
+      <c r="E151" s="119"/>
+      <c r="F151" s="120" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="225"/>
+      <c r="B152" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="C152" s="109" t="s">
+        <v>244</v>
+      </c>
+      <c r="D152" s="109"/>
+      <c r="E152" s="109"/>
+      <c r="F152" s="110" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A153" s="225"/>
+      <c r="B153" s="217" t="s">
+        <v>283</v>
+      </c>
+      <c r="C153" s="122" t="s">
+        <v>284</v>
+      </c>
+      <c r="D153" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="E153" s="122" t="s">
+        <v>285</v>
+      </c>
+      <c r="F153" s="135" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A154" s="225"/>
+      <c r="B154" s="217"/>
+      <c r="C154" s="106" t="s">
+        <v>287</v>
+      </c>
+      <c r="D154" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="E154" s="106" t="s">
+        <v>288</v>
+      </c>
+      <c r="F154" s="135"/>
+    </row>
+    <row r="155" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A155" s="225"/>
+      <c r="B155" s="217"/>
+      <c r="C155" s="106" t="s">
+        <v>289</v>
+      </c>
+      <c r="D155" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="106" t="s">
+        <v>290</v>
+      </c>
+      <c r="F155" s="135"/>
+    </row>
+    <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="225"/>
+      <c r="B156" s="217"/>
+      <c r="C156" s="107" t="s">
+        <v>291</v>
+      </c>
+      <c r="D156" s="107" t="s">
+        <v>292</v>
+      </c>
+      <c r="E156" s="107" t="s">
+        <v>293</v>
+      </c>
+      <c r="F156" s="135"/>
+    </row>
+    <row r="157" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A157" s="225"/>
+      <c r="B157" s="143" t="s">
+        <v>294</v>
+      </c>
+      <c r="C157" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="D157" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E157" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="F157" s="132" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A158" s="225"/>
+      <c r="B158" s="144"/>
+      <c r="C158" s="106" t="s">
+        <v>231</v>
+      </c>
+      <c r="D158" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="E158" s="106" t="s">
+        <v>288</v>
+      </c>
+      <c r="F158" s="136"/>
+    </row>
+    <row r="159" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A159" s="225"/>
+      <c r="B159" s="144"/>
+      <c r="C159" s="106" t="s">
+        <v>289</v>
+      </c>
+      <c r="D159" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="106" t="s">
+        <v>290</v>
+      </c>
+      <c r="F159" s="136"/>
+    </row>
+    <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="225"/>
+      <c r="B160" s="218"/>
+      <c r="C160" s="107" t="s">
+        <v>291</v>
+      </c>
+      <c r="D160" s="107" t="s">
+        <v>292</v>
+      </c>
+      <c r="E160" s="107" t="s">
+        <v>293</v>
+      </c>
+      <c r="F160" s="133"/>
+    </row>
+    <row r="161" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A161" s="225"/>
+      <c r="B161" s="143" t="s">
+        <v>297</v>
+      </c>
+      <c r="C161" s="105" t="s">
+        <v>298</v>
+      </c>
+      <c r="D161" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="E161" s="105" t="s">
+        <v>299</v>
+      </c>
+      <c r="F161" s="132" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A162" s="225"/>
+      <c r="B162" s="144"/>
+      <c r="C162" s="106" t="s">
+        <v>231</v>
+      </c>
+      <c r="D162" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="E162" s="106" t="s">
+        <v>288</v>
+      </c>
+      <c r="F162" s="136"/>
+    </row>
+    <row r="163" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A163" s="225"/>
+      <c r="B163" s="144"/>
+      <c r="C163" s="106" t="s">
+        <v>289</v>
+      </c>
+      <c r="D163" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" s="106" t="s">
+        <v>290</v>
+      </c>
+      <c r="F163" s="136"/>
+    </row>
+    <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="225"/>
+      <c r="B164" s="145"/>
+      <c r="C164" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="D164" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="E164" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="F164" s="137"/>
+    </row>
+    <row r="165" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A165" s="225"/>
+      <c r="B165" s="216" t="s">
+        <v>301</v>
+      </c>
+      <c r="C165" s="111" t="s">
+        <v>231</v>
+      </c>
+      <c r="D165" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="E165" s="111" t="s">
+        <v>302</v>
+      </c>
+      <c r="F165" s="134" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A166" s="225"/>
+      <c r="B166" s="217"/>
+      <c r="C166" s="106" t="s">
+        <v>304</v>
+      </c>
+      <c r="D166" s="106" t="s">
+        <v>305</v>
+      </c>
+      <c r="E166" s="106" t="s">
+        <v>306</v>
+      </c>
+      <c r="F166" s="135"/>
+    </row>
+    <row r="167" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A167" s="225"/>
+      <c r="B167" s="217"/>
+      <c r="C167" s="106" t="s">
+        <v>307</v>
+      </c>
+      <c r="D167" s="106" t="s">
+        <v>305</v>
+      </c>
+      <c r="E167" s="106" t="s">
+        <v>308</v>
+      </c>
+      <c r="F167" s="135"/>
+    </row>
+    <row r="168" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A168" s="225"/>
+      <c r="B168" s="217"/>
+      <c r="C168" s="107" t="s">
+        <v>289</v>
+      </c>
+      <c r="D168" s="107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="F168" s="135"/>
+    </row>
+    <row r="169" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="225"/>
+      <c r="B169" s="223"/>
+      <c r="C169" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="D169" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="E169" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="F169" s="222"/>
+    </row>
+    <row r="170" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A170" s="225"/>
+      <c r="B170" s="216" t="s">
+        <v>309</v>
+      </c>
+      <c r="C170" s="105" t="s">
+        <v>231</v>
+      </c>
+      <c r="D170" s="105" t="s">
+        <v>95</v>
+      </c>
+      <c r="E170" s="111" t="s">
+        <v>302</v>
+      </c>
+      <c r="F170" s="134" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A171" s="225"/>
+      <c r="B171" s="217"/>
+      <c r="C171" s="106" t="s">
+        <v>304</v>
+      </c>
+      <c r="D171" s="106" t="s">
+        <v>305</v>
+      </c>
+      <c r="E171" s="106" t="s">
+        <v>306</v>
+      </c>
+      <c r="F171" s="135"/>
+    </row>
+    <row r="172" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A172" s="225"/>
+      <c r="B172" s="217"/>
+      <c r="C172" s="106" t="s">
+        <v>307</v>
+      </c>
+      <c r="D172" s="106" t="s">
+        <v>305</v>
+      </c>
+      <c r="E172" s="106" t="s">
+        <v>308</v>
+      </c>
+      <c r="F172" s="135"/>
+    </row>
+    <row r="173" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A173" s="225"/>
+      <c r="B173" s="217"/>
+      <c r="C173" s="106" t="s">
+        <v>289</v>
+      </c>
+      <c r="D173" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="106" t="s">
+        <v>290</v>
+      </c>
+      <c r="F173" s="135"/>
+    </row>
+    <row r="174" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="225"/>
+      <c r="B174" s="217"/>
+      <c r="C174" s="107" t="s">
+        <v>291</v>
+      </c>
+      <c r="D174" s="107" t="s">
+        <v>292</v>
+      </c>
+      <c r="E174" s="107" t="s">
+        <v>293</v>
+      </c>
+      <c r="F174" s="135"/>
+    </row>
+    <row r="175" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A175" s="225"/>
+      <c r="B175" s="143" t="s">
+        <v>311</v>
+      </c>
+      <c r="C175" s="105" t="s">
+        <v>312</v>
+      </c>
+      <c r="D175" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="105" t="s">
+        <v>313</v>
+      </c>
+      <c r="F175" s="132" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A176" s="225"/>
+      <c r="B176" s="144"/>
+      <c r="C176" s="106" t="s">
+        <v>231</v>
+      </c>
+      <c r="D176" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="E176" s="111" t="s">
+        <v>302</v>
+      </c>
+      <c r="F176" s="136"/>
+    </row>
+    <row r="177" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A177" s="225"/>
+      <c r="B177" s="144"/>
+      <c r="C177" s="106" t="s">
+        <v>289</v>
+      </c>
+      <c r="D177" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" s="106" t="s">
+        <v>290</v>
+      </c>
+      <c r="F177" s="136"/>
+    </row>
+    <row r="178" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="225"/>
+      <c r="B178" s="218"/>
+      <c r="C178" s="107" t="s">
+        <v>291</v>
+      </c>
+      <c r="D178" s="107" t="s">
+        <v>292</v>
+      </c>
+      <c r="E178" s="107" t="s">
+        <v>293</v>
+      </c>
+      <c r="F178" s="133"/>
+    </row>
+    <row r="179" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A179" s="225"/>
+      <c r="B179" s="216" t="s">
+        <v>315</v>
+      </c>
+      <c r="C179" s="119" t="s">
+        <v>312</v>
+      </c>
+      <c r="D179" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" s="119" t="s">
+        <v>316</v>
+      </c>
+      <c r="F179" s="132" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A180" s="225"/>
+      <c r="B180" s="217"/>
+      <c r="C180" s="106" t="s">
+        <v>231</v>
+      </c>
+      <c r="D180" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="E180" s="111" t="s">
+        <v>302</v>
+      </c>
+      <c r="F180" s="136"/>
+    </row>
+    <row r="181" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A181" s="225"/>
+      <c r="B181" s="217"/>
+      <c r="C181" s="106" t="s">
+        <v>289</v>
+      </c>
+      <c r="D181" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" s="106" t="s">
+        <v>290</v>
+      </c>
+      <c r="F181" s="136"/>
+    </row>
+    <row r="182" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="225"/>
+      <c r="B182" s="223"/>
+      <c r="C182" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="D182" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="E182" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="F182" s="137"/>
+    </row>
+    <row r="183" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A183" s="225"/>
+      <c r="B183" s="217" t="s">
+        <v>318</v>
+      </c>
+      <c r="C183" s="111" t="s">
+        <v>319</v>
+      </c>
+      <c r="D183" s="111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" s="111" t="s">
+        <v>320</v>
+      </c>
+      <c r="F183" s="135" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A184" s="225"/>
+      <c r="B184" s="217"/>
+      <c r="C184" s="106" t="s">
+        <v>322</v>
+      </c>
+      <c r="D184" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" s="106" t="s">
+        <v>323</v>
+      </c>
+      <c r="F184" s="135"/>
+    </row>
+    <row r="185" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A185" s="225"/>
+      <c r="B185" s="217"/>
+      <c r="C185" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="D185" s="107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" s="107" t="s">
+        <v>325</v>
+      </c>
+      <c r="F185" s="135"/>
+    </row>
+    <row r="186" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A186" s="225"/>
+      <c r="B186" s="217"/>
+      <c r="C186" s="106" t="s">
+        <v>231</v>
+      </c>
+      <c r="D186" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="E186" s="111" t="s">
+        <v>302</v>
+      </c>
+      <c r="F186" s="135"/>
+    </row>
+    <row r="187" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A187" s="225"/>
+      <c r="B187" s="217"/>
+      <c r="C187" s="106" t="s">
+        <v>289</v>
+      </c>
+      <c r="D187" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" s="106" t="s">
+        <v>290</v>
+      </c>
+      <c r="F187" s="135"/>
+    </row>
+    <row r="188" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="225"/>
+      <c r="B188" s="223"/>
+      <c r="C188" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="D188" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="E188" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="F188" s="222"/>
+    </row>
+    <row r="189" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A189" s="225"/>
+      <c r="B189" s="143" t="s">
+        <v>326</v>
+      </c>
+      <c r="C189" s="105" t="s">
+        <v>327</v>
+      </c>
+      <c r="D189" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" s="105" t="s">
+        <v>328</v>
+      </c>
+      <c r="F189" s="132" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A190" s="225"/>
+      <c r="B190" s="144"/>
+      <c r="C190" s="106" t="s">
+        <v>231</v>
+      </c>
+      <c r="D190" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="E190" s="111" t="s">
+        <v>302</v>
+      </c>
+      <c r="F190" s="136"/>
+    </row>
+    <row r="191" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A191" s="225"/>
+      <c r="B191" s="144"/>
+      <c r="C191" s="106" t="s">
+        <v>289</v>
+      </c>
+      <c r="D191" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" s="106" t="s">
+        <v>290</v>
+      </c>
+      <c r="F191" s="136"/>
+    </row>
+    <row r="192" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="225"/>
+      <c r="B192" s="145"/>
+      <c r="C192" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="D192" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="E192" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="F192" s="137"/>
+    </row>
+    <row r="193" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A193" s="225"/>
+      <c r="B193" s="216" t="s">
+        <v>330</v>
+      </c>
+      <c r="C193" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="D193" s="105" t="s">
+        <v>95</v>
+      </c>
+      <c r="E193" s="105" t="s">
+        <v>331</v>
+      </c>
+      <c r="F193" s="134" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A194" s="225"/>
+      <c r="B194" s="217"/>
+      <c r="C194" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="D194" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="106" t="s">
+        <v>333</v>
+      </c>
+      <c r="F194" s="135"/>
+    </row>
+    <row r="195" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A195" s="225"/>
+      <c r="B195" s="217"/>
+      <c r="C195" s="106" t="s">
+        <v>334</v>
+      </c>
+      <c r="D195" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="106" t="s">
+        <v>335</v>
+      </c>
+      <c r="F195" s="135"/>
+    </row>
+    <row r="196" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A196" s="225"/>
+      <c r="B196" s="217"/>
+      <c r="C196" s="106" t="s">
+        <v>289</v>
+      </c>
+      <c r="D196" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" s="106" t="s">
+        <v>290</v>
+      </c>
+      <c r="F196" s="135"/>
+    </row>
+    <row r="197" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="225"/>
+      <c r="B197" s="223"/>
+      <c r="C197" s="103" t="s">
+        <v>336</v>
+      </c>
+      <c r="D197" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" s="103" t="s">
+        <v>337</v>
+      </c>
+      <c r="F197" s="222"/>
+    </row>
+    <row r="198" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A198" s="225"/>
+      <c r="B198" s="216" t="s">
+        <v>338</v>
+      </c>
+      <c r="C198" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="D198" s="105" t="s">
+        <v>95</v>
+      </c>
+      <c r="E198" s="105" t="s">
+        <v>339</v>
+      </c>
+      <c r="F198" s="134" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A199" s="225"/>
+      <c r="B199" s="217"/>
+      <c r="C199" s="106" t="s">
+        <v>341</v>
+      </c>
+      <c r="D199" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="106" t="s">
+        <v>342</v>
+      </c>
+      <c r="F199" s="135"/>
+    </row>
+    <row r="200" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A200" s="225"/>
+      <c r="B200" s="217"/>
+      <c r="C200" s="106" t="s">
+        <v>343</v>
+      </c>
+      <c r="D200" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="E200" s="106" t="s">
+        <v>344</v>
+      </c>
+      <c r="F200" s="135"/>
+    </row>
+    <row r="201" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A201" s="225"/>
+      <c r="B201" s="217"/>
+      <c r="C201" s="106" t="s">
+        <v>289</v>
+      </c>
+      <c r="D201" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" s="106" t="s">
+        <v>290</v>
+      </c>
+      <c r="F201" s="135"/>
+    </row>
+    <row r="202" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="225"/>
+      <c r="B202" s="223"/>
+      <c r="C202" s="103" t="s">
+        <v>336</v>
+      </c>
+      <c r="D202" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" s="103" t="s">
+        <v>337</v>
+      </c>
+      <c r="F202" s="222"/>
+    </row>
+    <row r="203" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A203" s="225"/>
+      <c r="B203" s="216" t="s">
+        <v>345</v>
+      </c>
+      <c r="C203" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="D203" s="105" t="s">
+        <v>95</v>
+      </c>
+      <c r="E203" s="105" t="s">
+        <v>339</v>
+      </c>
+      <c r="F203" s="134" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A204" s="225"/>
+      <c r="B204" s="217"/>
+      <c r="C204" s="111" t="s">
+        <v>347</v>
+      </c>
+      <c r="D204" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" s="106" t="s">
+        <v>348</v>
+      </c>
+      <c r="F204" s="135"/>
+    </row>
+    <row r="205" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A205" s="225"/>
+      <c r="B205" s="217"/>
+      <c r="C205" s="106" t="s">
+        <v>349</v>
+      </c>
+      <c r="D205" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" s="106" t="s">
+        <v>350</v>
+      </c>
+      <c r="F205" s="135"/>
+    </row>
+    <row r="206" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A206" s="225"/>
+      <c r="B206" s="217"/>
+      <c r="C206" s="107" t="s">
+        <v>351</v>
+      </c>
+      <c r="D206" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" s="107" t="s">
+        <v>352</v>
+      </c>
+      <c r="F206" s="135"/>
+    </row>
+    <row r="207" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="225"/>
+      <c r="B207" s="217"/>
+      <c r="C207" s="107" t="s">
+        <v>289</v>
+      </c>
+      <c r="D207" s="107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="F207" s="135"/>
+    </row>
+    <row r="208" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A208" s="225"/>
+      <c r="B208" s="143" t="s">
+        <v>353</v>
+      </c>
+      <c r="C208" s="105" t="s">
+        <v>354</v>
+      </c>
+      <c r="D208" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="E208" s="105" t="s">
+        <v>355</v>
+      </c>
+      <c r="F208" s="132" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="225"/>
+      <c r="B209" s="218"/>
+      <c r="C209" s="107" t="s">
+        <v>289</v>
+      </c>
+      <c r="D209" s="107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="F209" s="133"/>
+    </row>
+    <row r="210" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A210" s="225"/>
+      <c r="B210" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="C210" s="105" t="s">
+        <v>357</v>
+      </c>
+      <c r="D210" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="E210" s="105" t="s">
+        <v>358</v>
+      </c>
+      <c r="F210" s="132" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="225"/>
+      <c r="B211" s="218"/>
+      <c r="C211" s="107" t="s">
+        <v>289</v>
+      </c>
+      <c r="D211" s="107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="F211" s="133"/>
+    </row>
+    <row r="212" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A212" s="225"/>
+      <c r="B212" s="143" t="s">
+        <v>360</v>
+      </c>
+      <c r="C212" s="105" t="s">
+        <v>361</v>
+      </c>
+      <c r="D212" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="E212" s="105" t="s">
+        <v>362</v>
+      </c>
+      <c r="F212" s="132" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="225"/>
+      <c r="B213" s="218"/>
+      <c r="C213" s="107" t="s">
+        <v>289</v>
+      </c>
+      <c r="D213" s="107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="F213" s="133"/>
+    </row>
+    <row r="214" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A214" s="225"/>
+      <c r="B214" s="143" t="s">
+        <v>364</v>
+      </c>
+      <c r="C214" s="105" t="s">
+        <v>361</v>
+      </c>
+      <c r="D214" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="E214" s="105" t="s">
+        <v>362</v>
+      </c>
+      <c r="F214" s="132" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="225"/>
+      <c r="B215" s="218"/>
+      <c r="C215" s="107" t="s">
+        <v>289</v>
+      </c>
+      <c r="D215" s="107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="F215" s="133"/>
+    </row>
+    <row r="216" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A216" s="225"/>
+      <c r="B216" s="216" t="s">
+        <v>366</v>
+      </c>
+      <c r="C216" s="105" t="s">
+        <v>367</v>
+      </c>
+      <c r="D216" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E216" s="105" t="s">
+        <v>368</v>
+      </c>
+      <c r="F216" s="134" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A217" s="225"/>
+      <c r="B217" s="217"/>
+      <c r="C217" s="106" t="s">
+        <v>231</v>
+      </c>
+      <c r="D217" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="E217" s="106" t="s">
+        <v>302</v>
+      </c>
+      <c r="F217" s="135"/>
+    </row>
+    <row r="218" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A218" s="225"/>
+      <c r="B218" s="217"/>
+      <c r="C218" s="106" t="s">
+        <v>289</v>
+      </c>
+      <c r="D218" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" s="106" t="s">
+        <v>290</v>
+      </c>
+      <c r="F218" s="135"/>
+    </row>
+    <row r="219" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="225"/>
+      <c r="B219" s="217"/>
+      <c r="C219" s="107" t="s">
+        <v>291</v>
+      </c>
+      <c r="D219" s="107" t="s">
+        <v>292</v>
+      </c>
+      <c r="E219" s="107" t="s">
+        <v>293</v>
+      </c>
+      <c r="F219" s="135"/>
+    </row>
+    <row r="220" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A220" s="225"/>
+      <c r="B220" s="143" t="s">
+        <v>370</v>
+      </c>
+      <c r="C220" s="105" t="s">
+        <v>367</v>
+      </c>
+      <c r="D220" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E220" s="105" t="s">
+        <v>368</v>
+      </c>
+      <c r="F220" s="132" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A221" s="225"/>
+      <c r="B221" s="144"/>
+      <c r="C221" s="106" t="s">
+        <v>231</v>
+      </c>
+      <c r="D221" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="E221" s="106" t="s">
+        <v>302</v>
+      </c>
+      <c r="F221" s="136"/>
+    </row>
+    <row r="222" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A222" s="225"/>
+      <c r="B222" s="144"/>
+      <c r="C222" s="106" t="s">
+        <v>289</v>
+      </c>
+      <c r="D222" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" s="106" t="s">
+        <v>290</v>
+      </c>
+      <c r="F222" s="136"/>
+    </row>
+    <row r="223" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="225"/>
+      <c r="B223" s="145"/>
+      <c r="C223" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="D223" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="E223" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="F223" s="137"/>
+    </row>
+    <row r="224" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="225"/>
+      <c r="B224" s="123" t="s">
+        <v>372</v>
+      </c>
+      <c r="C224" s="122" t="s">
+        <v>129</v>
+      </c>
+      <c r="D224" s="122" t="s">
+        <v>95</v>
+      </c>
+      <c r="E224" s="122" t="s">
+        <v>373</v>
+      </c>
+      <c r="F224" s="124" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="225"/>
+      <c r="B225" s="143" t="s">
+        <v>375</v>
+      </c>
+      <c r="C225" s="105" t="s">
+        <v>376</v>
+      </c>
+      <c r="D225" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E225" s="105" t="s">
+        <v>377</v>
+      </c>
+      <c r="F225" s="132" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="225"/>
+      <c r="B226" s="144"/>
+      <c r="C226" s="106" t="s">
+        <v>237</v>
+      </c>
+      <c r="D226" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E226" s="106" t="s">
+        <v>379</v>
+      </c>
+      <c r="F226" s="132"/>
+    </row>
+    <row r="227" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="225"/>
+      <c r="B227" s="144"/>
+      <c r="C227" s="106" t="s">
+        <v>380</v>
+      </c>
+      <c r="D227" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E227" s="106" t="s">
+        <v>381</v>
+      </c>
+      <c r="F227" s="132"/>
+    </row>
+    <row r="228" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="225"/>
+      <c r="B228" s="144"/>
+      <c r="C228" s="106" t="s">
+        <v>382</v>
+      </c>
+      <c r="D228" s="106" t="s">
+        <v>383</v>
+      </c>
+      <c r="E228" s="106" t="s">
+        <v>384</v>
+      </c>
+      <c r="F228" s="132"/>
+    </row>
+    <row r="229" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="225"/>
+      <c r="B229" s="145"/>
+      <c r="C229" s="103" t="s">
+        <v>385</v>
+      </c>
+      <c r="D229" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="E229" s="103" t="s">
+        <v>386</v>
+      </c>
+      <c r="F229" s="132"/>
+    </row>
+    <row r="230" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A230" s="225"/>
+      <c r="B230" s="219" t="s">
+        <v>387</v>
+      </c>
+      <c r="C230" s="125" t="s">
+        <v>129</v>
+      </c>
+      <c r="D230" s="105" t="s">
+        <v>95</v>
+      </c>
+      <c r="E230" s="126" t="s">
+        <v>388</v>
+      </c>
+      <c r="F230" s="138" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A231" s="225"/>
+      <c r="B231" s="220"/>
+      <c r="C231" s="112" t="s">
+        <v>390</v>
+      </c>
+      <c r="D231" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" s="112" t="s">
+        <v>391</v>
+      </c>
+      <c r="F231" s="139"/>
+    </row>
+    <row r="232" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A232" s="225"/>
+      <c r="B232" s="220"/>
+      <c r="C232" s="112" t="s">
+        <v>392</v>
+      </c>
+      <c r="D232" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E232" s="112" t="s">
+        <v>393</v>
+      </c>
+      <c r="F232" s="139"/>
+    </row>
+    <row r="233" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A233" s="225"/>
+      <c r="B233" s="220"/>
+      <c r="C233" s="112" t="s">
+        <v>394</v>
+      </c>
+      <c r="D233" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233" s="112" t="s">
+        <v>395</v>
+      </c>
+      <c r="F233" s="139"/>
+    </row>
+    <row r="234" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A234" s="225"/>
+      <c r="B234" s="220"/>
+      <c r="C234" s="112" t="s">
+        <v>351</v>
+      </c>
+      <c r="D234" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E234" s="106" t="s">
+        <v>352</v>
+      </c>
+      <c r="F234" s="139"/>
+    </row>
+    <row r="235" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="225"/>
+      <c r="B235" s="221"/>
+      <c r="C235" s="103" t="s">
+        <v>289</v>
+      </c>
+      <c r="D235" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" s="103" t="s">
+        <v>290</v>
+      </c>
+      <c r="F235" s="140"/>
+    </row>
+    <row r="236" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A236" s="225"/>
+      <c r="B236" s="219" t="s">
+        <v>396</v>
+      </c>
+      <c r="C236" s="126" t="s">
+        <v>289</v>
+      </c>
+      <c r="D236" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" s="128" t="s">
+        <v>397</v>
+      </c>
+      <c r="F236" s="140" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="226"/>
+      <c r="B237" s="221"/>
+      <c r="C237" s="103" t="s">
+        <v>336</v>
+      </c>
+      <c r="D237" s="129" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" s="130" t="s">
+        <v>399</v>
+      </c>
+      <c r="F237" s="141"/>
+    </row>
+    <row r="238" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="226"/>
+      <c r="B238" s="219" t="s">
+        <v>165</v>
+      </c>
+      <c r="C238" s="126" t="s">
+        <v>19</v>
+      </c>
+      <c r="D238" s="126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238" s="126" t="s">
+        <v>397</v>
+      </c>
+      <c r="F238" s="142" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="226"/>
+      <c r="B239" s="221"/>
+      <c r="C239" s="103" t="s">
+        <v>336</v>
+      </c>
+      <c r="D239" s="131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E239" s="103" t="s">
+        <v>399</v>
+      </c>
+      <c r="F239" s="141"/>
+    </row>
+    <row r="240" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="213" t="s">
+        <v>401</v>
+      </c>
+      <c r="B240" s="214"/>
+      <c r="C240" s="214"/>
+      <c r="D240" s="214"/>
+      <c r="E240" s="214"/>
+      <c r="F240" s="215"/>
+    </row>
+    <row r="241" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A241" s="100"/>
+      <c r="B241" s="100"/>
+      <c r="C241" s="100"/>
+      <c r="D241" s="100"/>
+      <c r="E241" s="100"/>
+      <c r="F241" s="100"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="117">
+    <mergeCell ref="F212:F213"/>
+    <mergeCell ref="F208:F209"/>
     <mergeCell ref="A143:B144"/>
     <mergeCell ref="F143:F144"/>
     <mergeCell ref="A137:B137"/>
@@ -4776,18 +6875,16 @@
     <mergeCell ref="A139:B139"/>
     <mergeCell ref="A140:B142"/>
     <mergeCell ref="F140:F142"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="F189:F192"/>
     <mergeCell ref="A132:B132"/>
     <mergeCell ref="A133:B133"/>
     <mergeCell ref="A134:B134"/>
     <mergeCell ref="A135:B135"/>
     <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A125:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A130:B131"/>
-    <mergeCell ref="F125:F127"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="A111:F112"/>
+    <mergeCell ref="F193:F197"/>
+    <mergeCell ref="F198:F202"/>
+    <mergeCell ref="F203:F207"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A58:B61"/>
@@ -4801,30 +6898,54 @@
     <mergeCell ref="F77:F81"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="F83:F84"/>
+    <mergeCell ref="A240:F240"/>
+    <mergeCell ref="B203:B207"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="B220:B223"/>
+    <mergeCell ref="B225:B229"/>
+    <mergeCell ref="B230:B235"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="A151:A239"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="F157:F160"/>
+    <mergeCell ref="F161:F164"/>
+    <mergeCell ref="B170:B174"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A5:B10"/>
+    <mergeCell ref="F5:F10"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="A29:B31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="A32:B35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B43"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="F49:F50"/>
     <mergeCell ref="A51:B52"/>
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="A53:B55"/>
     <mergeCell ref="F53:F55"/>
     <mergeCell ref="A93:B110"/>
     <mergeCell ref="F93:F110"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B43"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="A29:B31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="A32:B35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A5:B10"/>
-    <mergeCell ref="F5:F10"/>
-    <mergeCell ref="A113:B123"/>
-    <mergeCell ref="F113:F123"/>
-    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A111:F112"/>
     <mergeCell ref="A11:B15"/>
     <mergeCell ref="F11:F15"/>
     <mergeCell ref="A16:B17"/>
@@ -4838,6 +6959,30 @@
     <mergeCell ref="A23:B24"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="A25:B28"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="F216:F219"/>
+    <mergeCell ref="F220:F223"/>
+    <mergeCell ref="F225:F229"/>
+    <mergeCell ref="F230:F235"/>
+    <mergeCell ref="F236:F237"/>
+    <mergeCell ref="F238:F239"/>
+    <mergeCell ref="B189:B192"/>
+    <mergeCell ref="A113:B123"/>
+    <mergeCell ref="F113:F123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="F165:F169"/>
+    <mergeCell ref="F170:F174"/>
+    <mergeCell ref="F175:F178"/>
+    <mergeCell ref="F179:F182"/>
+    <mergeCell ref="B193:B197"/>
+    <mergeCell ref="B198:B202"/>
+    <mergeCell ref="A125:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B131"/>
+    <mergeCell ref="F125:F127"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="F183:F188"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C34">

--- a/api list.xlsx
+++ b/api list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4305" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="4905" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="523">
   <si>
     <t>精灵类</t>
   </si>
@@ -1471,6 +1471,716 @@
   </si>
   <si>
     <t>注：如果不在queue或者parallel中，每个动作必须有target。如果在queue或者parallel中，没有target的动作将作用于end时声明的target；有target的动作将由该target执行，queue或者parallel仍然有效（如果是queue的话，会衷心地等待该target执行完该动作才继续执行下一个动作）</t>
+  </si>
+  <si>
+    <t>渐变类</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>pretrans</t>
+  </si>
+  <si>
+    <t>index=basic_layer</t>
+  </si>
+  <si>
+    <t>指定哪个sp准备渐变，缺省的话认为是basic_layer</t>
+  </si>
+  <si>
+    <t>指定sp准备渐变</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>crossfade</t>
+  </si>
+  <si>
+    <t>渐变的时间</t>
+  </si>
+  <si>
+    <t>指定哪个sp开始渐变，缺省的话认为是basic_layer</t>
+  </si>
+  <si>
+    <t>universal</t>
+  </si>
+  <si>
+    <t>*rule</t>
+  </si>
+  <si>
+    <t>渐变所需的蒙板图像</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>time</t>
+    </r>
+  </si>
+  <si>
+    <t>vague=64</t>
+  </si>
+  <si>
+    <t>vague值，越大边缘越不模糊，大于或等于0的整数，默认64</t>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <t>卷动变换。"nostay"为新图像将旧图像挤出，"stayfore"为旧图像逐渐向另一方向抽出，"stayback"为旧图像保持在底部，新图像逐渐移入</t>
+  </si>
+  <si>
+    <t>from="left"</t>
+  </si>
+  <si>
+    <t>指定新的图像丛哪边开始出现，可选值"left","right","top","bottom"</t>
+  </si>
+  <si>
+    <t>stay="nostay"</t>
+  </si>
+  <si>
+    <t>指定旧图像与新图像的层次关系，可选值"nostay", "stayfore", "stayback"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hutter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>百叶窗渐变，横向时num默认值为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16，纵向时num默认值为12</t>
+    </r>
+  </si>
+  <si>
+    <t>num=16</t>
+  </si>
+  <si>
+    <t>指定百叶窗的个数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ipple</t>
+    </r>
+  </si>
+  <si>
+    <t>若center的数值为负，则那个方向的值使用中心位置。即只想设定center一个方向的值，另一个方向保持在中心位置的话，则对应的数值设为负数即可。
+speed为负时，表示波纹向内收缩。</t>
+  </si>
+  <si>
+    <t>center=[-1, -1]</t>
+  </si>
+  <si>
+    <t>波纹的中心点，默认在图片的中心</t>
+  </si>
+  <si>
+    <t>speed=6</t>
+  </si>
+  <si>
+    <t>波纹扩张的速度</t>
+  </si>
+  <si>
+    <t>rwidth=128</t>
+  </si>
+  <si>
+    <t>波纹的间隔</t>
+  </si>
+  <si>
+    <t>maxdrift=24</t>
+  </si>
+  <si>
+    <t>波纹波动的程度</t>
+  </si>
+  <si>
+    <t>roundness=100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>波纹的椭圆程度，默认1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00为圆形</t>
+    </r>
+  </si>
+  <si>
+    <t>rotateswap</t>
+  </si>
+  <si>
+    <t>bgcolor=#000000</t>
+  </si>
+  <si>
+    <t>渐变时的背景颜色</t>
+  </si>
+  <si>
+    <t>twist=1.0</t>
+  </si>
+  <si>
+    <t>实数型 real_t</t>
+  </si>
+  <si>
+    <t>旋转的速度</t>
+  </si>
+  <si>
+    <t>rotatevanish</t>
+  </si>
+  <si>
+    <t>若center的数值为负，则那个方向的值使用中心位置。即只想设定center一个方向的值，另一个方向保持在中心位置的话，则对应的数值设为负数即可。</t>
+  </si>
+  <si>
+    <t>旋转的中心，默认在图片的中心</t>
+  </si>
+  <si>
+    <t>accel=2.0</t>
+  </si>
+  <si>
+    <t>缩小的加速度</t>
+  </si>
+  <si>
+    <t>twist=2.0</t>
+  </si>
+  <si>
+    <t>twistaccel=2.0</t>
+  </si>
+  <si>
+    <t>旋转的加速度</t>
+  </si>
+  <si>
+    <t>rotatezoom</t>
+  </si>
+  <si>
+    <t>accel=0.0</t>
+  </si>
+  <si>
+    <t>twistaccel=-2.0</t>
+  </si>
+  <si>
+    <t>factor=1.0</t>
+  </si>
+  <si>
+    <t>目标画面的起始缩放倍数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ave</t>
+    </r>
+  </si>
+  <si>
+    <t>边缘处的背景颜色是从bgcolor1渐变到bgcolor2
+波纹演变的方式为0是正弦，1和2是一次函数，2的渐变方向和1相反</t>
+  </si>
+  <si>
+    <t>maxh=50</t>
+  </si>
+  <si>
+    <t>波纹左右波动的距离</t>
+  </si>
+  <si>
+    <t>maxomega=0.2</t>
+  </si>
+  <si>
+    <t>波纹的密集程度</t>
+  </si>
+  <si>
+    <t>bgcolor1=#000000</t>
+  </si>
+  <si>
+    <t>边缘处的背景颜色1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gcolor2=#000000</t>
+    </r>
+  </si>
+  <si>
+    <t>边缘处的背景颜色2</t>
+  </si>
+  <si>
+    <t>wavetype=0</t>
+  </si>
+  <si>
+    <t>波纹演变的方式（取值为0,1,2，其余值都被当做0）</t>
+  </si>
+  <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>gridsize=64</t>
+  </si>
+  <si>
+    <t>网格的大小，默认64</t>
+  </si>
+  <si>
+    <t>效果类</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elete</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>target</t>
+    </r>
+  </si>
+  <si>
+    <t>目标sp的编号</t>
+  </si>
+  <si>
+    <t>删除目标sp上的特定效果。name和index为二选一的选项。如果使用name，那么所有同名的效果都被移出，如果使用index，则指定次序的效果被移除。效果的次序为默认递增1，即最先加的effect的次序为0，下一个为1，以此类推。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ame=""</t>
+    </r>
+  </si>
+  <si>
+    <t>要删除的效果名称</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ndex=-1</t>
+    </r>
+  </si>
+  <si>
+    <t>要删除的效果的序号</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lear</t>
+    </r>
+  </si>
+  <si>
+    <t>清空目标sp上的所有效果</t>
+  </si>
+  <si>
+    <t>scissor</t>
+  </si>
+  <si>
+    <t>对于非图片精灵，该效果使得该精灵会裁剪子精灵超出自身范围的区域。对图片精灵则无任何效果</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ono</t>
+    </r>
+  </si>
+  <si>
+    <t>使目标sp褪色到指定颜色</t>
+  </si>
+  <si>
+    <t>mono</t>
+  </si>
+  <si>
+    <t>褪色的目标颜色</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>使目标sp灰度化</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>给目标sp加遮罩。mask和masksp为二选一的选项。如果使用mask，则提供一个遮罩图片文件名，如果使用masksp，则用指定的精灵作为遮罩。mask精灵的大小位置旋转将被忽略，缩放匹配目标sp。</t>
+  </si>
+  <si>
+    <t>遮罩图片名</t>
+  </si>
+  <si>
+    <t>masksp</t>
+  </si>
+  <si>
+    <t>遮罩sp的编号</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>指定一个精灵或图片，和目标精灵的混合方式为简单的颜色叠加，而非普通的透明度叠加。mask和masksp为二选一的选项。含义同上。
+mask的alpha通道会被忽略。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tretch=false</t>
+    </r>
+  </si>
+  <si>
+    <t>是否忽略mask精灵的位置大小旋转而强制拉伸到匹配目标精灵的范围</t>
+  </si>
+  <si>
+    <t>stencil</t>
+  </si>
+  <si>
+    <t>给目标sp加蒙版。蒙版精灵的位置为相对目标精灵的位置，对于蒙版精灵不透明的区域，目标精灵将在这些区域成为透明（被镂空），而目标精灵其他区域不受影响。</t>
+  </si>
+  <si>
+    <t>rule</t>
+  </si>
+  <si>
+    <t>蒙版sp的编号</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>调整目标sp的gamma（伽马）值。</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amma值的下界的颜色</t>
+    </r>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amma值的上界的颜色</t>
+    </r>
+  </si>
+  <si>
+    <t>invert</t>
+  </si>
+  <si>
+    <t>使目标sp反色。</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>调整目标sp的亮度与对比度。</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100到100之间，亮度值</t>
+    </r>
+  </si>
+  <si>
+    <t>contrast</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100到100之间，对比度值</t>
+    </r>
+  </si>
+  <si>
+    <t>multiply</t>
+  </si>
+  <si>
+    <t>指定一个精灵或图片，和目标精灵的混合方式为正片叠底，而非普通的透明度叠加。mask和masksp为二选一的选项。含义同上。
+mask的alpha通道会被用于原图片和正片叠底后图片的alpha混合。
+正片叠底不改变原图片的透明度。</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +2259,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1580,8 +2290,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -2166,6 +2882,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2173,7 +2900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="394">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2508,9 +3235,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2547,9 +3271,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2574,22 +3295,388 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2599,36 +3686,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2640,276 +3697,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2952,79 +3739,346 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3032,7 +4086,14 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color indexed="10"/>
@@ -3388,10 +4449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:F322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F175" sqref="F175:F178"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C329" sqref="C329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3403,10 +4464,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="190"/>
+      <c r="B1" s="199"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3421,10 +4482,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="192"/>
+      <c r="B2" s="201"/>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3434,13 +4495,13 @@
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="194" t="s">
+      <c r="F2" s="203" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="192"/>
-      <c r="B3" s="192"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="201"/>
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
@@ -3450,11 +4511,11 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="195"/>
+      <c r="F3" s="204"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="193"/>
-      <c r="B4" s="193"/>
+      <c r="A4" s="202"/>
+      <c r="B4" s="202"/>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
@@ -3464,13 +4525,13 @@
       <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="195"/>
+      <c r="F4" s="204"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="168" t="s">
+      <c r="A5" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="169"/>
+      <c r="B5" s="206"/>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
@@ -3480,13 +4541,13 @@
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="196" t="s">
+      <c r="F5" s="211" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="158"/>
-      <c r="B6" s="159"/>
+      <c r="A6" s="207"/>
+      <c r="B6" s="208"/>
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
@@ -3496,11 +4557,11 @@
       <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="196"/>
+      <c r="F6" s="211"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="158"/>
-      <c r="B7" s="159"/>
+      <c r="A7" s="207"/>
+      <c r="B7" s="208"/>
       <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
@@ -3510,11 +4571,11 @@
       <c r="E7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="196"/>
+      <c r="F7" s="211"/>
     </row>
     <row r="8" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="158"/>
-      <c r="B8" s="159"/>
+      <c r="A8" s="207"/>
+      <c r="B8" s="208"/>
       <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
@@ -3524,11 +4585,11 @@
       <c r="E8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="196"/>
+      <c r="F8" s="211"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="158"/>
-      <c r="B9" s="159"/>
+      <c r="A9" s="207"/>
+      <c r="B9" s="208"/>
       <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
@@ -3538,11 +4599,11 @@
       <c r="E9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="196"/>
+      <c r="F9" s="211"/>
     </row>
     <row r="10" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="160"/>
-      <c r="B10" s="161"/>
+      <c r="A10" s="209"/>
+      <c r="B10" s="210"/>
       <c r="C10" s="20" t="s">
         <v>29</v>
       </c>
@@ -3552,13 +4613,13 @@
       <c r="E10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="196"/>
+      <c r="F10" s="211"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="156" t="s">
+      <c r="A11" s="249" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="157"/>
+      <c r="B11" s="250"/>
       <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
@@ -3568,13 +4629,13 @@
       <c r="E11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="162" t="s">
+      <c r="F11" s="251" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="158"/>
-      <c r="B12" s="159"/>
+      <c r="A12" s="207"/>
+      <c r="B12" s="208"/>
       <c r="C12" s="9" t="s">
         <v>34</v>
       </c>
@@ -3584,11 +4645,11 @@
       <c r="E12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="163"/>
+      <c r="F12" s="214"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="158"/>
-      <c r="B13" s="159"/>
+      <c r="A13" s="207"/>
+      <c r="B13" s="208"/>
       <c r="C13" s="9" t="s">
         <v>36</v>
       </c>
@@ -3598,11 +4659,11 @@
       <c r="E13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="163"/>
+      <c r="F13" s="214"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="158"/>
-      <c r="B14" s="159"/>
+      <c r="A14" s="207"/>
+      <c r="B14" s="208"/>
       <c r="C14" s="9" t="s">
         <v>38</v>
       </c>
@@ -3612,11 +4673,11 @@
       <c r="E14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="163"/>
+      <c r="F14" s="214"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="160"/>
-      <c r="B15" s="161"/>
+      <c r="A15" s="209"/>
+      <c r="B15" s="210"/>
       <c r="C15" s="11" t="s">
         <v>41</v>
       </c>
@@ -3626,13 +4687,13 @@
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="164"/>
+      <c r="F15" s="252"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="165" t="s">
+      <c r="A16" s="253" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="166"/>
+      <c r="B16" s="254"/>
       <c r="C16" s="10" t="s">
         <v>6</v>
       </c>
@@ -3642,13 +4703,13 @@
       <c r="E16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="167" t="s">
+      <c r="F16" s="255" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="165"/>
-      <c r="B17" s="166"/>
+      <c r="A17" s="253"/>
+      <c r="B17" s="254"/>
       <c r="C17" s="13" t="s">
         <v>46</v>
       </c>
@@ -3658,13 +4719,13 @@
       <c r="E17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="167"/>
+      <c r="F17" s="255"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="168" t="s">
+      <c r="A18" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="169"/>
+      <c r="B18" s="206"/>
       <c r="C18" s="7" t="s">
         <v>6</v>
       </c>
@@ -3674,13 +4735,13 @@
       <c r="E18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="170" t="s">
+      <c r="F18" s="256" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="158"/>
-      <c r="B19" s="159"/>
+      <c r="A19" s="207"/>
+      <c r="B19" s="208"/>
       <c r="C19" s="8" t="s">
         <v>46</v>
       </c>
@@ -3690,11 +4751,11 @@
       <c r="E19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="162"/>
+      <c r="F19" s="251"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="160"/>
-      <c r="B20" s="161"/>
+      <c r="A20" s="209"/>
+      <c r="B20" s="210"/>
       <c r="C20" s="15" t="s">
         <v>50</v>
       </c>
@@ -3704,13 +4765,13 @@
       <c r="E20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="164"/>
+      <c r="F20" s="252"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="171" t="s">
+      <c r="A21" s="227" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="172"/>
+      <c r="B21" s="228"/>
       <c r="C21" s="21" t="s">
         <v>10</v>
       </c>
@@ -3720,13 +4781,13 @@
       <c r="E21" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="173" t="s">
+      <c r="F21" s="257" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="171"/>
-      <c r="B22" s="172"/>
+      <c r="A22" s="227"/>
+      <c r="B22" s="228"/>
       <c r="C22" s="22" t="s">
         <v>55</v>
       </c>
@@ -3736,13 +4797,13 @@
       <c r="E22" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="174"/>
+      <c r="F22" s="223"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="184" t="s">
+      <c r="A23" s="225" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="185"/>
+      <c r="B23" s="226"/>
       <c r="C23" s="23" t="s">
         <v>6</v>
       </c>
@@ -3752,13 +4813,13 @@
       <c r="E23" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="186" t="s">
+      <c r="F23" s="222" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="171"/>
-      <c r="B24" s="172"/>
+      <c r="A24" s="227"/>
+      <c r="B24" s="228"/>
       <c r="C24" s="22" t="s">
         <v>55</v>
       </c>
@@ -3768,13 +4829,13 @@
       <c r="E24" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="174"/>
+      <c r="F24" s="223"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="168" t="s">
+      <c r="A25" s="205" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="169"/>
+      <c r="B25" s="206"/>
       <c r="C25" s="16" t="s">
         <v>6</v>
       </c>
@@ -3784,13 +4845,13 @@
       <c r="E25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="198" t="s">
+      <c r="F25" s="213" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="158"/>
-      <c r="B26" s="159"/>
+      <c r="A26" s="207"/>
+      <c r="B26" s="208"/>
       <c r="C26" s="24" t="s">
         <v>64</v>
       </c>
@@ -3800,11 +4861,11 @@
       <c r="E26" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="163"/>
+      <c r="F26" s="214"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="158"/>
-      <c r="B27" s="159"/>
+      <c r="A27" s="207"/>
+      <c r="B27" s="208"/>
       <c r="C27" s="17" t="s">
         <v>67</v>
       </c>
@@ -3814,11 +4875,11 @@
       <c r="E27" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="163"/>
+      <c r="F27" s="214"/>
     </row>
     <row r="28" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="187"/>
-      <c r="B28" s="188"/>
+      <c r="A28" s="258"/>
+      <c r="B28" s="259"/>
       <c r="C28" s="18" t="s">
         <v>69</v>
       </c>
@@ -3828,13 +4889,13 @@
       <c r="E28" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="199"/>
+      <c r="F28" s="215"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="200" t="s">
+      <c r="A29" s="216" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="201"/>
+      <c r="B29" s="217"/>
       <c r="C29" s="25" t="s">
         <v>6</v>
       </c>
@@ -3844,13 +4905,13 @@
       <c r="E29" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="186" t="s">
+      <c r="F29" s="222" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="202"/>
-      <c r="B30" s="203"/>
+      <c r="A30" s="218"/>
+      <c r="B30" s="219"/>
       <c r="C30" s="24" t="s">
         <v>64</v>
       </c>
@@ -3860,11 +4921,11 @@
       <c r="E30" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="174"/>
+      <c r="F30" s="223"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="204"/>
-      <c r="B31" s="205"/>
+      <c r="A31" s="220"/>
+      <c r="B31" s="221"/>
       <c r="C31" s="26" t="s">
         <v>67</v>
       </c>
@@ -3874,13 +4935,13 @@
       <c r="E31" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="206"/>
+      <c r="F31" s="224"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="184" t="s">
+      <c r="A32" s="225" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="185"/>
+      <c r="B32" s="226"/>
       <c r="C32" s="25" t="s">
         <v>6</v>
       </c>
@@ -3890,13 +4951,13 @@
       <c r="E32" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="209" t="s">
+      <c r="F32" s="231" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="171"/>
-      <c r="B33" s="172"/>
+      <c r="A33" s="227"/>
+      <c r="B33" s="228"/>
       <c r="C33" s="24" t="s">
         <v>79</v>
       </c>
@@ -3906,11 +4967,11 @@
       <c r="E33" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="210"/>
+      <c r="F33" s="232"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="171"/>
-      <c r="B34" s="172"/>
+      <c r="A34" s="227"/>
+      <c r="B34" s="228"/>
       <c r="C34" s="28" t="s">
         <v>81</v>
       </c>
@@ -3920,11 +4981,11 @@
       <c r="E34" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="211"/>
+      <c r="F34" s="233"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="207"/>
-      <c r="B35" s="208"/>
+      <c r="A35" s="229"/>
+      <c r="B35" s="230"/>
       <c r="C35" s="29" t="s">
         <v>83</v>
       </c>
@@ -3934,14 +4995,14 @@
       <c r="E35" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="212"/>
+      <c r="F35" s="234"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="227" t="s">
+      <c r="A38" s="235" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="190"/>
+      <c r="B38" s="199"/>
       <c r="C38" s="1" t="s">
         <v>1</v>
       </c>
@@ -3956,10 +5017,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="175" t="s">
+      <c r="A39" s="236" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="176"/>
+      <c r="B39" s="237"/>
       <c r="C39" s="30" t="s">
         <v>10</v>
       </c>
@@ -3969,13 +5030,13 @@
       <c r="E39" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="181" t="s">
+      <c r="F39" s="172" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="177"/>
-      <c r="B40" s="178"/>
+      <c r="A40" s="238"/>
+      <c r="B40" s="239"/>
       <c r="C40" s="31" t="s">
         <v>89</v>
       </c>
@@ -3985,11 +5046,11 @@
       <c r="E40" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="182"/>
+      <c r="F40" s="173"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="177"/>
-      <c r="B41" s="178"/>
+      <c r="A41" s="238"/>
+      <c r="B41" s="239"/>
       <c r="C41" s="31" t="s">
         <v>91</v>
       </c>
@@ -3999,11 +5060,11 @@
       <c r="E41" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="182"/>
+      <c r="F41" s="173"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="177"/>
-      <c r="B42" s="178"/>
+      <c r="A42" s="238"/>
+      <c r="B42" s="239"/>
       <c r="C42" s="31" t="s">
         <v>94</v>
       </c>
@@ -4013,11 +5074,11 @@
       <c r="E42" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="182"/>
+      <c r="F42" s="173"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="179"/>
-      <c r="B43" s="180"/>
+      <c r="A43" s="240"/>
+      <c r="B43" s="241"/>
       <c r="C43" s="20" t="s">
         <v>97</v>
       </c>
@@ -4027,13 +5088,13 @@
       <c r="E43" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="F43" s="183"/>
+      <c r="F43" s="174"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="175" t="s">
+      <c r="A44" s="236" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="176"/>
+      <c r="B44" s="237"/>
       <c r="C44" s="30" t="s">
         <v>10</v>
       </c>
@@ -4043,13 +5104,13 @@
       <c r="E44" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="181" t="s">
+      <c r="F44" s="172" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="177"/>
-      <c r="B45" s="178"/>
+      <c r="A45" s="238"/>
+      <c r="B45" s="239"/>
       <c r="C45" s="32" t="s">
         <v>102</v>
       </c>
@@ -4059,11 +5120,11 @@
       <c r="E45" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="182"/>
+      <c r="F45" s="173"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="177"/>
-      <c r="B46" s="178"/>
+      <c r="A46" s="238"/>
+      <c r="B46" s="239"/>
       <c r="C46" s="31" t="s">
         <v>104</v>
       </c>
@@ -4073,11 +5134,11 @@
       <c r="E46" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="182"/>
+      <c r="F46" s="173"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="177"/>
-      <c r="B47" s="178"/>
+      <c r="A47" s="238"/>
+      <c r="B47" s="239"/>
       <c r="C47" s="31" t="s">
         <v>91</v>
       </c>
@@ -4087,11 +5148,11 @@
       <c r="E47" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F47" s="182"/>
+      <c r="F47" s="173"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="179"/>
-      <c r="B48" s="180"/>
+      <c r="A48" s="240"/>
+      <c r="B48" s="241"/>
       <c r="C48" s="33" t="s">
         <v>94</v>
       </c>
@@ -4101,13 +5162,13 @@
       <c r="E48" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="F48" s="183"/>
+      <c r="F48" s="174"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="175" t="s">
+      <c r="A49" s="236" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="176"/>
+      <c r="B49" s="237"/>
       <c r="C49" s="30" t="s">
         <v>10</v>
       </c>
@@ -4117,13 +5178,13 @@
       <c r="E49" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="181" t="s">
+      <c r="F49" s="172" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="179"/>
-      <c r="B50" s="180"/>
+      <c r="A50" s="240"/>
+      <c r="B50" s="241"/>
       <c r="C50" s="33" t="s">
         <v>91</v>
       </c>
@@ -4133,13 +5194,13 @@
       <c r="E50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F50" s="183"/>
+      <c r="F50" s="174"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="175" t="s">
+      <c r="A51" s="236" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="176"/>
+      <c r="B51" s="237"/>
       <c r="C51" s="30" t="s">
         <v>109</v>
       </c>
@@ -4149,13 +5210,13 @@
       <c r="E51" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="181" t="s">
+      <c r="F51" s="172" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="179"/>
-      <c r="B52" s="180"/>
+      <c r="A52" s="240"/>
+      <c r="B52" s="241"/>
       <c r="C52" s="11" t="s">
         <v>112</v>
       </c>
@@ -4165,13 +5226,13 @@
       <c r="E52" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F52" s="183"/>
+      <c r="F52" s="174"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="175" t="s">
+      <c r="A53" s="236" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="176"/>
+      <c r="B53" s="237"/>
       <c r="C53" s="30" t="s">
         <v>115</v>
       </c>
@@ -4181,13 +5242,13 @@
       <c r="E53" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="F53" s="181" t="s">
+      <c r="F53" s="172" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="177"/>
-      <c r="B54" s="178"/>
+      <c r="A54" s="238"/>
+      <c r="B54" s="239"/>
       <c r="C54" s="22" t="s">
         <v>67</v>
       </c>
@@ -4197,11 +5258,11 @@
       <c r="E54" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F54" s="182"/>
+      <c r="F54" s="173"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="179"/>
-      <c r="B55" s="180"/>
+      <c r="A55" s="240"/>
+      <c r="B55" s="241"/>
       <c r="C55" s="33" t="s">
         <v>64</v>
       </c>
@@ -4211,13 +5272,13 @@
       <c r="E55" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F55" s="183"/>
+      <c r="F55" s="174"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="229" t="s">
+      <c r="A56" s="164" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="230"/>
+      <c r="B56" s="165"/>
       <c r="C56" s="34" t="s">
         <v>115</v>
       </c>
@@ -4232,10 +5293,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="229" t="s">
+      <c r="A57" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="230"/>
+      <c r="B57" s="165"/>
       <c r="C57" s="1" t="s">
         <v>115</v>
       </c>
@@ -4250,10 +5311,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="231" t="s">
+      <c r="A58" s="166" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="232"/>
+      <c r="B58" s="167"/>
       <c r="C58" s="30" t="s">
         <v>115</v>
       </c>
@@ -4263,13 +5324,13 @@
       <c r="E58" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="F58" s="181" t="s">
+      <c r="F58" s="172" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="233"/>
-      <c r="B59" s="234"/>
+      <c r="A59" s="168"/>
+      <c r="B59" s="169"/>
       <c r="C59" s="31" t="s">
         <v>129</v>
       </c>
@@ -4279,11 +5340,11 @@
       <c r="E59" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="F59" s="182"/>
+      <c r="F59" s="173"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="233"/>
-      <c r="B60" s="234"/>
+      <c r="A60" s="168"/>
+      <c r="B60" s="169"/>
       <c r="C60" s="31" t="s">
         <v>131</v>
       </c>
@@ -4293,11 +5354,11 @@
       <c r="E60" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="F60" s="182"/>
+      <c r="F60" s="173"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="235"/>
-      <c r="B61" s="236"/>
+      <c r="A61" s="170"/>
+      <c r="B61" s="171"/>
       <c r="C61" s="11" t="s">
         <v>133</v>
       </c>
@@ -4307,7 +5368,7 @@
       <c r="E61" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F61" s="183"/>
+      <c r="F61" s="174"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4331,10 +5392,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="237" t="s">
+      <c r="A65" s="175" t="s">
         <v>137</v>
       </c>
-      <c r="B65" s="240" t="s">
+      <c r="B65" s="178" t="s">
         <v>138</v>
       </c>
       <c r="C65" s="16" t="s">
@@ -4346,13 +5407,13 @@
       <c r="E65" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F65" s="243" t="s">
+      <c r="F65" s="181" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="238"/>
-      <c r="B66" s="241"/>
+      <c r="A66" s="176"/>
+      <c r="B66" s="179"/>
       <c r="C66" s="44" t="s">
         <v>10</v>
       </c>
@@ -4362,11 +5423,11 @@
       <c r="E66" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="F66" s="244"/>
+      <c r="F66" s="182"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="238"/>
-      <c r="B67" s="241"/>
+      <c r="A67" s="176"/>
+      <c r="B67" s="179"/>
       <c r="C67" s="44" t="s">
         <v>143</v>
       </c>
@@ -4376,11 +5437,11 @@
       <c r="E67" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="F67" s="244"/>
+      <c r="F67" s="182"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="238"/>
-      <c r="B68" s="241"/>
+      <c r="A68" s="176"/>
+      <c r="B68" s="179"/>
       <c r="C68" s="44" t="s">
         <v>145</v>
       </c>
@@ -4390,11 +5451,11 @@
       <c r="E68" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="F68" s="244"/>
+      <c r="F68" s="182"/>
     </row>
     <row r="69" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A69" s="238"/>
-      <c r="B69" s="241"/>
+      <c r="A69" s="176"/>
+      <c r="B69" s="179"/>
       <c r="C69" s="45" t="s">
         <v>147</v>
       </c>
@@ -4404,11 +5465,11 @@
       <c r="E69" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F69" s="244"/>
+      <c r="F69" s="182"/>
     </row>
     <row r="70" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="238"/>
-      <c r="B70" s="242"/>
+      <c r="A70" s="176"/>
+      <c r="B70" s="180"/>
       <c r="C70" s="46" t="s">
         <v>150</v>
       </c>
@@ -4418,11 +5479,11 @@
       <c r="E70" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="F70" s="245"/>
+      <c r="F70" s="183"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="238"/>
-      <c r="B71" s="240" t="s">
+      <c r="A71" s="176"/>
+      <c r="B71" s="178" t="s">
         <v>153</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -4434,13 +5495,13 @@
       <c r="E71" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F71" s="243" t="s">
+      <c r="F71" s="181" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="238"/>
-      <c r="B72" s="241"/>
+      <c r="A72" s="176"/>
+      <c r="B72" s="179"/>
       <c r="C72" s="44" t="s">
         <v>10</v>
       </c>
@@ -4450,11 +5511,11 @@
       <c r="E72" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="F72" s="244"/>
+      <c r="F72" s="182"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="238"/>
-      <c r="B73" s="241"/>
+      <c r="A73" s="176"/>
+      <c r="B73" s="179"/>
       <c r="C73" s="44" t="s">
         <v>143</v>
       </c>
@@ -4464,11 +5525,11 @@
       <c r="E73" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="F73" s="244"/>
+      <c r="F73" s="182"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="238"/>
-      <c r="B74" s="241"/>
+      <c r="A74" s="176"/>
+      <c r="B74" s="179"/>
       <c r="C74" s="44" t="s">
         <v>156</v>
       </c>
@@ -4478,11 +5539,11 @@
       <c r="E74" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="244"/>
+      <c r="F74" s="182"/>
     </row>
     <row r="75" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A75" s="238"/>
-      <c r="B75" s="241"/>
+      <c r="A75" s="176"/>
+      <c r="B75" s="179"/>
       <c r="C75" s="45" t="s">
         <v>147</v>
       </c>
@@ -4492,11 +5553,11 @@
       <c r="E75" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F75" s="244"/>
+      <c r="F75" s="182"/>
     </row>
     <row r="76" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="238"/>
-      <c r="B76" s="242"/>
+      <c r="A76" s="176"/>
+      <c r="B76" s="180"/>
       <c r="C76" s="47" t="s">
         <v>150</v>
       </c>
@@ -4506,11 +5567,11 @@
       <c r="E76" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="F76" s="245"/>
+      <c r="F76" s="183"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" s="238"/>
-      <c r="B77" s="240" t="s">
+      <c r="A77" s="176"/>
+      <c r="B77" s="178" t="s">
         <v>158</v>
       </c>
       <c r="C77" s="48" t="s">
@@ -4522,13 +5583,13 @@
       <c r="E77" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="F77" s="243" t="s">
+      <c r="F77" s="181" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="238"/>
-      <c r="B78" s="241"/>
+      <c r="A78" s="176"/>
+      <c r="B78" s="179"/>
       <c r="C78" s="44" t="s">
         <v>10</v>
       </c>
@@ -4538,11 +5599,11 @@
       <c r="E78" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F78" s="244"/>
+      <c r="F78" s="182"/>
     </row>
     <row r="79" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A79" s="238"/>
-      <c r="B79" s="241"/>
+      <c r="A79" s="176"/>
+      <c r="B79" s="179"/>
       <c r="C79" s="45" t="s">
         <v>147</v>
       </c>
@@ -4552,11 +5613,11 @@
       <c r="E79" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F79" s="244"/>
+      <c r="F79" s="182"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="238"/>
-      <c r="B80" s="241"/>
+      <c r="A80" s="176"/>
+      <c r="B80" s="179"/>
       <c r="C80" s="44" t="s">
         <v>89</v>
       </c>
@@ -4566,11 +5627,11 @@
       <c r="E80" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="F80" s="244"/>
+      <c r="F80" s="182"/>
     </row>
     <row r="81" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="238"/>
-      <c r="B81" s="242"/>
+      <c r="A81" s="176"/>
+      <c r="B81" s="180"/>
       <c r="C81" s="47" t="s">
         <v>163</v>
       </c>
@@ -4580,10 +5641,10 @@
       <c r="E81" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="F81" s="245"/>
+      <c r="F81" s="183"/>
     </row>
     <row r="82" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="238"/>
+      <c r="A82" s="176"/>
       <c r="B82" s="50" t="s">
         <v>165</v>
       </c>
@@ -4601,8 +5662,8 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="238"/>
-      <c r="B83" s="240" t="s">
+      <c r="A83" s="176"/>
+      <c r="B83" s="178" t="s">
         <v>168</v>
       </c>
       <c r="C83" s="49" t="s">
@@ -4614,13 +5675,13 @@
       <c r="E83" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F83" s="243" t="s">
+      <c r="F83" s="181" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="238"/>
-      <c r="B84" s="242"/>
+      <c r="A84" s="176"/>
+      <c r="B84" s="180"/>
       <c r="C84" s="47" t="s">
         <v>143</v>
       </c>
@@ -4630,10 +5691,10 @@
       <c r="E84" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="F84" s="245"/>
+      <c r="F84" s="183"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="239"/>
+      <c r="A85" s="177"/>
       <c r="B85" s="54" t="s">
         <v>108</v>
       </c>
@@ -4695,10 +5756,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="146" t="s">
+      <c r="A93" s="242" t="s">
         <v>174</v>
       </c>
-      <c r="B93" s="147"/>
+      <c r="B93" s="243"/>
       <c r="C93" s="16" t="s">
         <v>6</v>
       </c>
@@ -4708,13 +5769,13 @@
       <c r="E93" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="F93" s="152" t="s">
+      <c r="F93" s="136" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="148"/>
-      <c r="B94" s="149"/>
+      <c r="A94" s="244"/>
+      <c r="B94" s="245"/>
       <c r="C94" s="17" t="s">
         <v>177</v>
       </c>
@@ -4724,11 +5785,11 @@
       <c r="E94" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F94" s="152"/>
+      <c r="F94" s="136"/>
     </row>
     <row r="95" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="148"/>
-      <c r="B95" s="149"/>
+      <c r="A95" s="244"/>
+      <c r="B95" s="245"/>
       <c r="C95" s="17" t="s">
         <v>179</v>
       </c>
@@ -4738,11 +5799,11 @@
       <c r="E95" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="F95" s="152"/>
+      <c r="F95" s="136"/>
     </row>
     <row r="96" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="148"/>
-      <c r="B96" s="149"/>
+      <c r="A96" s="244"/>
+      <c r="B96" s="245"/>
       <c r="C96" s="17" t="s">
         <v>182</v>
       </c>
@@ -4752,11 +5813,11 @@
       <c r="E96" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="F96" s="152"/>
+      <c r="F96" s="136"/>
     </row>
     <row r="97" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="148"/>
-      <c r="B97" s="149"/>
+      <c r="A97" s="244"/>
+      <c r="B97" s="245"/>
       <c r="C97" s="64" t="s">
         <v>184</v>
       </c>
@@ -4766,11 +5827,11 @@
       <c r="E97" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="F97" s="152"/>
+      <c r="F97" s="136"/>
     </row>
     <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="148"/>
-      <c r="B98" s="149"/>
+      <c r="A98" s="244"/>
+      <c r="B98" s="245"/>
       <c r="C98" s="64" t="s">
         <v>185</v>
       </c>
@@ -4780,11 +5841,11 @@
       <c r="E98" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="F98" s="152"/>
+      <c r="F98" s="136"/>
     </row>
     <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="148"/>
-      <c r="B99" s="149"/>
+      <c r="A99" s="244"/>
+      <c r="B99" s="245"/>
       <c r="C99" s="64" t="s">
         <v>187</v>
       </c>
@@ -4794,11 +5855,11 @@
       <c r="E99" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="F99" s="152"/>
+      <c r="F99" s="136"/>
     </row>
     <row r="100" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="148"/>
-      <c r="B100" s="149"/>
+      <c r="A100" s="244"/>
+      <c r="B100" s="245"/>
       <c r="C100" s="24" t="s">
         <v>189</v>
       </c>
@@ -4808,11 +5869,11 @@
       <c r="E100" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="F100" s="152"/>
+      <c r="F100" s="136"/>
     </row>
     <row r="101" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="148"/>
-      <c r="B101" s="149"/>
+      <c r="A101" s="244"/>
+      <c r="B101" s="245"/>
       <c r="C101" s="17" t="s">
         <v>191</v>
       </c>
@@ -4822,11 +5883,11 @@
       <c r="E101" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="F101" s="152"/>
+      <c r="F101" s="136"/>
     </row>
     <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="148"/>
-      <c r="B102" s="149"/>
+      <c r="A102" s="244"/>
+      <c r="B102" s="245"/>
       <c r="C102" s="17" t="s">
         <v>193</v>
       </c>
@@ -4836,11 +5897,11 @@
       <c r="E102" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="F102" s="152"/>
+      <c r="F102" s="136"/>
     </row>
     <row r="103" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="148"/>
-      <c r="B103" s="149"/>
+      <c r="A103" s="244"/>
+      <c r="B103" s="245"/>
       <c r="C103" s="17" t="s">
         <v>195</v>
       </c>
@@ -4850,11 +5911,11 @@
       <c r="E103" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="F103" s="152"/>
+      <c r="F103" s="136"/>
     </row>
     <row r="104" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="148"/>
-      <c r="B104" s="149"/>
+      <c r="A104" s="244"/>
+      <c r="B104" s="245"/>
       <c r="C104" s="17" t="s">
         <v>197</v>
       </c>
@@ -4864,11 +5925,11 @@
       <c r="E104" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="F104" s="152"/>
+      <c r="F104" s="136"/>
     </row>
     <row r="105" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="148"/>
-      <c r="B105" s="149"/>
+      <c r="A105" s="244"/>
+      <c r="B105" s="245"/>
       <c r="C105" s="24" t="s">
         <v>199</v>
       </c>
@@ -4878,11 +5939,11 @@
       <c r="E105" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="F105" s="152"/>
+      <c r="F105" s="136"/>
     </row>
     <row r="106" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="148"/>
-      <c r="B106" s="149"/>
+      <c r="A106" s="244"/>
+      <c r="B106" s="245"/>
       <c r="C106" s="24" t="s">
         <v>201</v>
       </c>
@@ -4892,11 +5953,11 @@
       <c r="E106" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="F106" s="152"/>
+      <c r="F106" s="136"/>
     </row>
     <row r="107" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="148"/>
-      <c r="B107" s="149"/>
+      <c r="A107" s="244"/>
+      <c r="B107" s="245"/>
       <c r="C107" s="44" t="s">
         <v>203</v>
       </c>
@@ -4906,11 +5967,11 @@
       <c r="E107" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="F107" s="152"/>
+      <c r="F107" s="136"/>
     </row>
     <row r="108" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="148"/>
-      <c r="B108" s="149"/>
+      <c r="A108" s="244"/>
+      <c r="B108" s="245"/>
       <c r="C108" s="44" t="s">
         <v>205</v>
       </c>
@@ -4920,11 +5981,11 @@
       <c r="E108" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="F108" s="152"/>
+      <c r="F108" s="136"/>
     </row>
     <row r="109" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="148"/>
-      <c r="B109" s="149"/>
+      <c r="A109" s="244"/>
+      <c r="B109" s="245"/>
       <c r="C109" s="62" t="s">
         <v>207</v>
       </c>
@@ -4934,11 +5995,11 @@
       <c r="E109" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="F109" s="152"/>
+      <c r="F109" s="136"/>
     </row>
     <row r="110" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="150"/>
-      <c r="B110" s="151"/>
+      <c r="A110" s="246"/>
+      <c r="B110" s="247"/>
       <c r="C110" s="63" t="s">
         <v>209</v>
       </c>
@@ -4948,31 +6009,31 @@
       <c r="E110" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="F110" s="152"/>
+      <c r="F110" s="136"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A111" s="228" t="s">
+      <c r="A111" s="248" t="s">
         <v>219</v>
       </c>
-      <c r="B111" s="228"/>
-      <c r="C111" s="228"/>
-      <c r="D111" s="228"/>
-      <c r="E111" s="228"/>
-      <c r="F111" s="228"/>
+      <c r="B111" s="248"/>
+      <c r="C111" s="248"/>
+      <c r="D111" s="248"/>
+      <c r="E111" s="248"/>
+      <c r="F111" s="248"/>
     </row>
     <row r="112" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="228"/>
-      <c r="B112" s="228"/>
-      <c r="C112" s="228"/>
-      <c r="D112" s="228"/>
-      <c r="E112" s="228"/>
-      <c r="F112" s="228"/>
+      <c r="A112" s="248"/>
+      <c r="B112" s="248"/>
+      <c r="C112" s="248"/>
+      <c r="D112" s="248"/>
+      <c r="E112" s="248"/>
+      <c r="F112" s="248"/>
     </row>
     <row r="113" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="146" t="s">
+      <c r="A113" s="242" t="s">
         <v>215</v>
       </c>
-      <c r="B113" s="147"/>
+      <c r="B113" s="243"/>
       <c r="C113" s="74" t="s">
         <v>216</v>
       </c>
@@ -4982,13 +6043,13 @@
       <c r="E113" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="F113" s="152" t="s">
+      <c r="F113" s="136" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="148"/>
-      <c r="B114" s="149"/>
+      <c r="A114" s="244"/>
+      <c r="B114" s="245"/>
       <c r="C114" s="44" t="s">
         <v>182</v>
       </c>
@@ -4998,11 +6059,11 @@
       <c r="E114" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="F114" s="152"/>
+      <c r="F114" s="136"/>
     </row>
     <row r="115" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="148"/>
-      <c r="B115" s="149"/>
+      <c r="A115" s="244"/>
+      <c r="B115" s="245"/>
       <c r="C115" s="44" t="s">
         <v>179</v>
       </c>
@@ -5012,11 +6073,11 @@
       <c r="E115" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="F115" s="152"/>
+      <c r="F115" s="136"/>
     </row>
     <row r="116" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="148"/>
-      <c r="B116" s="149"/>
+      <c r="A116" s="244"/>
+      <c r="B116" s="245"/>
       <c r="C116" s="44" t="s">
         <v>195</v>
       </c>
@@ -5026,11 +6087,11 @@
       <c r="E116" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="F116" s="152"/>
+      <c r="F116" s="136"/>
     </row>
     <row r="117" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="148"/>
-      <c r="B117" s="149"/>
+      <c r="A117" s="244"/>
+      <c r="B117" s="245"/>
       <c r="C117" s="44" t="s">
         <v>197</v>
       </c>
@@ -5040,11 +6101,11 @@
       <c r="E117" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="F117" s="152"/>
+      <c r="F117" s="136"/>
     </row>
     <row r="118" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="148"/>
-      <c r="B118" s="149"/>
+      <c r="A118" s="244"/>
+      <c r="B118" s="245"/>
       <c r="C118" s="62" t="s">
         <v>199</v>
       </c>
@@ -5054,11 +6115,11 @@
       <c r="E118" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="F118" s="152"/>
+      <c r="F118" s="136"/>
     </row>
     <row r="119" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="148"/>
-      <c r="B119" s="149"/>
+      <c r="A119" s="244"/>
+      <c r="B119" s="245"/>
       <c r="C119" s="62" t="s">
         <v>201</v>
       </c>
@@ -5068,11 +6129,11 @@
       <c r="E119" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="F119" s="152"/>
+      <c r="F119" s="136"/>
     </row>
     <row r="120" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="148"/>
-      <c r="B120" s="149"/>
+      <c r="A120" s="244"/>
+      <c r="B120" s="245"/>
       <c r="C120" s="44" t="s">
         <v>203</v>
       </c>
@@ -5082,11 +6143,11 @@
       <c r="E120" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="F120" s="152"/>
+      <c r="F120" s="136"/>
     </row>
     <row r="121" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="148"/>
-      <c r="B121" s="149"/>
+      <c r="A121" s="244"/>
+      <c r="B121" s="245"/>
       <c r="C121" s="44" t="s">
         <v>205</v>
       </c>
@@ -5096,11 +6157,11 @@
       <c r="E121" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="F121" s="152"/>
+      <c r="F121" s="136"/>
     </row>
     <row r="122" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="148"/>
-      <c r="B122" s="149"/>
+      <c r="A122" s="244"/>
+      <c r="B122" s="245"/>
       <c r="C122" s="75" t="s">
         <v>207</v>
       </c>
@@ -5110,11 +6171,11 @@
       <c r="E122" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="F122" s="152"/>
+      <c r="F122" s="136"/>
     </row>
     <row r="123" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="150"/>
-      <c r="B123" s="151"/>
+      <c r="A123" s="246"/>
+      <c r="B123" s="247"/>
       <c r="C123" s="76" t="s">
         <v>209</v>
       </c>
@@ -5124,13 +6185,13 @@
       <c r="E123" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="F123" s="153"/>
+      <c r="F123" s="263"/>
     </row>
     <row r="124" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="154" t="s">
+      <c r="A124" s="264" t="s">
         <v>224</v>
       </c>
-      <c r="B124" s="155"/>
+      <c r="B124" s="265"/>
       <c r="C124" s="77" t="s">
         <v>221</v>
       </c>
@@ -5145,10 +6206,10 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="246" t="s">
+      <c r="A125" s="266" t="s">
         <v>225</v>
       </c>
-      <c r="B125" s="247"/>
+      <c r="B125" s="267"/>
       <c r="C125" s="72" t="s">
         <v>6</v>
       </c>
@@ -5158,13 +6219,13 @@
       <c r="E125" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="F125" s="243" t="s">
+      <c r="F125" s="181" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="248"/>
-      <c r="B126" s="249"/>
+      <c r="A126" s="268"/>
+      <c r="B126" s="269"/>
       <c r="C126" s="72" t="s">
         <v>227</v>
       </c>
@@ -5174,11 +6235,11 @@
       <c r="E126" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="F126" s="244"/>
+      <c r="F126" s="182"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A127" s="248"/>
-      <c r="B127" s="249"/>
+      <c r="A127" s="268"/>
+      <c r="B127" s="269"/>
       <c r="C127" s="72" t="s">
         <v>23</v>
       </c>
@@ -5188,13 +6249,13 @@
       <c r="E127" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="F127" s="244"/>
+      <c r="F127" s="182"/>
     </row>
     <row r="128" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="250" t="s">
+      <c r="A128" s="270" t="s">
         <v>230</v>
       </c>
-      <c r="B128" s="251"/>
+      <c r="B128" s="271"/>
       <c r="C128" s="81" t="s">
         <v>231</v>
       </c>
@@ -5209,10 +6270,10 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="252" t="s">
+      <c r="A129" s="272" t="s">
         <v>232</v>
       </c>
-      <c r="B129" s="253"/>
+      <c r="B129" s="273"/>
       <c r="C129" s="82" t="s">
         <v>231</v>
       </c>
@@ -5227,10 +6288,10 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A130" s="254" t="s">
+      <c r="A130" s="274" t="s">
         <v>233</v>
       </c>
-      <c r="B130" s="255"/>
+      <c r="B130" s="275"/>
       <c r="C130" s="79" t="s">
         <v>234</v>
       </c>
@@ -5240,13 +6301,13 @@
       <c r="E130" s="79" t="s">
         <v>236</v>
       </c>
-      <c r="F130" s="258" t="s">
+      <c r="F130" s="278" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A131" s="256"/>
-      <c r="B131" s="257"/>
+      <c r="A131" s="276"/>
+      <c r="B131" s="277"/>
       <c r="C131" s="26" t="s">
         <v>237</v>
       </c>
@@ -5256,13 +6317,13 @@
       <c r="E131" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="F131" s="259"/>
+      <c r="F131" s="279"/>
     </row>
     <row r="132" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="260" t="s">
+      <c r="A132" s="155" t="s">
         <v>243</v>
       </c>
-      <c r="B132" s="261"/>
+      <c r="B132" s="156"/>
       <c r="C132" s="85" t="s">
         <v>244</v>
       </c>
@@ -5273,10 +6334,10 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="189" t="s">
+      <c r="A133" s="157" t="s">
         <v>246</v>
       </c>
-      <c r="B133" s="262"/>
+      <c r="B133" s="158"/>
       <c r="C133" s="87" t="s">
         <v>244</v>
       </c>
@@ -5287,10 +6348,10 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="189" t="s">
+      <c r="A134" s="157" t="s">
         <v>248</v>
       </c>
-      <c r="B134" s="262"/>
+      <c r="B134" s="158"/>
       <c r="C134" s="87" t="s">
         <v>244</v>
       </c>
@@ -5301,10 +6362,10 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="189" t="s">
+      <c r="A135" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="B135" s="262"/>
+      <c r="B135" s="158"/>
       <c r="C135" s="87" t="s">
         <v>244</v>
       </c>
@@ -5315,10 +6376,10 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="263" t="s">
+      <c r="A136" s="159" t="s">
         <v>252</v>
       </c>
-      <c r="B136" s="264"/>
+      <c r="B136" s="160"/>
       <c r="C136" s="89" t="s">
         <v>244</v>
       </c>
@@ -5329,10 +6390,10 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="270" t="s">
+      <c r="A137" s="138" t="s">
         <v>254</v>
       </c>
-      <c r="B137" s="271"/>
+      <c r="B137" s="139"/>
       <c r="C137" s="95" t="s">
         <v>244</v>
       </c>
@@ -5343,10 +6404,10 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="272" t="s">
+      <c r="A138" s="140" t="s">
         <v>256</v>
       </c>
-      <c r="B138" s="273"/>
+      <c r="B138" s="141"/>
       <c r="C138" s="95" t="s">
         <v>244</v>
       </c>
@@ -5357,10 +6418,10 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="274" t="s">
+      <c r="A139" s="142" t="s">
         <v>258</v>
       </c>
-      <c r="B139" s="275"/>
+      <c r="B139" s="143"/>
       <c r="C139" s="91" t="s">
         <v>244</v>
       </c>
@@ -5371,10 +6432,10 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A140" s="276" t="s">
+      <c r="A140" s="144" t="s">
         <v>260</v>
       </c>
-      <c r="B140" s="277"/>
+      <c r="B140" s="145"/>
       <c r="C140" s="97" t="s">
         <v>177</v>
       </c>
@@ -5384,13 +6445,13 @@
       <c r="E140" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="F140" s="282" t="s">
+      <c r="F140" s="150" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A141" s="278"/>
-      <c r="B141" s="279"/>
+      <c r="A141" s="146"/>
+      <c r="B141" s="147"/>
       <c r="C141" s="24" t="s">
         <v>263</v>
       </c>
@@ -5400,11 +6461,11 @@
       <c r="E141" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="F141" s="283"/>
+      <c r="F141" s="151"/>
     </row>
     <row r="142" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="280"/>
-      <c r="B142" s="281"/>
+      <c r="A142" s="148"/>
+      <c r="B142" s="149"/>
       <c r="C142" s="26" t="s">
         <v>265</v>
       </c>
@@ -5414,13 +6475,13 @@
       <c r="E142" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="F142" s="284"/>
+      <c r="F142" s="152"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A143" s="265" t="s">
+      <c r="A143" s="132" t="s">
         <v>267</v>
       </c>
-      <c r="B143" s="266"/>
+      <c r="B143" s="133"/>
       <c r="C143" s="93" t="s">
         <v>6</v>
       </c>
@@ -5430,13 +6491,13 @@
       <c r="E143" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="F143" s="152" t="s">
+      <c r="F143" s="136" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="267"/>
-      <c r="B144" s="268"/>
+      <c r="A144" s="134"/>
+      <c r="B144" s="135"/>
       <c r="C144" s="94" t="s">
         <v>270</v>
       </c>
@@ -5446,13 +6507,13 @@
       <c r="E144" s="94" t="s">
         <v>271</v>
       </c>
-      <c r="F144" s="269"/>
+      <c r="F144" s="137"/>
     </row>
     <row r="145" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="197" t="s">
+      <c r="A145" s="212" t="s">
         <v>272</v>
       </c>
-      <c r="B145" s="197"/>
+      <c r="B145" s="212"/>
       <c r="C145" s="98" t="s">
         <v>244</v>
       </c>
@@ -5465,10 +6526,10 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="197" t="s">
+      <c r="A146" s="212" t="s">
         <v>275</v>
       </c>
-      <c r="B146" s="197"/>
+      <c r="B146" s="212"/>
       <c r="C146" s="98" t="s">
         <v>244</v>
       </c>
@@ -5479,8 +6540,8 @@
       <c r="F146" s="99"/>
     </row>
     <row r="149" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="113"/>
-      <c r="B149" s="114"/>
+      <c r="A149" s="112"/>
+      <c r="B149" s="113"/>
       <c r="C149" s="101"/>
       <c r="D149" s="101"/>
       <c r="E149" s="101"/>
@@ -5490,41 +6551,41 @@
       <c r="A150" s="108" t="s">
         <v>277</v>
       </c>
-      <c r="B150" s="115" t="s">
+      <c r="B150" s="114" t="s">
         <v>136</v>
       </c>
-      <c r="C150" s="116" t="s">
+      <c r="C150" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D150" s="116" t="s">
+      <c r="D150" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E150" s="116" t="s">
+      <c r="E150" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="F150" s="117" t="s">
+      <c r="F150" s="116" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="224" t="s">
+      <c r="A151" s="195" t="s">
         <v>278</v>
       </c>
-      <c r="B151" s="118" t="s">
+      <c r="B151" s="117" t="s">
         <v>279</v>
       </c>
-      <c r="C151" s="119" t="s">
+      <c r="C151" s="118" t="s">
         <v>244</v>
       </c>
-      <c r="D151" s="119"/>
-      <c r="E151" s="119"/>
-      <c r="F151" s="120" t="s">
+      <c r="D151" s="118"/>
+      <c r="E151" s="118"/>
+      <c r="F151" s="119" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="225"/>
-      <c r="B152" s="121" t="s">
+      <c r="A152" s="196"/>
+      <c r="B152" s="120" t="s">
         <v>281</v>
       </c>
       <c r="C152" s="109" t="s">
@@ -5537,26 +6598,26 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A153" s="225"/>
-      <c r="B153" s="217" t="s">
+      <c r="A153" s="196"/>
+      <c r="B153" s="188" t="s">
         <v>283</v>
       </c>
-      <c r="C153" s="122" t="s">
+      <c r="C153" s="121" t="s">
         <v>284</v>
       </c>
-      <c r="D153" s="122" t="s">
+      <c r="D153" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="E153" s="122" t="s">
+      <c r="E153" s="121" t="s">
         <v>285</v>
       </c>
-      <c r="F153" s="135" t="s">
+      <c r="F153" s="162" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A154" s="225"/>
-      <c r="B154" s="217"/>
+      <c r="A154" s="196"/>
+      <c r="B154" s="188"/>
       <c r="C154" s="106" t="s">
         <v>287</v>
       </c>
@@ -5566,11 +6627,11 @@
       <c r="E154" s="106" t="s">
         <v>288</v>
       </c>
-      <c r="F154" s="135"/>
+      <c r="F154" s="162"/>
     </row>
     <row r="155" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A155" s="225"/>
-      <c r="B155" s="217"/>
+      <c r="A155" s="196"/>
+      <c r="B155" s="188"/>
       <c r="C155" s="106" t="s">
         <v>289</v>
       </c>
@@ -5580,11 +6641,11 @@
       <c r="E155" s="106" t="s">
         <v>290</v>
       </c>
-      <c r="F155" s="135"/>
+      <c r="F155" s="162"/>
     </row>
     <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="225"/>
-      <c r="B156" s="217"/>
+      <c r="A156" s="196"/>
+      <c r="B156" s="188"/>
       <c r="C156" s="107" t="s">
         <v>291</v>
       </c>
@@ -5594,11 +6655,11 @@
       <c r="E156" s="107" t="s">
         <v>293</v>
       </c>
-      <c r="F156" s="135"/>
+      <c r="F156" s="162"/>
     </row>
     <row r="157" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A157" s="225"/>
-      <c r="B157" s="143" t="s">
+      <c r="A157" s="196"/>
+      <c r="B157" s="189" t="s">
         <v>294</v>
       </c>
       <c r="C157" s="105" t="s">
@@ -5610,13 +6671,13 @@
       <c r="E157" s="105" t="s">
         <v>295</v>
       </c>
-      <c r="F157" s="132" t="s">
+      <c r="F157" s="130" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A158" s="225"/>
-      <c r="B158" s="144"/>
+      <c r="A158" s="196"/>
+      <c r="B158" s="191"/>
       <c r="C158" s="106" t="s">
         <v>231</v>
       </c>
@@ -5626,11 +6687,11 @@
       <c r="E158" s="106" t="s">
         <v>288</v>
       </c>
-      <c r="F158" s="136"/>
+      <c r="F158" s="153"/>
     </row>
     <row r="159" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A159" s="225"/>
-      <c r="B159" s="144"/>
+      <c r="A159" s="196"/>
+      <c r="B159" s="191"/>
       <c r="C159" s="106" t="s">
         <v>289</v>
       </c>
@@ -5640,11 +6701,11 @@
       <c r="E159" s="106" t="s">
         <v>290</v>
       </c>
-      <c r="F159" s="136"/>
+      <c r="F159" s="153"/>
     </row>
     <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="225"/>
-      <c r="B160" s="218"/>
+      <c r="A160" s="196"/>
+      <c r="B160" s="190"/>
       <c r="C160" s="107" t="s">
         <v>291</v>
       </c>
@@ -5654,11 +6715,11 @@
       <c r="E160" s="107" t="s">
         <v>293</v>
       </c>
-      <c r="F160" s="133"/>
+      <c r="F160" s="131"/>
     </row>
     <row r="161" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A161" s="225"/>
-      <c r="B161" s="143" t="s">
+      <c r="A161" s="196"/>
+      <c r="B161" s="189" t="s">
         <v>297</v>
       </c>
       <c r="C161" s="105" t="s">
@@ -5670,13 +6731,13 @@
       <c r="E161" s="105" t="s">
         <v>299</v>
       </c>
-      <c r="F161" s="132" t="s">
+      <c r="F161" s="130" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A162" s="225"/>
-      <c r="B162" s="144"/>
+      <c r="A162" s="196"/>
+      <c r="B162" s="191"/>
       <c r="C162" s="106" t="s">
         <v>231</v>
       </c>
@@ -5686,11 +6747,11 @@
       <c r="E162" s="106" t="s">
         <v>288</v>
       </c>
-      <c r="F162" s="136"/>
+      <c r="F162" s="153"/>
     </row>
     <row r="163" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A163" s="225"/>
-      <c r="B163" s="144"/>
+      <c r="A163" s="196"/>
+      <c r="B163" s="191"/>
       <c r="C163" s="106" t="s">
         <v>289</v>
       </c>
@@ -5700,11 +6761,11 @@
       <c r="E163" s="106" t="s">
         <v>290</v>
       </c>
-      <c r="F163" s="136"/>
+      <c r="F163" s="153"/>
     </row>
     <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="225"/>
-      <c r="B164" s="145"/>
+      <c r="A164" s="196"/>
+      <c r="B164" s="192"/>
       <c r="C164" s="103" t="s">
         <v>291</v>
       </c>
@@ -5714,11 +6775,11 @@
       <c r="E164" s="103" t="s">
         <v>293</v>
       </c>
-      <c r="F164" s="137"/>
+      <c r="F164" s="154"/>
     </row>
     <row r="165" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A165" s="225"/>
-      <c r="B165" s="216" t="s">
+      <c r="A165" s="196"/>
+      <c r="B165" s="187" t="s">
         <v>301</v>
       </c>
       <c r="C165" s="111" t="s">
@@ -5730,13 +6791,13 @@
       <c r="E165" s="111" t="s">
         <v>302</v>
       </c>
-      <c r="F165" s="134" t="s">
+      <c r="F165" s="161" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A166" s="225"/>
-      <c r="B166" s="217"/>
+      <c r="A166" s="196"/>
+      <c r="B166" s="188"/>
       <c r="C166" s="106" t="s">
         <v>304</v>
       </c>
@@ -5746,11 +6807,11 @@
       <c r="E166" s="106" t="s">
         <v>306</v>
       </c>
-      <c r="F166" s="135"/>
+      <c r="F166" s="162"/>
     </row>
     <row r="167" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A167" s="225"/>
-      <c r="B167" s="217"/>
+      <c r="A167" s="196"/>
+      <c r="B167" s="188"/>
       <c r="C167" s="106" t="s">
         <v>307</v>
       </c>
@@ -5760,11 +6821,11 @@
       <c r="E167" s="106" t="s">
         <v>308</v>
       </c>
-      <c r="F167" s="135"/>
+      <c r="F167" s="162"/>
     </row>
     <row r="168" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A168" s="225"/>
-      <c r="B168" s="217"/>
+      <c r="A168" s="196"/>
+      <c r="B168" s="188"/>
       <c r="C168" s="107" t="s">
         <v>289</v>
       </c>
@@ -5774,11 +6835,11 @@
       <c r="E168" s="107" t="s">
         <v>290</v>
       </c>
-      <c r="F168" s="135"/>
+      <c r="F168" s="162"/>
     </row>
     <row r="169" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="225"/>
-      <c r="B169" s="223"/>
+      <c r="A169" s="196"/>
+      <c r="B169" s="198"/>
       <c r="C169" s="103" t="s">
         <v>291</v>
       </c>
@@ -5788,11 +6849,11 @@
       <c r="E169" s="103" t="s">
         <v>293</v>
       </c>
-      <c r="F169" s="222"/>
+      <c r="F169" s="163"/>
     </row>
     <row r="170" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A170" s="225"/>
-      <c r="B170" s="216" t="s">
+      <c r="A170" s="196"/>
+      <c r="B170" s="187" t="s">
         <v>309</v>
       </c>
       <c r="C170" s="105" t="s">
@@ -5804,13 +6865,13 @@
       <c r="E170" s="111" t="s">
         <v>302</v>
       </c>
-      <c r="F170" s="134" t="s">
+      <c r="F170" s="161" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A171" s="225"/>
-      <c r="B171" s="217"/>
+      <c r="A171" s="196"/>
+      <c r="B171" s="188"/>
       <c r="C171" s="106" t="s">
         <v>304</v>
       </c>
@@ -5820,11 +6881,11 @@
       <c r="E171" s="106" t="s">
         <v>306</v>
       </c>
-      <c r="F171" s="135"/>
+      <c r="F171" s="162"/>
     </row>
     <row r="172" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A172" s="225"/>
-      <c r="B172" s="217"/>
+      <c r="A172" s="196"/>
+      <c r="B172" s="188"/>
       <c r="C172" s="106" t="s">
         <v>307</v>
       </c>
@@ -5834,11 +6895,11 @@
       <c r="E172" s="106" t="s">
         <v>308</v>
       </c>
-      <c r="F172" s="135"/>
+      <c r="F172" s="162"/>
     </row>
     <row r="173" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A173" s="225"/>
-      <c r="B173" s="217"/>
+      <c r="A173" s="196"/>
+      <c r="B173" s="188"/>
       <c r="C173" s="106" t="s">
         <v>289</v>
       </c>
@@ -5848,11 +6909,11 @@
       <c r="E173" s="106" t="s">
         <v>290</v>
       </c>
-      <c r="F173" s="135"/>
+      <c r="F173" s="162"/>
     </row>
     <row r="174" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="225"/>
-      <c r="B174" s="217"/>
+      <c r="A174" s="196"/>
+      <c r="B174" s="188"/>
       <c r="C174" s="107" t="s">
         <v>291</v>
       </c>
@@ -5862,11 +6923,11 @@
       <c r="E174" s="107" t="s">
         <v>293</v>
       </c>
-      <c r="F174" s="135"/>
+      <c r="F174" s="162"/>
     </row>
     <row r="175" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A175" s="225"/>
-      <c r="B175" s="143" t="s">
+      <c r="A175" s="196"/>
+      <c r="B175" s="189" t="s">
         <v>311</v>
       </c>
       <c r="C175" s="105" t="s">
@@ -5878,13 +6939,13 @@
       <c r="E175" s="105" t="s">
         <v>313</v>
       </c>
-      <c r="F175" s="132" t="s">
+      <c r="F175" s="130" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A176" s="225"/>
-      <c r="B176" s="144"/>
+      <c r="A176" s="196"/>
+      <c r="B176" s="191"/>
       <c r="C176" s="106" t="s">
         <v>231</v>
       </c>
@@ -5894,11 +6955,11 @@
       <c r="E176" s="111" t="s">
         <v>302</v>
       </c>
-      <c r="F176" s="136"/>
+      <c r="F176" s="153"/>
     </row>
     <row r="177" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A177" s="225"/>
-      <c r="B177" s="144"/>
+      <c r="A177" s="196"/>
+      <c r="B177" s="191"/>
       <c r="C177" s="106" t="s">
         <v>289</v>
       </c>
@@ -5908,11 +6969,11 @@
       <c r="E177" s="106" t="s">
         <v>290</v>
       </c>
-      <c r="F177" s="136"/>
+      <c r="F177" s="153"/>
     </row>
     <row r="178" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="225"/>
-      <c r="B178" s="218"/>
+      <c r="A178" s="196"/>
+      <c r="B178" s="190"/>
       <c r="C178" s="107" t="s">
         <v>291</v>
       </c>
@@ -5922,29 +6983,29 @@
       <c r="E178" s="107" t="s">
         <v>293</v>
       </c>
-      <c r="F178" s="133"/>
+      <c r="F178" s="131"/>
     </row>
     <row r="179" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A179" s="225"/>
-      <c r="B179" s="216" t="s">
+      <c r="A179" s="196"/>
+      <c r="B179" s="187" t="s">
         <v>315</v>
       </c>
-      <c r="C179" s="119" t="s">
+      <c r="C179" s="118" t="s">
         <v>312</v>
       </c>
-      <c r="D179" s="119" t="s">
-        <v>7</v>
-      </c>
-      <c r="E179" s="119" t="s">
+      <c r="D179" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" s="118" t="s">
         <v>316</v>
       </c>
-      <c r="F179" s="132" t="s">
+      <c r="F179" s="130" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A180" s="225"/>
-      <c r="B180" s="217"/>
+      <c r="A180" s="196"/>
+      <c r="B180" s="188"/>
       <c r="C180" s="106" t="s">
         <v>231</v>
       </c>
@@ -5954,11 +7015,11 @@
       <c r="E180" s="111" t="s">
         <v>302</v>
       </c>
-      <c r="F180" s="136"/>
+      <c r="F180" s="153"/>
     </row>
     <row r="181" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A181" s="225"/>
-      <c r="B181" s="217"/>
+      <c r="A181" s="196"/>
+      <c r="B181" s="188"/>
       <c r="C181" s="106" t="s">
         <v>289</v>
       </c>
@@ -5968,11 +7029,11 @@
       <c r="E181" s="106" t="s">
         <v>290</v>
       </c>
-      <c r="F181" s="136"/>
+      <c r="F181" s="153"/>
     </row>
     <row r="182" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="225"/>
-      <c r="B182" s="223"/>
+      <c r="A182" s="196"/>
+      <c r="B182" s="198"/>
       <c r="C182" s="103" t="s">
         <v>291</v>
       </c>
@@ -5982,11 +7043,11 @@
       <c r="E182" s="103" t="s">
         <v>293</v>
       </c>
-      <c r="F182" s="137"/>
+      <c r="F182" s="154"/>
     </row>
     <row r="183" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A183" s="225"/>
-      <c r="B183" s="217" t="s">
+      <c r="A183" s="196"/>
+      <c r="B183" s="188" t="s">
         <v>318</v>
       </c>
       <c r="C183" s="111" t="s">
@@ -5998,13 +7059,13 @@
       <c r="E183" s="111" t="s">
         <v>320</v>
       </c>
-      <c r="F183" s="135" t="s">
+      <c r="F183" s="162" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A184" s="225"/>
-      <c r="B184" s="217"/>
+      <c r="A184" s="196"/>
+      <c r="B184" s="188"/>
       <c r="C184" s="106" t="s">
         <v>322</v>
       </c>
@@ -6014,11 +7075,11 @@
       <c r="E184" s="106" t="s">
         <v>323</v>
       </c>
-      <c r="F184" s="135"/>
+      <c r="F184" s="162"/>
     </row>
     <row r="185" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A185" s="225"/>
-      <c r="B185" s="217"/>
+      <c r="A185" s="196"/>
+      <c r="B185" s="188"/>
       <c r="C185" s="107" t="s">
         <v>324</v>
       </c>
@@ -6028,11 +7089,11 @@
       <c r="E185" s="107" t="s">
         <v>325</v>
       </c>
-      <c r="F185" s="135"/>
+      <c r="F185" s="162"/>
     </row>
     <row r="186" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A186" s="225"/>
-      <c r="B186" s="217"/>
+      <c r="A186" s="196"/>
+      <c r="B186" s="188"/>
       <c r="C186" s="106" t="s">
         <v>231</v>
       </c>
@@ -6042,11 +7103,11 @@
       <c r="E186" s="111" t="s">
         <v>302</v>
       </c>
-      <c r="F186" s="135"/>
+      <c r="F186" s="162"/>
     </row>
     <row r="187" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A187" s="225"/>
-      <c r="B187" s="217"/>
+      <c r="A187" s="196"/>
+      <c r="B187" s="188"/>
       <c r="C187" s="106" t="s">
         <v>289</v>
       </c>
@@ -6056,11 +7117,11 @@
       <c r="E187" s="106" t="s">
         <v>290</v>
       </c>
-      <c r="F187" s="135"/>
+      <c r="F187" s="162"/>
     </row>
     <row r="188" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="225"/>
-      <c r="B188" s="223"/>
+      <c r="A188" s="196"/>
+      <c r="B188" s="198"/>
       <c r="C188" s="103" t="s">
         <v>291</v>
       </c>
@@ -6070,11 +7131,11 @@
       <c r="E188" s="103" t="s">
         <v>293</v>
       </c>
-      <c r="F188" s="222"/>
+      <c r="F188" s="163"/>
     </row>
     <row r="189" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A189" s="225"/>
-      <c r="B189" s="143" t="s">
+      <c r="A189" s="196"/>
+      <c r="B189" s="189" t="s">
         <v>326</v>
       </c>
       <c r="C189" s="105" t="s">
@@ -6086,13 +7147,13 @@
       <c r="E189" s="105" t="s">
         <v>328</v>
       </c>
-      <c r="F189" s="132" t="s">
+      <c r="F189" s="130" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A190" s="225"/>
-      <c r="B190" s="144"/>
+      <c r="A190" s="196"/>
+      <c r="B190" s="191"/>
       <c r="C190" s="106" t="s">
         <v>231</v>
       </c>
@@ -6102,11 +7163,11 @@
       <c r="E190" s="111" t="s">
         <v>302</v>
       </c>
-      <c r="F190" s="136"/>
+      <c r="F190" s="153"/>
     </row>
     <row r="191" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A191" s="225"/>
-      <c r="B191" s="144"/>
+      <c r="A191" s="196"/>
+      <c r="B191" s="191"/>
       <c r="C191" s="106" t="s">
         <v>289</v>
       </c>
@@ -6116,11 +7177,11 @@
       <c r="E191" s="106" t="s">
         <v>290</v>
       </c>
-      <c r="F191" s="136"/>
+      <c r="F191" s="153"/>
     </row>
     <row r="192" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="225"/>
-      <c r="B192" s="145"/>
+      <c r="A192" s="196"/>
+      <c r="B192" s="192"/>
       <c r="C192" s="103" t="s">
         <v>291</v>
       </c>
@@ -6130,233 +7191,233 @@
       <c r="E192" s="103" t="s">
         <v>293</v>
       </c>
-      <c r="F192" s="137"/>
+      <c r="F192" s="154"/>
     </row>
     <row r="193" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A193" s="225"/>
-      <c r="B193" s="216" t="s">
+      <c r="A193" s="196"/>
+      <c r="B193" s="280" t="s">
         <v>330</v>
       </c>
-      <c r="C193" s="105" t="s">
+      <c r="C193" s="281" t="s">
         <v>129</v>
       </c>
-      <c r="D193" s="105" t="s">
+      <c r="D193" s="281" t="s">
         <v>95</v>
       </c>
-      <c r="E193" s="105" t="s">
+      <c r="E193" s="281" t="s">
         <v>331</v>
       </c>
-      <c r="F193" s="134" t="s">
+      <c r="F193" s="282" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A194" s="225"/>
-      <c r="B194" s="217"/>
-      <c r="C194" s="106" t="s">
+      <c r="A194" s="196"/>
+      <c r="B194" s="283"/>
+      <c r="C194" s="284" t="s">
         <v>36</v>
       </c>
-      <c r="D194" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E194" s="106" t="s">
+      <c r="D194" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="284" t="s">
         <v>333</v>
       </c>
-      <c r="F194" s="135"/>
+      <c r="F194" s="285"/>
     </row>
     <row r="195" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A195" s="225"/>
-      <c r="B195" s="217"/>
-      <c r="C195" s="106" t="s">
+      <c r="A195" s="196"/>
+      <c r="B195" s="283"/>
+      <c r="C195" s="284" t="s">
         <v>334</v>
       </c>
-      <c r="D195" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E195" s="106" t="s">
+      <c r="D195" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="284" t="s">
         <v>335</v>
       </c>
-      <c r="F195" s="135"/>
+      <c r="F195" s="285"/>
     </row>
     <row r="196" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A196" s="225"/>
-      <c r="B196" s="217"/>
-      <c r="C196" s="106" t="s">
+      <c r="A196" s="196"/>
+      <c r="B196" s="283"/>
+      <c r="C196" s="284" t="s">
         <v>289</v>
       </c>
-      <c r="D196" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E196" s="106" t="s">
+      <c r="D196" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" s="284" t="s">
         <v>290</v>
       </c>
-      <c r="F196" s="135"/>
+      <c r="F196" s="285"/>
     </row>
     <row r="197" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="225"/>
-      <c r="B197" s="223"/>
-      <c r="C197" s="103" t="s">
+      <c r="A197" s="196"/>
+      <c r="B197" s="286"/>
+      <c r="C197" s="287" t="s">
         <v>336</v>
       </c>
-      <c r="D197" s="103" t="s">
-        <v>7</v>
-      </c>
-      <c r="E197" s="103" t="s">
+      <c r="D197" s="287" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" s="287" t="s">
         <v>337</v>
       </c>
-      <c r="F197" s="222"/>
+      <c r="F197" s="288"/>
     </row>
     <row r="198" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A198" s="225"/>
-      <c r="B198" s="216" t="s">
+      <c r="A198" s="196"/>
+      <c r="B198" s="280" t="s">
         <v>338</v>
       </c>
-      <c r="C198" s="105" t="s">
+      <c r="C198" s="281" t="s">
         <v>129</v>
       </c>
-      <c r="D198" s="105" t="s">
+      <c r="D198" s="281" t="s">
         <v>95</v>
       </c>
-      <c r="E198" s="105" t="s">
+      <c r="E198" s="281" t="s">
         <v>339</v>
       </c>
-      <c r="F198" s="134" t="s">
+      <c r="F198" s="282" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A199" s="225"/>
-      <c r="B199" s="217"/>
-      <c r="C199" s="106" t="s">
+      <c r="A199" s="196"/>
+      <c r="B199" s="283"/>
+      <c r="C199" s="284" t="s">
         <v>341</v>
       </c>
-      <c r="D199" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E199" s="106" t="s">
+      <c r="D199" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="284" t="s">
         <v>342</v>
       </c>
-      <c r="F199" s="135"/>
+      <c r="F199" s="285"/>
     </row>
     <row r="200" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A200" s="225"/>
-      <c r="B200" s="217"/>
-      <c r="C200" s="106" t="s">
+      <c r="A200" s="196"/>
+      <c r="B200" s="283"/>
+      <c r="C200" s="284" t="s">
         <v>343</v>
       </c>
-      <c r="D200" s="106" t="s">
+      <c r="D200" s="284" t="s">
         <v>70</v>
       </c>
-      <c r="E200" s="106" t="s">
+      <c r="E200" s="284" t="s">
         <v>344</v>
       </c>
-      <c r="F200" s="135"/>
+      <c r="F200" s="285"/>
     </row>
     <row r="201" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A201" s="225"/>
-      <c r="B201" s="217"/>
-      <c r="C201" s="106" t="s">
+      <c r="A201" s="196"/>
+      <c r="B201" s="283"/>
+      <c r="C201" s="284" t="s">
         <v>289</v>
       </c>
-      <c r="D201" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E201" s="106" t="s">
+      <c r="D201" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" s="284" t="s">
         <v>290</v>
       </c>
-      <c r="F201" s="135"/>
+      <c r="F201" s="285"/>
     </row>
     <row r="202" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="225"/>
-      <c r="B202" s="223"/>
-      <c r="C202" s="103" t="s">
+      <c r="A202" s="196"/>
+      <c r="B202" s="286"/>
+      <c r="C202" s="287" t="s">
         <v>336</v>
       </c>
-      <c r="D202" s="103" t="s">
-        <v>7</v>
-      </c>
-      <c r="E202" s="103" t="s">
+      <c r="D202" s="287" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" s="287" t="s">
         <v>337</v>
       </c>
-      <c r="F202" s="222"/>
+      <c r="F202" s="288"/>
     </row>
     <row r="203" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A203" s="225"/>
-      <c r="B203" s="216" t="s">
+      <c r="A203" s="196"/>
+      <c r="B203" s="280" t="s">
         <v>345</v>
       </c>
-      <c r="C203" s="105" t="s">
+      <c r="C203" s="281" t="s">
         <v>129</v>
       </c>
-      <c r="D203" s="105" t="s">
+      <c r="D203" s="281" t="s">
         <v>95</v>
       </c>
-      <c r="E203" s="105" t="s">
+      <c r="E203" s="281" t="s">
         <v>339</v>
       </c>
-      <c r="F203" s="134" t="s">
+      <c r="F203" s="282" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A204" s="225"/>
-      <c r="B204" s="217"/>
-      <c r="C204" s="111" t="s">
+      <c r="A204" s="196"/>
+      <c r="B204" s="283"/>
+      <c r="C204" s="289" t="s">
         <v>347</v>
       </c>
-      <c r="D204" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E204" s="106" t="s">
+      <c r="D204" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" s="284" t="s">
         <v>348</v>
       </c>
-      <c r="F204" s="135"/>
+      <c r="F204" s="285"/>
     </row>
     <row r="205" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A205" s="225"/>
-      <c r="B205" s="217"/>
-      <c r="C205" s="106" t="s">
+      <c r="A205" s="196"/>
+      <c r="B205" s="283"/>
+      <c r="C205" s="284" t="s">
         <v>349</v>
       </c>
-      <c r="D205" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E205" s="106" t="s">
+      <c r="D205" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" s="284" t="s">
         <v>350</v>
       </c>
-      <c r="F205" s="135"/>
+      <c r="F205" s="285"/>
     </row>
     <row r="206" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A206" s="225"/>
-      <c r="B206" s="217"/>
-      <c r="C206" s="107" t="s">
+      <c r="A206" s="196"/>
+      <c r="B206" s="283"/>
+      <c r="C206" s="290" t="s">
         <v>351</v>
       </c>
-      <c r="D206" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E206" s="107" t="s">
+      <c r="D206" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" s="290" t="s">
         <v>352</v>
       </c>
-      <c r="F206" s="135"/>
+      <c r="F206" s="285"/>
     </row>
     <row r="207" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="225"/>
-      <c r="B207" s="217"/>
-      <c r="C207" s="107" t="s">
+      <c r="A207" s="196"/>
+      <c r="B207" s="283"/>
+      <c r="C207" s="290" t="s">
         <v>289</v>
       </c>
-      <c r="D207" s="107" t="s">
-        <v>7</v>
-      </c>
-      <c r="E207" s="107" t="s">
+      <c r="D207" s="290" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" s="290" t="s">
         <v>290</v>
       </c>
-      <c r="F207" s="135"/>
+      <c r="F207" s="285"/>
     </row>
     <row r="208" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A208" s="225"/>
-      <c r="B208" s="143" t="s">
+      <c r="A208" s="196"/>
+      <c r="B208" s="189" t="s">
         <v>353</v>
       </c>
       <c r="C208" s="105" t="s">
@@ -6368,13 +7429,13 @@
       <c r="E208" s="105" t="s">
         <v>355</v>
       </c>
-      <c r="F208" s="132" t="s">
+      <c r="F208" s="130" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="225"/>
-      <c r="B209" s="218"/>
+      <c r="A209" s="196"/>
+      <c r="B209" s="190"/>
       <c r="C209" s="107" t="s">
         <v>289</v>
       </c>
@@ -6384,11 +7445,11 @@
       <c r="E209" s="107" t="s">
         <v>290</v>
       </c>
-      <c r="F209" s="133"/>
+      <c r="F209" s="131"/>
     </row>
     <row r="210" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A210" s="225"/>
-      <c r="B210" s="143" t="s">
+      <c r="A210" s="196"/>
+      <c r="B210" s="189" t="s">
         <v>43</v>
       </c>
       <c r="C210" s="105" t="s">
@@ -6400,13 +7461,13 @@
       <c r="E210" s="105" t="s">
         <v>358</v>
       </c>
-      <c r="F210" s="132" t="s">
+      <c r="F210" s="130" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="225"/>
-      <c r="B211" s="218"/>
+      <c r="A211" s="196"/>
+      <c r="B211" s="190"/>
       <c r="C211" s="107" t="s">
         <v>289</v>
       </c>
@@ -6416,447 +7477,447 @@
       <c r="E211" s="107" t="s">
         <v>290</v>
       </c>
-      <c r="F211" s="133"/>
+      <c r="F211" s="131"/>
     </row>
     <row r="212" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A212" s="225"/>
-      <c r="B212" s="143" t="s">
+      <c r="A212" s="196"/>
+      <c r="B212" s="291" t="s">
         <v>360</v>
       </c>
-      <c r="C212" s="105" t="s">
+      <c r="C212" s="281" t="s">
         <v>361</v>
       </c>
-      <c r="D212" s="105" t="s">
+      <c r="D212" s="281" t="s">
         <v>70</v>
       </c>
-      <c r="E212" s="105" t="s">
+      <c r="E212" s="281" t="s">
         <v>362</v>
       </c>
-      <c r="F212" s="132" t="s">
+      <c r="F212" s="292" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="225"/>
-      <c r="B213" s="218"/>
-      <c r="C213" s="107" t="s">
+      <c r="A213" s="196"/>
+      <c r="B213" s="293"/>
+      <c r="C213" s="290" t="s">
         <v>289</v>
       </c>
-      <c r="D213" s="107" t="s">
-        <v>7</v>
-      </c>
-      <c r="E213" s="107" t="s">
+      <c r="D213" s="290" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" s="290" t="s">
         <v>290</v>
       </c>
-      <c r="F213" s="133"/>
+      <c r="F213" s="294"/>
     </row>
     <row r="214" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A214" s="225"/>
-      <c r="B214" s="143" t="s">
+      <c r="A214" s="196"/>
+      <c r="B214" s="291" t="s">
         <v>364</v>
       </c>
-      <c r="C214" s="105" t="s">
+      <c r="C214" s="281" t="s">
         <v>361</v>
       </c>
-      <c r="D214" s="105" t="s">
+      <c r="D214" s="281" t="s">
         <v>70</v>
       </c>
-      <c r="E214" s="105" t="s">
+      <c r="E214" s="281" t="s">
         <v>362</v>
       </c>
-      <c r="F214" s="132" t="s">
+      <c r="F214" s="292" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="225"/>
-      <c r="B215" s="218"/>
-      <c r="C215" s="107" t="s">
+      <c r="A215" s="196"/>
+      <c r="B215" s="293"/>
+      <c r="C215" s="290" t="s">
         <v>289</v>
       </c>
-      <c r="D215" s="107" t="s">
-        <v>7</v>
-      </c>
-      <c r="E215" s="107" t="s">
+      <c r="D215" s="290" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" s="290" t="s">
         <v>290</v>
       </c>
-      <c r="F215" s="133"/>
+      <c r="F215" s="294"/>
     </row>
     <row r="216" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A216" s="225"/>
-      <c r="B216" s="216" t="s">
+      <c r="A216" s="196"/>
+      <c r="B216" s="280" t="s">
         <v>366</v>
       </c>
-      <c r="C216" s="105" t="s">
+      <c r="C216" s="281" t="s">
         <v>367</v>
       </c>
-      <c r="D216" s="105" t="s">
+      <c r="D216" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="E216" s="105" t="s">
+      <c r="E216" s="281" t="s">
         <v>368</v>
       </c>
-      <c r="F216" s="134" t="s">
+      <c r="F216" s="282" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A217" s="225"/>
-      <c r="B217" s="217"/>
-      <c r="C217" s="106" t="s">
+      <c r="A217" s="196"/>
+      <c r="B217" s="283"/>
+      <c r="C217" s="284" t="s">
         <v>231</v>
       </c>
-      <c r="D217" s="106" t="s">
+      <c r="D217" s="284" t="s">
         <v>95</v>
       </c>
-      <c r="E217" s="106" t="s">
+      <c r="E217" s="284" t="s">
         <v>302</v>
       </c>
-      <c r="F217" s="135"/>
+      <c r="F217" s="285"/>
     </row>
     <row r="218" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A218" s="225"/>
-      <c r="B218" s="217"/>
-      <c r="C218" s="106" t="s">
+      <c r="A218" s="196"/>
+      <c r="B218" s="283"/>
+      <c r="C218" s="284" t="s">
         <v>289</v>
       </c>
-      <c r="D218" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E218" s="106" t="s">
+      <c r="D218" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" s="284" t="s">
         <v>290</v>
       </c>
-      <c r="F218" s="135"/>
+      <c r="F218" s="285"/>
     </row>
     <row r="219" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="225"/>
-      <c r="B219" s="217"/>
-      <c r="C219" s="107" t="s">
+      <c r="A219" s="196"/>
+      <c r="B219" s="283"/>
+      <c r="C219" s="290" t="s">
         <v>291</v>
       </c>
-      <c r="D219" s="107" t="s">
+      <c r="D219" s="290" t="s">
         <v>292</v>
       </c>
-      <c r="E219" s="107" t="s">
+      <c r="E219" s="290" t="s">
         <v>293</v>
       </c>
-      <c r="F219" s="135"/>
+      <c r="F219" s="285"/>
     </row>
     <row r="220" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A220" s="225"/>
-      <c r="B220" s="143" t="s">
+      <c r="A220" s="196"/>
+      <c r="B220" s="291" t="s">
         <v>370</v>
       </c>
-      <c r="C220" s="105" t="s">
+      <c r="C220" s="281" t="s">
         <v>367</v>
       </c>
-      <c r="D220" s="105" t="s">
+      <c r="D220" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="E220" s="105" t="s">
+      <c r="E220" s="281" t="s">
         <v>368</v>
       </c>
-      <c r="F220" s="132" t="s">
+      <c r="F220" s="292" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A221" s="225"/>
-      <c r="B221" s="144"/>
-      <c r="C221" s="106" t="s">
+      <c r="A221" s="196"/>
+      <c r="B221" s="295"/>
+      <c r="C221" s="284" t="s">
         <v>231</v>
       </c>
-      <c r="D221" s="106" t="s">
+      <c r="D221" s="284" t="s">
         <v>95</v>
       </c>
-      <c r="E221" s="106" t="s">
+      <c r="E221" s="284" t="s">
         <v>302</v>
       </c>
-      <c r="F221" s="136"/>
+      <c r="F221" s="296"/>
     </row>
     <row r="222" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A222" s="225"/>
-      <c r="B222" s="144"/>
-      <c r="C222" s="106" t="s">
+      <c r="A222" s="196"/>
+      <c r="B222" s="295"/>
+      <c r="C222" s="284" t="s">
         <v>289</v>
       </c>
-      <c r="D222" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E222" s="106" t="s">
+      <c r="D222" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" s="284" t="s">
         <v>290</v>
       </c>
-      <c r="F222" s="136"/>
+      <c r="F222" s="296"/>
     </row>
     <row r="223" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="225"/>
-      <c r="B223" s="145"/>
-      <c r="C223" s="103" t="s">
+      <c r="A223" s="196"/>
+      <c r="B223" s="297"/>
+      <c r="C223" s="287" t="s">
         <v>291</v>
       </c>
-      <c r="D223" s="103" t="s">
+      <c r="D223" s="287" t="s">
         <v>292</v>
       </c>
-      <c r="E223" s="103" t="s">
+      <c r="E223" s="287" t="s">
         <v>293</v>
       </c>
-      <c r="F223" s="137"/>
+      <c r="F223" s="298"/>
     </row>
     <row r="224" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="225"/>
-      <c r="B224" s="123" t="s">
+      <c r="A224" s="196"/>
+      <c r="B224" s="122" t="s">
         <v>372</v>
       </c>
-      <c r="C224" s="122" t="s">
+      <c r="C224" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="D224" s="122" t="s">
+      <c r="D224" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="E224" s="122" t="s">
+      <c r="E224" s="121" t="s">
         <v>373</v>
       </c>
-      <c r="F224" s="124" t="s">
+      <c r="F224" s="123" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="225"/>
-      <c r="B225" s="143" t="s">
+      <c r="A225" s="196"/>
+      <c r="B225" s="291" t="s">
         <v>375</v>
       </c>
-      <c r="C225" s="105" t="s">
+      <c r="C225" s="281" t="s">
         <v>376</v>
       </c>
-      <c r="D225" s="105" t="s">
+      <c r="D225" s="281" t="s">
         <v>11</v>
       </c>
-      <c r="E225" s="105" t="s">
+      <c r="E225" s="281" t="s">
         <v>377</v>
       </c>
-      <c r="F225" s="132" t="s">
+      <c r="F225" s="292" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="225"/>
-      <c r="B226" s="144"/>
-      <c r="C226" s="106" t="s">
+      <c r="A226" s="196"/>
+      <c r="B226" s="295"/>
+      <c r="C226" s="284" t="s">
         <v>237</v>
       </c>
-      <c r="D226" s="106" t="s">
+      <c r="D226" s="284" t="s">
         <v>11</v>
       </c>
-      <c r="E226" s="106" t="s">
+      <c r="E226" s="284" t="s">
         <v>379</v>
       </c>
-      <c r="F226" s="132"/>
+      <c r="F226" s="292"/>
     </row>
     <row r="227" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="225"/>
-      <c r="B227" s="144"/>
-      <c r="C227" s="106" t="s">
+      <c r="A227" s="196"/>
+      <c r="B227" s="295"/>
+      <c r="C227" s="284" t="s">
         <v>380</v>
       </c>
-      <c r="D227" s="106" t="s">
+      <c r="D227" s="284" t="s">
         <v>11</v>
       </c>
-      <c r="E227" s="106" t="s">
+      <c r="E227" s="284" t="s">
         <v>381</v>
       </c>
-      <c r="F227" s="132"/>
+      <c r="F227" s="292"/>
     </row>
     <row r="228" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="225"/>
-      <c r="B228" s="144"/>
-      <c r="C228" s="106" t="s">
+      <c r="A228" s="196"/>
+      <c r="B228" s="295"/>
+      <c r="C228" s="284" t="s">
         <v>382</v>
       </c>
-      <c r="D228" s="106" t="s">
+      <c r="D228" s="284" t="s">
         <v>383</v>
       </c>
-      <c r="E228" s="106" t="s">
+      <c r="E228" s="284" t="s">
         <v>384</v>
       </c>
-      <c r="F228" s="132"/>
+      <c r="F228" s="292"/>
     </row>
     <row r="229" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="225"/>
-      <c r="B229" s="145"/>
-      <c r="C229" s="103" t="s">
+      <c r="A229" s="196"/>
+      <c r="B229" s="297"/>
+      <c r="C229" s="287" t="s">
         <v>385</v>
       </c>
-      <c r="D229" s="103" t="s">
+      <c r="D229" s="287" t="s">
         <v>70</v>
       </c>
-      <c r="E229" s="103" t="s">
+      <c r="E229" s="287" t="s">
         <v>386</v>
       </c>
-      <c r="F229" s="132"/>
+      <c r="F229" s="292"/>
     </row>
     <row r="230" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A230" s="225"/>
-      <c r="B230" s="219" t="s">
+      <c r="A230" s="196"/>
+      <c r="B230" s="299" t="s">
         <v>387</v>
       </c>
-      <c r="C230" s="125" t="s">
+      <c r="C230" s="300" t="s">
         <v>129</v>
       </c>
-      <c r="D230" s="105" t="s">
+      <c r="D230" s="281" t="s">
         <v>95</v>
       </c>
-      <c r="E230" s="126" t="s">
+      <c r="E230" s="301" t="s">
         <v>388</v>
       </c>
-      <c r="F230" s="138" t="s">
+      <c r="F230" s="302" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A231" s="225"/>
-      <c r="B231" s="220"/>
-      <c r="C231" s="112" t="s">
+      <c r="A231" s="196"/>
+      <c r="B231" s="303"/>
+      <c r="C231" s="304" t="s">
         <v>390</v>
       </c>
-      <c r="D231" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E231" s="112" t="s">
+      <c r="D231" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" s="304" t="s">
         <v>391</v>
       </c>
-      <c r="F231" s="139"/>
+      <c r="F231" s="305"/>
     </row>
     <row r="232" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A232" s="225"/>
-      <c r="B232" s="220"/>
-      <c r="C232" s="112" t="s">
+      <c r="A232" s="196"/>
+      <c r="B232" s="303"/>
+      <c r="C232" s="304" t="s">
         <v>392</v>
       </c>
-      <c r="D232" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E232" s="112" t="s">
+      <c r="D232" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="E232" s="304" t="s">
         <v>393</v>
       </c>
-      <c r="F232" s="139"/>
+      <c r="F232" s="305"/>
     </row>
     <row r="233" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A233" s="225"/>
-      <c r="B233" s="220"/>
-      <c r="C233" s="112" t="s">
+      <c r="A233" s="196"/>
+      <c r="B233" s="303"/>
+      <c r="C233" s="304" t="s">
         <v>394</v>
       </c>
-      <c r="D233" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E233" s="112" t="s">
+      <c r="D233" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233" s="304" t="s">
         <v>395</v>
       </c>
-      <c r="F233" s="139"/>
+      <c r="F233" s="305"/>
     </row>
     <row r="234" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A234" s="225"/>
-      <c r="B234" s="220"/>
-      <c r="C234" s="112" t="s">
+      <c r="A234" s="196"/>
+      <c r="B234" s="303"/>
+      <c r="C234" s="304" t="s">
         <v>351</v>
       </c>
-      <c r="D234" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E234" s="106" t="s">
+      <c r="D234" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="E234" s="284" t="s">
         <v>352</v>
       </c>
-      <c r="F234" s="139"/>
+      <c r="F234" s="305"/>
     </row>
     <row r="235" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="225"/>
-      <c r="B235" s="221"/>
-      <c r="C235" s="103" t="s">
+      <c r="A235" s="196"/>
+      <c r="B235" s="306"/>
+      <c r="C235" s="287" t="s">
         <v>289</v>
       </c>
-      <c r="D235" s="103" t="s">
-        <v>7</v>
-      </c>
-      <c r="E235" s="103" t="s">
+      <c r="D235" s="287" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" s="287" t="s">
         <v>290</v>
       </c>
-      <c r="F235" s="140"/>
+      <c r="F235" s="307"/>
     </row>
     <row r="236" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A236" s="225"/>
-      <c r="B236" s="219" t="s">
+      <c r="A236" s="196"/>
+      <c r="B236" s="193" t="s">
         <v>396</v>
       </c>
-      <c r="C236" s="126" t="s">
+      <c r="C236" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="D236" s="127" t="s">
-        <v>7</v>
-      </c>
-      <c r="E236" s="128" t="s">
+      <c r="D236" s="125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" s="126" t="s">
         <v>397</v>
       </c>
-      <c r="F236" s="140" t="s">
+      <c r="F236" s="260" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="226"/>
-      <c r="B237" s="221"/>
+      <c r="A237" s="197"/>
+      <c r="B237" s="194"/>
       <c r="C237" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="D237" s="129" t="s">
-        <v>7</v>
-      </c>
-      <c r="E237" s="130" t="s">
+      <c r="D237" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" s="128" t="s">
         <v>399</v>
       </c>
-      <c r="F237" s="141"/>
+      <c r="F237" s="261"/>
     </row>
     <row r="238" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="226"/>
-      <c r="B238" s="219" t="s">
+      <c r="A238" s="197"/>
+      <c r="B238" s="193" t="s">
         <v>165</v>
       </c>
-      <c r="C238" s="126" t="s">
+      <c r="C238" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D238" s="126" t="s">
-        <v>7</v>
-      </c>
-      <c r="E238" s="126" t="s">
+      <c r="D238" s="124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238" s="124" t="s">
         <v>397</v>
       </c>
-      <c r="F238" s="142" t="s">
+      <c r="F238" s="262" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="226"/>
-      <c r="B239" s="221"/>
+      <c r="A239" s="197"/>
+      <c r="B239" s="194"/>
       <c r="C239" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="D239" s="131" t="s">
+      <c r="D239" s="129" t="s">
         <v>7</v>
       </c>
       <c r="E239" s="103" t="s">
         <v>399</v>
       </c>
-      <c r="F239" s="141"/>
+      <c r="F239" s="261"/>
     </row>
     <row r="240" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="213" t="s">
+      <c r="A240" s="184" t="s">
         <v>401</v>
       </c>
-      <c r="B240" s="214"/>
-      <c r="C240" s="214"/>
-      <c r="D240" s="214"/>
-      <c r="E240" s="214"/>
-      <c r="F240" s="215"/>
-    </row>
-    <row r="241" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B240" s="185"/>
+      <c r="C240" s="185"/>
+      <c r="D240" s="185"/>
+      <c r="E240" s="185"/>
+      <c r="F240" s="186"/>
+    </row>
+    <row r="241" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A241" s="100"/>
       <c r="B241" s="100"/>
       <c r="C241" s="100"/>
@@ -6864,40 +7925,1332 @@
       <c r="E241" s="100"/>
       <c r="F241" s="100"/>
     </row>
+    <row r="242" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="308" t="s">
+        <v>402</v>
+      </c>
+      <c r="B242" s="309" t="s">
+        <v>403</v>
+      </c>
+      <c r="C242" s="310" t="s">
+        <v>1</v>
+      </c>
+      <c r="D242" s="310" t="s">
+        <v>2</v>
+      </c>
+      <c r="E242" s="310" t="s">
+        <v>3</v>
+      </c>
+      <c r="F242" s="310" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="311" t="s">
+        <v>404</v>
+      </c>
+      <c r="B243" s="312"/>
+      <c r="C243" s="313" t="s">
+        <v>405</v>
+      </c>
+      <c r="D243" s="313" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243" s="313" t="s">
+        <v>406</v>
+      </c>
+      <c r="F243" s="314" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="315" t="s">
+        <v>408</v>
+      </c>
+      <c r="B244" s="316" t="s">
+        <v>409</v>
+      </c>
+      <c r="C244" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="D244" s="317" t="s">
+        <v>95</v>
+      </c>
+      <c r="E244" s="317" t="s">
+        <v>410</v>
+      </c>
+      <c r="F244" s="318"/>
+    </row>
+    <row r="245" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="315"/>
+      <c r="B245" s="319"/>
+      <c r="C245" s="320" t="s">
+        <v>405</v>
+      </c>
+      <c r="D245" s="320" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245" s="320" t="s">
+        <v>411</v>
+      </c>
+      <c r="F245" s="321"/>
+    </row>
+    <row r="246" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="315"/>
+      <c r="B246" s="322" t="s">
+        <v>412</v>
+      </c>
+      <c r="C246" s="323" t="s">
+        <v>413</v>
+      </c>
+      <c r="D246" s="324" t="s">
+        <v>11</v>
+      </c>
+      <c r="E246" s="323" t="s">
+        <v>414</v>
+      </c>
+      <c r="F246" s="321"/>
+    </row>
+    <row r="247" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="315"/>
+      <c r="B247" s="325"/>
+      <c r="C247" s="323" t="s">
+        <v>415</v>
+      </c>
+      <c r="D247" s="323" t="s">
+        <v>95</v>
+      </c>
+      <c r="E247" s="323" t="s">
+        <v>410</v>
+      </c>
+      <c r="F247" s="321"/>
+    </row>
+    <row r="248" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="315"/>
+      <c r="B248" s="325"/>
+      <c r="C248" s="323" t="s">
+        <v>416</v>
+      </c>
+      <c r="D248" s="323" t="s">
+        <v>95</v>
+      </c>
+      <c r="E248" s="323" t="s">
+        <v>417</v>
+      </c>
+      <c r="F248" s="321"/>
+    </row>
+    <row r="249" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="315"/>
+      <c r="B249" s="325"/>
+      <c r="C249" s="326" t="s">
+        <v>405</v>
+      </c>
+      <c r="D249" s="326" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" s="326" t="s">
+        <v>411</v>
+      </c>
+      <c r="F249" s="327"/>
+    </row>
+    <row r="250" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="315"/>
+      <c r="B250" s="361" t="s">
+        <v>418</v>
+      </c>
+      <c r="C250" s="362" t="s">
+        <v>129</v>
+      </c>
+      <c r="D250" s="363" t="s">
+        <v>95</v>
+      </c>
+      <c r="E250" s="364" t="s">
+        <v>410</v>
+      </c>
+      <c r="F250" s="365" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="315"/>
+      <c r="B251" s="366"/>
+      <c r="C251" s="367" t="s">
+        <v>405</v>
+      </c>
+      <c r="D251" s="368" t="s">
+        <v>7</v>
+      </c>
+      <c r="E251" s="367" t="s">
+        <v>411</v>
+      </c>
+      <c r="F251" s="369"/>
+    </row>
+    <row r="252" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="315"/>
+      <c r="B252" s="366"/>
+      <c r="C252" s="370" t="s">
+        <v>420</v>
+      </c>
+      <c r="D252" s="368" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252" s="370" t="s">
+        <v>421</v>
+      </c>
+      <c r="F252" s="369"/>
+    </row>
+    <row r="253" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="315"/>
+      <c r="B253" s="371"/>
+      <c r="C253" s="372" t="s">
+        <v>422</v>
+      </c>
+      <c r="D253" s="373" t="s">
+        <v>11</v>
+      </c>
+      <c r="E253" s="372" t="s">
+        <v>423</v>
+      </c>
+      <c r="F253" s="374"/>
+    </row>
+    <row r="254" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="315"/>
+      <c r="B254" s="330" t="s">
+        <v>424</v>
+      </c>
+      <c r="C254" s="331" t="s">
+        <v>129</v>
+      </c>
+      <c r="D254" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E254" s="332" t="s">
+        <v>410</v>
+      </c>
+      <c r="F254" s="333" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="315"/>
+      <c r="B255" s="334"/>
+      <c r="C255" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="D255" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E255" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="F255" s="335"/>
+    </row>
+    <row r="256" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="315"/>
+      <c r="B256" s="334"/>
+      <c r="C256" s="61" t="s">
+        <v>420</v>
+      </c>
+      <c r="D256" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E256" s="61" t="s">
+        <v>421</v>
+      </c>
+      <c r="F256" s="335"/>
+    </row>
+    <row r="257" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="315"/>
+      <c r="B257" s="336"/>
+      <c r="C257" s="329" t="s">
+        <v>426</v>
+      </c>
+      <c r="D257" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E257" s="329" t="s">
+        <v>427</v>
+      </c>
+      <c r="F257" s="337"/>
+    </row>
+    <row r="258" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="315"/>
+      <c r="B258" s="330" t="s">
+        <v>428</v>
+      </c>
+      <c r="C258" s="331" t="s">
+        <v>129</v>
+      </c>
+      <c r="D258" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E258" s="332" t="s">
+        <v>410</v>
+      </c>
+      <c r="F258" s="333" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="315"/>
+      <c r="B259" s="334"/>
+      <c r="C259" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="D259" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E259" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="F259" s="335"/>
+    </row>
+    <row r="260" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="315"/>
+      <c r="B260" s="334"/>
+      <c r="C260" s="61" t="s">
+        <v>430</v>
+      </c>
+      <c r="D260" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E260" s="61" t="s">
+        <v>431</v>
+      </c>
+      <c r="F260" s="335"/>
+    </row>
+    <row r="261" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="315"/>
+      <c r="B261" s="334"/>
+      <c r="C261" s="61" t="s">
+        <v>432</v>
+      </c>
+      <c r="D261" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E261" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="F261" s="335"/>
+    </row>
+    <row r="262" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="315"/>
+      <c r="B262" s="334"/>
+      <c r="C262" s="61" t="s">
+        <v>434</v>
+      </c>
+      <c r="D262" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E262" s="61" t="s">
+        <v>435</v>
+      </c>
+      <c r="F262" s="335"/>
+    </row>
+    <row r="263" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="315"/>
+      <c r="B263" s="334"/>
+      <c r="C263" s="61" t="s">
+        <v>436</v>
+      </c>
+      <c r="D263" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E263" s="61" t="s">
+        <v>437</v>
+      </c>
+      <c r="F263" s="335"/>
+    </row>
+    <row r="264" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="315"/>
+      <c r="B264" s="338"/>
+      <c r="C264" s="339" t="s">
+        <v>438</v>
+      </c>
+      <c r="D264" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="E264" s="339" t="s">
+        <v>439</v>
+      </c>
+      <c r="F264" s="340"/>
+    </row>
+    <row r="265" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="315"/>
+      <c r="B265" s="375" t="s">
+        <v>440</v>
+      </c>
+      <c r="C265" s="362" t="s">
+        <v>129</v>
+      </c>
+      <c r="D265" s="363" t="s">
+        <v>95</v>
+      </c>
+      <c r="E265" s="364" t="s">
+        <v>410</v>
+      </c>
+      <c r="F265" s="376"/>
+    </row>
+    <row r="266" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="315"/>
+      <c r="B266" s="377"/>
+      <c r="C266" s="367" t="s">
+        <v>405</v>
+      </c>
+      <c r="D266" s="368" t="s">
+        <v>7</v>
+      </c>
+      <c r="E266" s="367" t="s">
+        <v>411</v>
+      </c>
+      <c r="F266" s="378"/>
+    </row>
+    <row r="267" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="315"/>
+      <c r="B267" s="377"/>
+      <c r="C267" s="370" t="s">
+        <v>441</v>
+      </c>
+      <c r="D267" s="368" t="s">
+        <v>39</v>
+      </c>
+      <c r="E267" s="370" t="s">
+        <v>442</v>
+      </c>
+      <c r="F267" s="378"/>
+    </row>
+    <row r="268" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="315"/>
+      <c r="B268" s="379"/>
+      <c r="C268" s="380" t="s">
+        <v>443</v>
+      </c>
+      <c r="D268" s="380" t="s">
+        <v>444</v>
+      </c>
+      <c r="E268" s="380" t="s">
+        <v>445</v>
+      </c>
+      <c r="F268" s="381"/>
+    </row>
+    <row r="269" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="315"/>
+      <c r="B269" s="375" t="s">
+        <v>446</v>
+      </c>
+      <c r="C269" s="362" t="s">
+        <v>129</v>
+      </c>
+      <c r="D269" s="363" t="s">
+        <v>95</v>
+      </c>
+      <c r="E269" s="364" t="s">
+        <v>410</v>
+      </c>
+      <c r="F269" s="382" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="315"/>
+      <c r="B270" s="377"/>
+      <c r="C270" s="367" t="s">
+        <v>405</v>
+      </c>
+      <c r="D270" s="368" t="s">
+        <v>7</v>
+      </c>
+      <c r="E270" s="367" t="s">
+        <v>411</v>
+      </c>
+      <c r="F270" s="383"/>
+    </row>
+    <row r="271" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="315"/>
+      <c r="B271" s="377"/>
+      <c r="C271" s="370" t="s">
+        <v>430</v>
+      </c>
+      <c r="D271" s="368" t="s">
+        <v>24</v>
+      </c>
+      <c r="E271" s="367" t="s">
+        <v>448</v>
+      </c>
+      <c r="F271" s="383"/>
+    </row>
+    <row r="272" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="315"/>
+      <c r="B272" s="377"/>
+      <c r="C272" s="370" t="s">
+        <v>449</v>
+      </c>
+      <c r="D272" s="370" t="s">
+        <v>444</v>
+      </c>
+      <c r="E272" s="370" t="s">
+        <v>450</v>
+      </c>
+      <c r="F272" s="383"/>
+    </row>
+    <row r="273" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="315"/>
+      <c r="B273" s="377"/>
+      <c r="C273" s="370" t="s">
+        <v>451</v>
+      </c>
+      <c r="D273" s="370" t="s">
+        <v>444</v>
+      </c>
+      <c r="E273" s="370" t="s">
+        <v>445</v>
+      </c>
+      <c r="F273" s="383"/>
+    </row>
+    <row r="274" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="315"/>
+      <c r="B274" s="379"/>
+      <c r="C274" s="380" t="s">
+        <v>452</v>
+      </c>
+      <c r="D274" s="380" t="s">
+        <v>444</v>
+      </c>
+      <c r="E274" s="380" t="s">
+        <v>453</v>
+      </c>
+      <c r="F274" s="384"/>
+    </row>
+    <row r="275" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="315"/>
+      <c r="B275" s="385" t="s">
+        <v>454</v>
+      </c>
+      <c r="C275" s="362" t="s">
+        <v>129</v>
+      </c>
+      <c r="D275" s="363" t="s">
+        <v>95</v>
+      </c>
+      <c r="E275" s="364" t="s">
+        <v>410</v>
+      </c>
+      <c r="F275" s="386" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="315"/>
+      <c r="B276" s="387"/>
+      <c r="C276" s="367" t="s">
+        <v>405</v>
+      </c>
+      <c r="D276" s="368" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" s="367" t="s">
+        <v>411</v>
+      </c>
+      <c r="F276" s="388"/>
+    </row>
+    <row r="277" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="315"/>
+      <c r="B277" s="387"/>
+      <c r="C277" s="370" t="s">
+        <v>430</v>
+      </c>
+      <c r="D277" s="368" t="s">
+        <v>24</v>
+      </c>
+      <c r="E277" s="367" t="s">
+        <v>448</v>
+      </c>
+      <c r="F277" s="388"/>
+    </row>
+    <row r="278" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="315"/>
+      <c r="B278" s="387"/>
+      <c r="C278" s="370" t="s">
+        <v>455</v>
+      </c>
+      <c r="D278" s="370" t="s">
+        <v>444</v>
+      </c>
+      <c r="E278" s="370" t="s">
+        <v>450</v>
+      </c>
+      <c r="F278" s="388"/>
+    </row>
+    <row r="279" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="315"/>
+      <c r="B279" s="387"/>
+      <c r="C279" s="370" t="s">
+        <v>451</v>
+      </c>
+      <c r="D279" s="370" t="s">
+        <v>444</v>
+      </c>
+      <c r="E279" s="370" t="s">
+        <v>445</v>
+      </c>
+      <c r="F279" s="388"/>
+    </row>
+    <row r="280" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="315"/>
+      <c r="B280" s="387"/>
+      <c r="C280" s="370" t="s">
+        <v>456</v>
+      </c>
+      <c r="D280" s="370" t="s">
+        <v>444</v>
+      </c>
+      <c r="E280" s="370" t="s">
+        <v>453</v>
+      </c>
+      <c r="F280" s="388"/>
+    </row>
+    <row r="281" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="315"/>
+      <c r="B281" s="387"/>
+      <c r="C281" s="389" t="s">
+        <v>457</v>
+      </c>
+      <c r="D281" s="380" t="s">
+        <v>444</v>
+      </c>
+      <c r="E281" s="389" t="s">
+        <v>458</v>
+      </c>
+      <c r="F281" s="388"/>
+    </row>
+    <row r="282" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="315"/>
+      <c r="B282" s="385" t="s">
+        <v>459</v>
+      </c>
+      <c r="C282" s="362" t="s">
+        <v>129</v>
+      </c>
+      <c r="D282" s="363" t="s">
+        <v>95</v>
+      </c>
+      <c r="E282" s="364" t="s">
+        <v>410</v>
+      </c>
+      <c r="F282" s="382" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="315"/>
+      <c r="B283" s="387"/>
+      <c r="C283" s="367" t="s">
+        <v>405</v>
+      </c>
+      <c r="D283" s="368" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" s="367" t="s">
+        <v>411</v>
+      </c>
+      <c r="F283" s="383"/>
+    </row>
+    <row r="284" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="315"/>
+      <c r="B284" s="387"/>
+      <c r="C284" s="370" t="s">
+        <v>461</v>
+      </c>
+      <c r="D284" s="368" t="s">
+        <v>7</v>
+      </c>
+      <c r="E284" s="370" t="s">
+        <v>462</v>
+      </c>
+      <c r="F284" s="383"/>
+    </row>
+    <row r="285" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="315"/>
+      <c r="B285" s="387"/>
+      <c r="C285" s="370" t="s">
+        <v>463</v>
+      </c>
+      <c r="D285" s="370" t="s">
+        <v>444</v>
+      </c>
+      <c r="E285" s="370" t="s">
+        <v>464</v>
+      </c>
+      <c r="F285" s="383"/>
+    </row>
+    <row r="286" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="315"/>
+      <c r="B286" s="387"/>
+      <c r="C286" s="370" t="s">
+        <v>465</v>
+      </c>
+      <c r="D286" s="368" t="s">
+        <v>39</v>
+      </c>
+      <c r="E286" s="370" t="s">
+        <v>466</v>
+      </c>
+      <c r="F286" s="383"/>
+    </row>
+    <row r="287" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="315"/>
+      <c r="B287" s="387"/>
+      <c r="C287" s="370" t="s">
+        <v>467</v>
+      </c>
+      <c r="D287" s="368" t="s">
+        <v>39</v>
+      </c>
+      <c r="E287" s="370" t="s">
+        <v>468</v>
+      </c>
+      <c r="F287" s="383"/>
+    </row>
+    <row r="288" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="315"/>
+      <c r="B288" s="387"/>
+      <c r="C288" s="389" t="s">
+        <v>469</v>
+      </c>
+      <c r="D288" s="390" t="s">
+        <v>7</v>
+      </c>
+      <c r="E288" s="389" t="s">
+        <v>470</v>
+      </c>
+      <c r="F288" s="384"/>
+    </row>
+    <row r="289" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="315"/>
+      <c r="B289" s="375" t="s">
+        <v>471</v>
+      </c>
+      <c r="C289" s="362" t="s">
+        <v>129</v>
+      </c>
+      <c r="D289" s="363" t="s">
+        <v>95</v>
+      </c>
+      <c r="E289" s="364" t="s">
+        <v>410</v>
+      </c>
+      <c r="F289" s="382"/>
+    </row>
+    <row r="290" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="315"/>
+      <c r="B290" s="377"/>
+      <c r="C290" s="367" t="s">
+        <v>405</v>
+      </c>
+      <c r="D290" s="368" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290" s="367" t="s">
+        <v>411</v>
+      </c>
+      <c r="F290" s="383"/>
+    </row>
+    <row r="291" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="315"/>
+      <c r="B291" s="377"/>
+      <c r="C291" s="367" t="s">
+        <v>441</v>
+      </c>
+      <c r="D291" s="368" t="s">
+        <v>39</v>
+      </c>
+      <c r="E291" s="370" t="s">
+        <v>442</v>
+      </c>
+      <c r="F291" s="383"/>
+    </row>
+    <row r="292" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="315"/>
+      <c r="B292" s="391"/>
+      <c r="C292" s="372" t="s">
+        <v>472</v>
+      </c>
+      <c r="D292" s="392" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" s="372" t="s">
+        <v>473</v>
+      </c>
+      <c r="F292" s="393"/>
+    </row>
+    <row r="293" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="344"/>
+      <c r="B293" s="344"/>
+      <c r="C293" s="344"/>
+      <c r="D293" s="344"/>
+      <c r="E293" s="344"/>
+      <c r="F293" s="344"/>
+    </row>
+    <row r="294" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="345" t="s">
+        <v>474</v>
+      </c>
+      <c r="B294" s="346" t="s">
+        <v>403</v>
+      </c>
+      <c r="C294" s="347" t="s">
+        <v>1</v>
+      </c>
+      <c r="D294" s="347" t="s">
+        <v>2</v>
+      </c>
+      <c r="E294" s="347" t="s">
+        <v>3</v>
+      </c>
+      <c r="F294" s="347" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A295" s="348" t="s">
+        <v>475</v>
+      </c>
+      <c r="B295" s="349" t="s">
+        <v>476</v>
+      </c>
+      <c r="C295" s="328" t="s">
+        <v>477</v>
+      </c>
+      <c r="D295" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" s="328" t="s">
+        <v>478</v>
+      </c>
+      <c r="F295" s="342" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A296" s="350"/>
+      <c r="B296" s="351"/>
+      <c r="C296" s="61" t="s">
+        <v>480</v>
+      </c>
+      <c r="D296" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E296" s="61" t="s">
+        <v>481</v>
+      </c>
+      <c r="F296" s="335"/>
+    </row>
+    <row r="297" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="350"/>
+      <c r="B297" s="351"/>
+      <c r="C297" s="61" t="s">
+        <v>482</v>
+      </c>
+      <c r="D297" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E297" s="61" t="s">
+        <v>483</v>
+      </c>
+      <c r="F297" s="335"/>
+    </row>
+    <row r="298" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="350"/>
+      <c r="B298" s="352" t="s">
+        <v>484</v>
+      </c>
+      <c r="C298" s="61" t="s">
+        <v>477</v>
+      </c>
+      <c r="D298" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E298" s="328" t="s">
+        <v>478</v>
+      </c>
+      <c r="F298" s="353" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A299" s="350"/>
+      <c r="B299" s="352" t="s">
+        <v>486</v>
+      </c>
+      <c r="C299" s="61" t="s">
+        <v>477</v>
+      </c>
+      <c r="D299" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E299" s="328" t="s">
+        <v>478</v>
+      </c>
+      <c r="F299" s="353" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A300" s="350"/>
+      <c r="B300" s="351" t="s">
+        <v>488</v>
+      </c>
+      <c r="C300" s="61" t="s">
+        <v>477</v>
+      </c>
+      <c r="D300" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E300" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="F300" s="335" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A301" s="350"/>
+      <c r="B301" s="351"/>
+      <c r="C301" s="61" t="s">
+        <v>490</v>
+      </c>
+      <c r="D301" s="354" t="s">
+        <v>39</v>
+      </c>
+      <c r="E301" s="61" t="s">
+        <v>491</v>
+      </c>
+      <c r="F301" s="335"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A302" s="350"/>
+      <c r="B302" s="61" t="s">
+        <v>492</v>
+      </c>
+      <c r="C302" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D302" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E302" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="F302" s="341" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A303" s="350"/>
+      <c r="B303" s="351" t="s">
+        <v>494</v>
+      </c>
+      <c r="C303" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D303" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E303" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="F303" s="335" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A304" s="350"/>
+      <c r="B304" s="351"/>
+      <c r="C304" s="61" t="s">
+        <v>494</v>
+      </c>
+      <c r="D304" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E304" s="61" t="s">
+        <v>496</v>
+      </c>
+      <c r="F304" s="335"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A305" s="350"/>
+      <c r="B305" s="351"/>
+      <c r="C305" s="61" t="s">
+        <v>497</v>
+      </c>
+      <c r="D305" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E305" s="61" t="s">
+        <v>498</v>
+      </c>
+      <c r="F305" s="335"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A306" s="350"/>
+      <c r="B306" s="355" t="s">
+        <v>499</v>
+      </c>
+      <c r="C306" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D306" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E306" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="F306" s="340" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A307" s="350"/>
+      <c r="B307" s="356"/>
+      <c r="C307" s="61" t="s">
+        <v>494</v>
+      </c>
+      <c r="D307" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E307" s="61" t="s">
+        <v>496</v>
+      </c>
+      <c r="F307" s="343"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A308" s="350"/>
+      <c r="B308" s="356"/>
+      <c r="C308" s="61" t="s">
+        <v>497</v>
+      </c>
+      <c r="D308" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E308" s="61" t="s">
+        <v>498</v>
+      </c>
+      <c r="F308" s="343"/>
+    </row>
+    <row r="309" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A309" s="350"/>
+      <c r="B309" s="357"/>
+      <c r="C309" s="61" t="s">
+        <v>501</v>
+      </c>
+      <c r="D309" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E309" s="61" t="s">
+        <v>502</v>
+      </c>
+      <c r="F309" s="333"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A310" s="350"/>
+      <c r="B310" s="351" t="s">
+        <v>503</v>
+      </c>
+      <c r="C310" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D310" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E310" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="F310" s="335" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A311" s="350"/>
+      <c r="B311" s="351"/>
+      <c r="C311" s="61" t="s">
+        <v>505</v>
+      </c>
+      <c r="D311" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E311" s="61" t="s">
+        <v>506</v>
+      </c>
+      <c r="F311" s="335"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A312" s="350"/>
+      <c r="B312" s="351" t="s">
+        <v>507</v>
+      </c>
+      <c r="C312" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D312" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E312" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="F312" s="335" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A313" s="350"/>
+      <c r="B313" s="351"/>
+      <c r="C313" s="61" t="s">
+        <v>509</v>
+      </c>
+      <c r="D313" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E313" s="61" t="s">
+        <v>510</v>
+      </c>
+      <c r="F313" s="335"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A314" s="350"/>
+      <c r="B314" s="351"/>
+      <c r="C314" s="61" t="s">
+        <v>511</v>
+      </c>
+      <c r="D314" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E314" s="61" t="s">
+        <v>512</v>
+      </c>
+      <c r="F314" s="335"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A315" s="350"/>
+      <c r="B315" s="61" t="s">
+        <v>513</v>
+      </c>
+      <c r="C315" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D315" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E315" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="F315" s="341" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A316" s="350"/>
+      <c r="B316" s="351" t="s">
+        <v>515</v>
+      </c>
+      <c r="C316" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D316" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E316" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="F316" s="335" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A317" s="350"/>
+      <c r="B317" s="351"/>
+      <c r="C317" s="61" t="s">
+        <v>517</v>
+      </c>
+      <c r="D317" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E317" s="358" t="s">
+        <v>518</v>
+      </c>
+      <c r="F317" s="335"/>
+    </row>
+    <row r="318" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="350"/>
+      <c r="B318" s="359"/>
+      <c r="C318" s="329" t="s">
+        <v>519</v>
+      </c>
+      <c r="D318" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E318" s="360" t="s">
+        <v>520</v>
+      </c>
+      <c r="F318" s="337"/>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A319" s="350"/>
+      <c r="B319" s="355" t="s">
+        <v>521</v>
+      </c>
+      <c r="C319" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D319" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E319" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="F319" s="340" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A320" s="350"/>
+      <c r="B320" s="356"/>
+      <c r="C320" s="61" t="s">
+        <v>494</v>
+      </c>
+      <c r="D320" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E320" s="61" t="s">
+        <v>496</v>
+      </c>
+      <c r="F320" s="343"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A321" s="350"/>
+      <c r="B321" s="356"/>
+      <c r="C321" s="61" t="s">
+        <v>497</v>
+      </c>
+      <c r="D321" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E321" s="61" t="s">
+        <v>498</v>
+      </c>
+      <c r="F321" s="343"/>
+    </row>
+    <row r="322" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A322" s="350"/>
+      <c r="B322" s="357"/>
+      <c r="C322" s="61" t="s">
+        <v>501</v>
+      </c>
+      <c r="D322" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E322" s="61" t="s">
+        <v>502</v>
+      </c>
+      <c r="F322" s="333"/>
+    </row>
   </sheetData>
-  <mergeCells count="117">
-    <mergeCell ref="F212:F213"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="A143:B144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B142"/>
-    <mergeCell ref="F140:F142"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="F189:F192"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="F193:F197"/>
-    <mergeCell ref="F198:F202"/>
-    <mergeCell ref="F203:F207"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="A65:A85"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="F71:F76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="F77:F81"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="F83:F84"/>
+  <mergeCells count="152">
+    <mergeCell ref="A295:A322"/>
+    <mergeCell ref="B295:B297"/>
+    <mergeCell ref="F295:F297"/>
+    <mergeCell ref="B300:B301"/>
+    <mergeCell ref="F300:F301"/>
+    <mergeCell ref="B303:B305"/>
+    <mergeCell ref="F303:F305"/>
+    <mergeCell ref="B306:B309"/>
+    <mergeCell ref="F306:F309"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="F310:F311"/>
+    <mergeCell ref="B312:B314"/>
+    <mergeCell ref="F312:F314"/>
+    <mergeCell ref="B316:B318"/>
+    <mergeCell ref="F316:F318"/>
+    <mergeCell ref="B319:B322"/>
+    <mergeCell ref="F319:F322"/>
+    <mergeCell ref="A244:A292"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="B246:B249"/>
+    <mergeCell ref="B250:B253"/>
+    <mergeCell ref="F250:F253"/>
+    <mergeCell ref="B254:B257"/>
+    <mergeCell ref="F254:F257"/>
+    <mergeCell ref="B258:B264"/>
+    <mergeCell ref="F258:F264"/>
+    <mergeCell ref="B265:B268"/>
+    <mergeCell ref="B269:B274"/>
+    <mergeCell ref="F269:F274"/>
+    <mergeCell ref="B275:B281"/>
+    <mergeCell ref="F275:F281"/>
+    <mergeCell ref="B282:B288"/>
+    <mergeCell ref="F282:F288"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="F289:F292"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="F216:F219"/>
+    <mergeCell ref="F220:F223"/>
+    <mergeCell ref="F225:F229"/>
+    <mergeCell ref="F230:F235"/>
+    <mergeCell ref="F236:F237"/>
+    <mergeCell ref="F238:F239"/>
+    <mergeCell ref="B189:B192"/>
+    <mergeCell ref="A113:B123"/>
+    <mergeCell ref="F113:F123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="F165:F169"/>
+    <mergeCell ref="F170:F174"/>
+    <mergeCell ref="F175:F178"/>
+    <mergeCell ref="F179:F182"/>
+    <mergeCell ref="B193:B197"/>
+    <mergeCell ref="B198:B202"/>
+    <mergeCell ref="A125:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B131"/>
+    <mergeCell ref="F125:F127"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="F183:F188"/>
+    <mergeCell ref="A11:B15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A44:B48"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A25:B28"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A5:B10"/>
+    <mergeCell ref="F5:F10"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="A29:B31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="A32:B35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B43"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A51:B52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A53:B55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="A93:B110"/>
+    <mergeCell ref="F93:F110"/>
+    <mergeCell ref="A111:F112"/>
     <mergeCell ref="A240:F240"/>
     <mergeCell ref="B203:B207"/>
     <mergeCell ref="B208:B209"/>
@@ -6922,122 +9275,98 @@
     <mergeCell ref="B175:B178"/>
     <mergeCell ref="B179:B182"/>
     <mergeCell ref="B183:B188"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A5:B10"/>
-    <mergeCell ref="F5:F10"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="A29:B31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="A32:B35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B43"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A51:B52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A53:B55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="A93:B110"/>
-    <mergeCell ref="F93:F110"/>
-    <mergeCell ref="A111:F112"/>
-    <mergeCell ref="A11:B15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:B20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A44:B48"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A25:B28"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="F216:F219"/>
-    <mergeCell ref="F220:F223"/>
-    <mergeCell ref="F225:F229"/>
-    <mergeCell ref="F230:F235"/>
-    <mergeCell ref="F236:F237"/>
-    <mergeCell ref="F238:F239"/>
-    <mergeCell ref="B189:B192"/>
-    <mergeCell ref="A113:B123"/>
-    <mergeCell ref="F113:F123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="F165:F169"/>
-    <mergeCell ref="F170:F174"/>
-    <mergeCell ref="F175:F178"/>
-    <mergeCell ref="F179:F182"/>
-    <mergeCell ref="B193:B197"/>
-    <mergeCell ref="B198:B202"/>
-    <mergeCell ref="A125:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A130:B131"/>
-    <mergeCell ref="F125:F127"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="F183:F188"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="F193:F197"/>
+    <mergeCell ref="F198:F202"/>
+    <mergeCell ref="F203:F207"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="A65:A85"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="F71:F76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="F77:F81"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="F212:F213"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="A143:B144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B142"/>
+    <mergeCell ref="F140:F142"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="F189:F192"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C34">
-    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
       <formula>LEFT(C1,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C61">
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
       <formula>LEFT(C38,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:C86">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>LEFT(C64,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C110">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>LEFT(C93,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:C92">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>LEFT(C91,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C113:C123">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>LEFT(C113,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>LEFT(C124,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C125:C127">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>LEFT(C125,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C128:C129">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>LEFT(C128,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C130:C131">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>LEFT(C130,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132:C144">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>LEFT(C132,LEN("*"))="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C242:C322">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>LEFT(C132,LEN("*"))="*"</formula>
+      <formula>LEFT(C242,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
